--- a/analysis/mails_01/P01_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P01_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="742">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -66,6 +66,12 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
+    <t xml:space="preserve">57.6282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3637</t>
+  </si>
+  <si>
     <t xml:space="preserve">natural_soil</t>
   </si>
   <si>
@@ -99,6 +105,12 @@
     <t xml:space="preserve">MFD00247</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.078</t>
+  </si>
+  <si>
     <t xml:space="preserve">7230</t>
   </si>
   <si>
@@ -120,6 +132,12 @@
     <t xml:space="preserve">MFD00248</t>
   </si>
   <si>
+    <t xml:space="preserve">57.6447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4039</t>
+  </si>
+  <si>
     <t xml:space="preserve">7150</t>
   </si>
   <si>
@@ -138,6 +156,12 @@
     <t xml:space="preserve">MFD00249</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9261</t>
+  </si>
+  <si>
     <t xml:space="preserve">agriculture</t>
   </si>
   <si>
@@ -153,6 +177,12 @@
     <t xml:space="preserve">MFD00250</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8799</t>
+  </si>
+  <si>
     <t xml:space="preserve">vandplasken</t>
   </si>
   <si>
@@ -162,6 +192,12 @@
     <t xml:space="preserve">MFD00251</t>
   </si>
   <si>
+    <t xml:space="preserve">57.581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0803</t>
+  </si>
+  <si>
     <t xml:space="preserve">uggerby skovvej</t>
   </si>
   <si>
@@ -171,6 +207,12 @@
     <t xml:space="preserve">MFD00252</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0571</t>
+  </si>
+  <si>
     <t xml:space="preserve">kjul strand</t>
   </si>
   <si>
@@ -180,6 +222,12 @@
     <t xml:space="preserve">MFD00253</t>
   </si>
   <si>
+    <t xml:space="preserve">57.6431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.407</t>
+  </si>
+  <si>
     <t xml:space="preserve">2190</t>
   </si>
   <si>
@@ -195,6 +243,12 @@
     <t xml:space="preserve">MFD00254</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2409</t>
+  </si>
+  <si>
     <t xml:space="preserve">tversted plantage</t>
   </si>
   <si>
@@ -204,6 +258,12 @@
     <t xml:space="preserve">MFD00255</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6556</t>
+  </si>
+  <si>
     <t xml:space="preserve">6210</t>
   </si>
   <si>
@@ -225,6 +285,12 @@
     <t xml:space="preserve">MFD00256</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9511</t>
+  </si>
+  <si>
     <t xml:space="preserve">4010</t>
   </si>
   <si>
@@ -246,6 +312,12 @@
     <t xml:space="preserve">MFD00257</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5608</t>
+  </si>
+  <si>
     <t xml:space="preserve">raspkær</t>
   </si>
   <si>
@@ -255,6 +327,12 @@
     <t xml:space="preserve">MFD00258</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9299</t>
+  </si>
+  <si>
     <t xml:space="preserve">91D0</t>
   </si>
   <si>
@@ -276,6 +354,12 @@
     <t xml:space="preserve">MFD00259</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6768</t>
+  </si>
+  <si>
     <t xml:space="preserve">2140</t>
   </si>
   <si>
@@ -291,6 +375,12 @@
     <t xml:space="preserve">MFD00260</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6424</t>
+  </si>
+  <si>
     <t xml:space="preserve">kokkærvand</t>
   </si>
   <si>
@@ -300,6 +390,12 @@
     <t xml:space="preserve">MFD00261</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9169</t>
+  </si>
+  <si>
     <t xml:space="preserve">tjenestejorden</t>
   </si>
   <si>
@@ -309,6 +405,12 @@
     <t xml:space="preserve">MFD00262</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9118</t>
+  </si>
+  <si>
     <t xml:space="preserve">tovsigvej</t>
   </si>
   <si>
@@ -318,6 +420,12 @@
     <t xml:space="preserve">MFD00263</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8748</t>
+  </si>
+  <si>
     <t xml:space="preserve">6410</t>
   </si>
   <si>
@@ -336,6 +444,12 @@
     <t xml:space="preserve">MFD00264</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8621</t>
+  </si>
+  <si>
     <t xml:space="preserve">9150</t>
   </si>
   <si>
@@ -351,6 +465,12 @@
     <t xml:space="preserve">MFD00265</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8358</t>
+  </si>
+  <si>
     <t xml:space="preserve">9110</t>
   </si>
   <si>
@@ -366,6 +486,12 @@
     <t xml:space="preserve">MFD00266</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9222</t>
+  </si>
+  <si>
     <t xml:space="preserve">9160</t>
   </si>
   <si>
@@ -381,6 +507,12 @@
     <t xml:space="preserve">MFD00267</t>
   </si>
   <si>
+    <t xml:space="preserve">56.9374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2161</t>
+  </si>
+  <si>
     <t xml:space="preserve">høstemark engskov</t>
   </si>
   <si>
@@ -390,6 +522,12 @@
     <t xml:space="preserve">MFD00268</t>
   </si>
   <si>
+    <t xml:space="preserve">56.9321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2298</t>
+  </si>
+  <si>
     <t xml:space="preserve">91E0</t>
   </si>
   <si>
@@ -405,6 +543,12 @@
     <t xml:space="preserve">MFD00269</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8003</t>
+  </si>
+  <si>
     <t xml:space="preserve">5130</t>
   </si>
   <si>
@@ -426,6 +570,12 @@
     <t xml:space="preserve">MFD00270</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8201</t>
+  </si>
+  <si>
     <t xml:space="preserve">gravlev kær</t>
   </si>
   <si>
@@ -435,6 +585,12 @@
     <t xml:space="preserve">MFD00271</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8509</t>
+  </si>
+  <si>
     <t xml:space="preserve">rold</t>
   </si>
   <si>
@@ -444,6 +600,12 @@
     <t xml:space="preserve">MFD00272</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1287</t>
+  </si>
+  <si>
     <t xml:space="preserve">husby klit</t>
   </si>
   <si>
@@ -453,6 +615,12 @@
     <t xml:space="preserve">MFD00273</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.378</t>
+  </si>
+  <si>
     <t xml:space="preserve">7140</t>
   </si>
   <si>
@@ -468,6 +636,12 @@
     <t xml:space="preserve">MFD00274</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1952</t>
+  </si>
+  <si>
     <t xml:space="preserve">sønderbyvej</t>
   </si>
   <si>
@@ -477,6 +651,12 @@
     <t xml:space="preserve">MFD00275</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5079</t>
+  </si>
+  <si>
     <t xml:space="preserve">4030</t>
   </si>
   <si>
@@ -492,6 +672,12 @@
     <t xml:space="preserve">MFD00276</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3888</t>
+  </si>
+  <si>
     <t xml:space="preserve">ejstrup eng</t>
   </si>
   <si>
@@ -501,6 +687,12 @@
     <t xml:space="preserve">MFD00277</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3723</t>
+  </si>
+  <si>
     <t xml:space="preserve">ejstrup krat</t>
   </si>
   <si>
@@ -510,6 +702,12 @@
     <t xml:space="preserve">MFD00278</t>
   </si>
   <si>
+    <t xml:space="preserve">56.318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1623</t>
+  </si>
+  <si>
     <t xml:space="preserve">nissum</t>
   </si>
   <si>
@@ -519,6 +717,12 @@
     <t xml:space="preserve">MFD00279</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1362</t>
+  </si>
+  <si>
     <t xml:space="preserve">klitvej</t>
   </si>
   <si>
@@ -528,6 +732,12 @@
     <t xml:space="preserve">MFD00280</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4939</t>
+  </si>
+  <si>
     <t xml:space="preserve">stråsø plantage</t>
   </si>
   <si>
@@ -537,6 +747,12 @@
     <t xml:space="preserve">MFD00281</t>
   </si>
   <si>
+    <t xml:space="preserve">55.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1743</t>
+  </si>
+  <si>
     <t xml:space="preserve">nymindegab</t>
   </si>
   <si>
@@ -546,6 +762,12 @@
     <t xml:space="preserve">MFD00282</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1828</t>
+  </si>
+  <si>
     <t xml:space="preserve">houstrup strand</t>
   </si>
   <si>
@@ -555,6 +777,12 @@
     <t xml:space="preserve">MFD00283</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2417</t>
+  </si>
+  <si>
     <t xml:space="preserve">vrøgum kær</t>
   </si>
   <si>
@@ -564,6 +792,12 @@
     <t xml:space="preserve">MFD00284</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1907</t>
+  </si>
+  <si>
     <t xml:space="preserve">9190</t>
   </si>
   <si>
@@ -579,6 +813,12 @@
     <t xml:space="preserve">MFD00285</t>
   </si>
   <si>
+    <t xml:space="preserve">55.795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2128</t>
+  </si>
+  <si>
     <t xml:space="preserve">lønne</t>
   </si>
   <si>
@@ -588,6 +828,12 @@
     <t xml:space="preserve">MFD00286</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0802</t>
+  </si>
+  <si>
     <t xml:space="preserve">blåvand</t>
   </si>
   <si>
@@ -597,6 +843,12 @@
     <t xml:space="preserve">MFD00287</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1696</t>
+  </si>
+  <si>
     <t xml:space="preserve">breddal</t>
   </si>
   <si>
@@ -606,6 +858,12 @@
     <t xml:space="preserve">MFD00288</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2164</t>
+  </si>
+  <si>
     <t xml:space="preserve">filsøvej</t>
   </si>
   <si>
@@ -615,6 +873,12 @@
     <t xml:space="preserve">MFD00289</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8977</t>
+  </si>
+  <si>
     <t xml:space="preserve">6230</t>
   </si>
   <si>
@@ -630,6 +894,12 @@
     <t xml:space="preserve">MFD00290</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9352</t>
+  </si>
+  <si>
     <t xml:space="preserve">helm hede</t>
   </si>
   <si>
@@ -639,6 +909,12 @@
     <t xml:space="preserve">MFD00291</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.959</t>
+  </si>
+  <si>
     <t xml:space="preserve">lindestykket</t>
   </si>
   <si>
@@ -648,6 +924,12 @@
     <t xml:space="preserve">MFD00292</t>
   </si>
   <si>
+    <t xml:space="preserve">55.207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9509</t>
+  </si>
+  <si>
     <t xml:space="preserve">lindet</t>
   </si>
   <si>
@@ -657,6 +939,12 @@
     <t xml:space="preserve">MFD00293</t>
   </si>
   <si>
+    <t xml:space="preserve">55.293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0593</t>
+  </si>
+  <si>
     <t xml:space="preserve">9130</t>
   </si>
   <si>
@@ -672,6 +960,12 @@
     <t xml:space="preserve">MFD00294</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.974</t>
+  </si>
+  <si>
     <t xml:space="preserve">grønnevej</t>
   </si>
   <si>
@@ -681,6 +975,12 @@
     <t xml:space="preserve">MFD00295</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9845</t>
+  </si>
+  <si>
     <t xml:space="preserve">gråbjerg mose</t>
   </si>
   <si>
@@ -690,6 +990,12 @@
     <t xml:space="preserve">MFD00296</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0675</t>
+  </si>
+  <si>
     <t xml:space="preserve">gram å</t>
   </si>
   <si>
@@ -699,6 +1005,12 @@
     <t xml:space="preserve">MFD00297</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9498</t>
+  </si>
+  <si>
     <t xml:space="preserve">damvej</t>
   </si>
   <si>
@@ -708,6 +1020,12 @@
     <t xml:space="preserve">MFD00298</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5312</t>
+  </si>
+  <si>
     <t xml:space="preserve">elbjerg</t>
   </si>
   <si>
@@ -717,6 +1035,12 @@
     <t xml:space="preserve">MFD00299</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4802</t>
+  </si>
+  <si>
     <t xml:space="preserve">kalø</t>
   </si>
   <si>
@@ -726,6 +1050,12 @@
     <t xml:space="preserve">MFD00300</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8488</t>
+  </si>
+  <si>
     <t xml:space="preserve">glatved</t>
   </si>
   <si>
@@ -735,6 +1065,12 @@
     <t xml:space="preserve">MFD00301</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4716</t>
+  </si>
+  <si>
     <t xml:space="preserve">hestehaven</t>
   </si>
   <si>
@@ -744,6 +1080,12 @@
     <t xml:space="preserve">MFD00302</t>
   </si>
   <si>
+    <t xml:space="preserve">56.207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5233</t>
+  </si>
+  <si>
     <t xml:space="preserve">helligkilde</t>
   </si>
   <si>
@@ -753,6 +1095,12 @@
     <t xml:space="preserve">MFD00303</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5294</t>
+  </si>
+  <si>
     <t xml:space="preserve">6120</t>
   </si>
   <si>
@@ -771,6 +1119,12 @@
     <t xml:space="preserve">MFD00304</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.514</t>
+  </si>
+  <si>
     <t xml:space="preserve">sletterhage</t>
   </si>
   <si>
@@ -780,6 +1134,12 @@
     <t xml:space="preserve">MFD00305</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5872</t>
+  </si>
+  <si>
     <t xml:space="preserve">strandkær</t>
   </si>
   <si>
@@ -789,6 +1149,12 @@
     <t xml:space="preserve">MFD00306</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5626</t>
+  </si>
+  <si>
     <t xml:space="preserve">langemose</t>
   </si>
   <si>
@@ -798,6 +1164,12 @@
     <t xml:space="preserve">MFD00307</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4151</t>
+  </si>
+  <si>
     <t xml:space="preserve">urfuglebakken</t>
   </si>
   <si>
@@ -807,6 +1179,12 @@
     <t xml:space="preserve">MFD00308</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3588</t>
+  </si>
+  <si>
     <t xml:space="preserve">letmose</t>
   </si>
   <si>
@@ -816,6 +1194,12 @@
     <t xml:space="preserve">MFD00309</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7044</t>
+  </si>
+  <si>
     <t xml:space="preserve">mossø</t>
   </si>
   <si>
@@ -825,6 +1209,12 @@
     <t xml:space="preserve">MFD00310</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3983</t>
+  </si>
+  <si>
     <t xml:space="preserve">tørvefladen</t>
   </si>
   <si>
@@ -834,6 +1224,12 @@
     <t xml:space="preserve">MFD00311</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7318</t>
+  </si>
+  <si>
     <t xml:space="preserve">odderholm</t>
   </si>
   <si>
@@ -843,6 +1239,12 @@
     <t xml:space="preserve">MFD00312</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6384</t>
+  </si>
+  <si>
     <t xml:space="preserve">højkol</t>
   </si>
   <si>
@@ -852,6 +1254,9 @@
     <t xml:space="preserve">MFD00313</t>
   </si>
   <si>
+    <t xml:space="preserve">9.6204</t>
+  </si>
+  <si>
     <t xml:space="preserve">haarup sande</t>
   </si>
   <si>
@@ -861,6 +1266,12 @@
     <t xml:space="preserve">MFD00314</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5277</t>
+  </si>
+  <si>
     <t xml:space="preserve">knagerne</t>
   </si>
   <si>
@@ -870,6 +1281,12 @@
     <t xml:space="preserve">MFD00315</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4962</t>
+  </si>
+  <si>
     <t xml:space="preserve">gjessøvej</t>
   </si>
   <si>
@@ -879,6 +1296,12 @@
     <t xml:space="preserve">MFD00316</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8508</t>
+  </si>
+  <si>
     <t xml:space="preserve">bjergfald</t>
   </si>
   <si>
@@ -888,6 +1311,12 @@
     <t xml:space="preserve">MFD00317</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7305</t>
+  </si>
+  <si>
     <t xml:space="preserve">vejle fjord</t>
   </si>
   <si>
@@ -897,6 +1326,12 @@
     <t xml:space="preserve">MFD00318</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6892</t>
+  </si>
+  <si>
     <t xml:space="preserve">brøndsted fælled</t>
   </si>
   <si>
@@ -906,6 +1341,12 @@
     <t xml:space="preserve">MFD00319</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6931</t>
+  </si>
+  <si>
     <t xml:space="preserve">rands fjord</t>
   </si>
   <si>
@@ -915,6 +1356,12 @@
     <t xml:space="preserve">MFD00320</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5454</t>
+  </si>
+  <si>
     <t xml:space="preserve">svinholt</t>
   </si>
   <si>
@@ -924,6 +1371,12 @@
     <t xml:space="preserve">MFD00321</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8575</t>
+  </si>
+  <si>
     <t xml:space="preserve">vesterskov</t>
   </si>
   <si>
@@ -933,6 +1386,12 @@
     <t xml:space="preserve">MFD00322</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8696</t>
+  </si>
+  <si>
     <t xml:space="preserve">rand skov</t>
   </si>
   <si>
@@ -942,6 +1401,12 @@
     <t xml:space="preserve">MFD00323</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7524</t>
+  </si>
+  <si>
     <t xml:space="preserve">grund skov</t>
   </si>
   <si>
@@ -951,6 +1416,12 @@
     <t xml:space="preserve">MFD00324</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9931</t>
+  </si>
+  <si>
     <t xml:space="preserve">melby hede</t>
   </si>
   <si>
@@ -960,6 +1431,12 @@
     <t xml:space="preserve">MFD00325</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9915</t>
+  </si>
+  <si>
     <t xml:space="preserve">melby overdrev</t>
   </si>
   <si>
@@ -969,6 +1446,12 @@
     <t xml:space="preserve">MFD00326</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.272</t>
+  </si>
+  <si>
     <t xml:space="preserve">strødam</t>
   </si>
   <si>
@@ -978,6 +1461,12 @@
     <t xml:space="preserve">MFD00327</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2716</t>
+  </si>
+  <si>
     <t xml:space="preserve">birkemose</t>
   </si>
   <si>
@@ -987,6 +1476,12 @@
     <t xml:space="preserve">MFD00328</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3161</t>
+  </si>
+  <si>
     <t xml:space="preserve">maglemose</t>
   </si>
   <si>
@@ -996,6 +1491,12 @@
     <t xml:space="preserve">MFD00329</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2927</t>
+  </si>
+  <si>
     <t xml:space="preserve">toggerup tørvemose</t>
   </si>
   <si>
@@ -1005,6 +1506,12 @@
     <t xml:space="preserve">MFD00330</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1003</t>
+  </si>
+  <si>
     <t xml:space="preserve">ellemose</t>
   </si>
   <si>
@@ -1014,6 +1521,12 @@
     <t xml:space="preserve">MFD00331</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0734</t>
+  </si>
+  <si>
     <t xml:space="preserve">tisvilde hegn</t>
   </si>
   <si>
@@ -1023,6 +1536,12 @@
     <t xml:space="preserve">MFD00332</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2508</t>
+  </si>
+  <si>
     <t xml:space="preserve">tibberup holme</t>
   </si>
   <si>
@@ -1032,6 +1551,12 @@
     <t xml:space="preserve">MFD00333</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4361</t>
+  </si>
+  <si>
     <t xml:space="preserve">diesbjerg</t>
   </si>
   <si>
@@ -1041,6 +1566,12 @@
     <t xml:space="preserve">MFD00334</t>
   </si>
   <si>
+    <t xml:space="preserve">55.736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.283</t>
+  </si>
+  <si>
     <t xml:space="preserve">eskebjerg vesterlyng</t>
   </si>
   <si>
@@ -1050,6 +1581,12 @@
     <t xml:space="preserve">MFD00335</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2751</t>
+  </si>
+  <si>
     <t xml:space="preserve">eskebjerg enghave</t>
   </si>
   <si>
@@ -1059,6 +1596,12 @@
     <t xml:space="preserve">MFD00336</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">malles næs</t>
   </si>
   <si>
@@ -1068,6 +1611,12 @@
     <t xml:space="preserve">MFD00337</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2358</t>
+  </si>
+  <si>
     <t xml:space="preserve">kaldred kær</t>
   </si>
   <si>
@@ -1077,6 +1626,12 @@
     <t xml:space="preserve">MFD00338</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4232</t>
+  </si>
+  <si>
     <t xml:space="preserve">skamlebæk</t>
   </si>
   <si>
@@ -1086,6 +1641,12 @@
     <t xml:space="preserve">MFD00339</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8935</t>
+  </si>
+  <si>
     <t xml:space="preserve">røsnæs krat</t>
   </si>
   <si>
@@ -1095,6 +1656,12 @@
     <t xml:space="preserve">MFD00340</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8972</t>
+  </si>
+  <si>
     <t xml:space="preserve">røsnæs</t>
   </si>
   <si>
@@ -1104,6 +1671,12 @@
     <t xml:space="preserve">MFD00341</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7759</t>
+  </si>
+  <si>
     <t xml:space="preserve">allindelille fredskov</t>
   </si>
   <si>
@@ -1113,6 +1686,12 @@
     <t xml:space="preserve">MFD00342</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5568</t>
+  </si>
+  <si>
     <t xml:space="preserve">suserup skov</t>
   </si>
   <si>
@@ -1122,6 +1701,12 @@
     <t xml:space="preserve">MFD00343</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5941</t>
+  </si>
+  <si>
     <t xml:space="preserve">broby vesterskov</t>
   </si>
   <si>
@@ -1131,6 +1716,12 @@
     <t xml:space="preserve">MFD00344</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8847</t>
+  </si>
+  <si>
     <t xml:space="preserve">avnsø</t>
   </si>
   <si>
@@ -1140,6 +1731,12 @@
     <t xml:space="preserve">MFD00345</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8838</t>
+  </si>
+  <si>
     <t xml:space="preserve">smuldmosen</t>
   </si>
   <si>
@@ -1149,6 +1746,12 @@
     <t xml:space="preserve">MFD00346</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5467</t>
+  </si>
+  <si>
     <t xml:space="preserve">frederikskilde skov</t>
   </si>
   <si>
@@ -1158,6 +1761,12 @@
     <t xml:space="preserve">MFD00347</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5362</t>
+  </si>
+  <si>
     <t xml:space="preserve">kongskilde friluftsgård</t>
   </si>
   <si>
@@ -1167,6 +1776,12 @@
     <t xml:space="preserve">MFD00348</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5345</t>
+  </si>
+  <si>
     <t xml:space="preserve">fuglebjerg</t>
   </si>
   <si>
@@ -1176,6 +1791,12 @@
     <t xml:space="preserve">MFD00349</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5924</t>
+  </si>
+  <si>
     <t xml:space="preserve">bimosen</t>
   </si>
   <si>
@@ -1185,6 +1806,12 @@
     <t xml:space="preserve">MFD00350</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2476</t>
+  </si>
+  <si>
     <t xml:space="preserve">svanninge bakker</t>
   </si>
   <si>
@@ -1194,6 +1821,12 @@
     <t xml:space="preserve">MFD00351</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2466</t>
+  </si>
+  <si>
     <t xml:space="preserve">hestebakke</t>
   </si>
   <si>
@@ -1203,6 +1836,12 @@
     <t xml:space="preserve">MFD00352</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2534</t>
+  </si>
+  <si>
     <t xml:space="preserve">dalkildegård</t>
   </si>
   <si>
@@ -1212,6 +1851,12 @@
     <t xml:space="preserve">MFD00353</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3171</t>
+  </si>
+  <si>
     <t xml:space="preserve">iglesø</t>
   </si>
   <si>
@@ -1221,6 +1866,12 @@
     <t xml:space="preserve">MFD00354</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4997</t>
+  </si>
+  <si>
     <t xml:space="preserve">rødme svinehaver</t>
   </si>
   <si>
@@ -1230,6 +1881,12 @@
     <t xml:space="preserve">MFD00355</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3689</t>
+  </si>
+  <si>
     <t xml:space="preserve">skyttegård</t>
   </si>
   <si>
@@ -1239,6 +1896,12 @@
     <t xml:space="preserve">MFD00356</t>
   </si>
   <si>
+    <t xml:space="preserve">55.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3688</t>
+  </si>
+  <si>
     <t xml:space="preserve">nybo mose</t>
   </si>
   <si>
@@ -1248,6 +1911,12 @@
     <t xml:space="preserve">MFD00357</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4516</t>
+  </si>
+  <si>
     <t xml:space="preserve">stævningen</t>
   </si>
   <si>
@@ -1257,6 +1926,12 @@
     <t xml:space="preserve">MFD00358</t>
   </si>
   <si>
+    <t xml:space="preserve">54.7804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.805</t>
+  </si>
+  <si>
     <t xml:space="preserve">fuglsang storskov</t>
   </si>
   <si>
@@ -1266,6 +1941,12 @@
     <t xml:space="preserve">MFD00359</t>
   </si>
   <si>
+    <t xml:space="preserve">54.7861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8113</t>
+  </si>
+  <si>
     <t xml:space="preserve">løgnor</t>
   </si>
   <si>
@@ -1275,6 +1956,12 @@
     <t xml:space="preserve">MFD00360</t>
   </si>
   <si>
+    <t xml:space="preserve">54.7545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4872</t>
+  </si>
+  <si>
     <t xml:space="preserve">bursø</t>
   </si>
   <si>
@@ -1284,6 +1971,12 @@
     <t xml:space="preserve">MFD00361</t>
   </si>
   <si>
+    <t xml:space="preserve">54.7248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5371</t>
+  </si>
+  <si>
     <t xml:space="preserve">fuglse mose</t>
   </si>
   <si>
@@ -1293,6 +1986,12 @@
     <t xml:space="preserve">MFD00362</t>
   </si>
   <si>
+    <t xml:space="preserve">54.7519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5545</t>
+  </si>
+  <si>
     <t xml:space="preserve">skelsnæs</t>
   </si>
   <si>
@@ -1302,6 +2001,12 @@
     <t xml:space="preserve">MFD00363</t>
   </si>
   <si>
+    <t xml:space="preserve">54.7457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5514</t>
+  </si>
+  <si>
     <t xml:space="preserve">søholt</t>
   </si>
   <si>
@@ -1311,6 +2016,12 @@
     <t xml:space="preserve">MFD00364</t>
   </si>
   <si>
+    <t xml:space="preserve">54.7145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6456</t>
+  </si>
+  <si>
     <t xml:space="preserve">musse mose</t>
   </si>
   <si>
@@ -1320,6 +2031,12 @@
     <t xml:space="preserve">MFD00365</t>
   </si>
   <si>
+    <t xml:space="preserve">54.7426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5991</t>
+  </si>
+  <si>
     <t xml:space="preserve">hejrede sø</t>
   </si>
   <si>
@@ -1329,6 +2046,12 @@
     <t xml:space="preserve">MFD00366</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.539</t>
+  </si>
+  <si>
     <t xml:space="preserve">klinteskov</t>
   </si>
   <si>
@@ -1338,6 +2061,12 @@
     <t xml:space="preserve">MFD00367</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.27</t>
+  </si>
+  <si>
     <t xml:space="preserve">ulvshale klit</t>
   </si>
   <si>
@@ -1347,6 +2076,12 @@
     <t xml:space="preserve">MFD00368</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2701</t>
+  </si>
+  <si>
     <t xml:space="preserve">ulvshale hede</t>
   </si>
   <si>
@@ -1356,6 +2091,12 @@
     <t xml:space="preserve">MFD00369</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4514</t>
+  </si>
+  <si>
     <t xml:space="preserve">busemarke mose</t>
   </si>
   <si>
@@ -1365,6 +2106,12 @@
     <t xml:space="preserve">MFD00370</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4552</t>
+  </si>
+  <si>
     <t xml:space="preserve">busemarke sø</t>
   </si>
   <si>
@@ -1374,6 +2121,12 @@
     <t xml:space="preserve">MFD00371</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5097</t>
+  </si>
+  <si>
     <t xml:space="preserve">høvblege</t>
   </si>
   <si>
@@ -1383,6 +2136,12 @@
     <t xml:space="preserve">MFD00372</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5389</t>
+  </si>
+  <si>
     <t xml:space="preserve">timesø bjerg</t>
   </si>
   <si>
@@ -1392,6 +2151,12 @@
     <t xml:space="preserve">MFD00373</t>
   </si>
   <si>
+    <t xml:space="preserve">54.986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5265</t>
+  </si>
+  <si>
     <t xml:space="preserve">jydelejet</t>
   </si>
   <si>
@@ -1401,6 +2166,12 @@
     <t xml:space="preserve">MFD00374</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2995</t>
+  </si>
+  <si>
     <t xml:space="preserve">hegnede bakke</t>
   </si>
   <si>
@@ -1408,6 +2179,9 @@
   </si>
   <si>
     <t xml:space="preserve">MFD00375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9729</t>
   </si>
   <si>
     <t xml:space="preserve">9000</t>
@@ -1875,5498 +2649,5498 @@
         <v>16</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" t="n">
-        <v>57.6282</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.3637</v>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" t="n">
-        <v>57.5882</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.078</v>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="n">
-        <v>57.6447</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.4039</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="n">
-        <v>57.5169</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9261</v>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" t="n">
-        <v>57.5177</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.8799</v>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" t="n">
-        <v>57.581</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.0803</v>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" t="n">
-        <v>57.5903</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10.0571</v>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" t="n">
-        <v>57.6431</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10.407</v>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" t="n">
-        <v>57.5965</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10.2409</v>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" t="n">
-        <v>57.1168</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.6556</v>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" t="n">
-        <v>57.1445</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.9511</v>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" t="n">
-        <v>57.0374</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.5608</v>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" t="n">
-        <v>57.0543</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.9299</v>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="N14" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="O14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" t="n">
-        <v>57.1132</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.6768</v>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="N15" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" t="n">
-        <v>57.0643</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.6424</v>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M16" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="N16" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="O16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" t="n">
-        <v>57.0507</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.9169</v>
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="O17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" t="n">
-        <v>57.0449</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8.9118</v>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="O18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" t="n">
-        <v>57.0448</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8.8748</v>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" t="s">
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="N19" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" t="n">
-        <v>56.8537</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.8621</v>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
         <v>108</v>
       </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" t="s">
-        <v>82</v>
-      </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M20" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="N20" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" t="n">
-        <v>56.8153</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.8358</v>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="O21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" t="n">
-        <v>56.8906</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.9222</v>
+      <c r="D22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" t="s">
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="N22" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="O22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" t="n">
-        <v>56.9374</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10.2161</v>
+      <c r="D23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
+        <v>165</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M23" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="O23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" t="n">
-        <v>56.9321</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10.2298</v>
+      <c r="D24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M24" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="N24" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" t="n">
-        <v>56.8237</v>
-      </c>
-      <c r="E25" t="n">
-        <v>9.8003</v>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
+        <v>177</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H25" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="N25" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" t="n">
-        <v>56.8329</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.8201</v>
+      <c r="D26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="O26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" t="n">
-        <v>56.8138</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9.8509</v>
+      <c r="D27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" t="s">
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="O27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" t="n">
-        <v>56.3134</v>
-      </c>
-      <c r="E28" t="n">
-        <v>8.1287</v>
+      <c r="D28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" t="s">
+        <v>196</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N28" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="O28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" t="n">
-        <v>56.1675</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8.378</v>
+      <c r="D29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" t="s">
+        <v>201</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M29" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="N29" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="O29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" t="n">
-        <v>56.2949</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8.1952</v>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" t="s">
+        <v>208</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="O30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" t="n">
-        <v>56.2488</v>
-      </c>
-      <c r="E31" t="n">
-        <v>8.5079</v>
+      <c r="D31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" t="s">
+        <v>213</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="H31" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M31" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="N31" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="O31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" t="n">
-        <v>56.1672</v>
-      </c>
-      <c r="E32" t="n">
-        <v>8.3888</v>
+      <c r="D32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" t="s">
+        <v>220</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N32" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="O32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" t="n">
-        <v>56.1706</v>
-      </c>
-      <c r="E33" t="n">
-        <v>8.3723</v>
+      <c r="D33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" t="s">
+        <v>225</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="O33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" t="n">
-        <v>56.318</v>
-      </c>
-      <c r="E34" t="n">
-        <v>8.1623</v>
+      <c r="D34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" t="s">
+        <v>230</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="O34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" t="n">
-        <v>56.2277</v>
-      </c>
-      <c r="E35" t="n">
-        <v>8.1362</v>
+      <c r="D35" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" t="s">
+        <v>235</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="O35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" t="n">
-        <v>56.2452</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8.4939</v>
+      <c r="D36" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" t="s">
+        <v>240</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="O36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" t="n">
-        <v>55.82</v>
-      </c>
-      <c r="E37" t="n">
-        <v>8.1743</v>
+      <c r="D37" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" t="s">
+        <v>245</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="H37" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L37" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M37" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="N37" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="O37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" t="n">
-        <v>55.7735</v>
-      </c>
-      <c r="E38" t="n">
-        <v>8.1828</v>
+      <c r="D38" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" t="s">
+        <v>250</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H38" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L38" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M38" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="O38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" t="n">
-        <v>55.6738</v>
-      </c>
-      <c r="E39" t="n">
-        <v>8.2417</v>
+      <c r="D39" t="s">
+        <v>254</v>
+      </c>
+      <c r="E39" t="s">
+        <v>255</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H39" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N39" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="O39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" t="n">
-        <v>55.6942</v>
-      </c>
-      <c r="E40" t="n">
-        <v>8.1907</v>
+      <c r="D40" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40" t="s">
+        <v>260</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M40" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="N40" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="O40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" t="n">
-        <v>55.795</v>
-      </c>
-      <c r="E41" t="n">
-        <v>8.2128</v>
+      <c r="D41" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" t="s">
+        <v>267</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="O41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" t="n">
-        <v>55.5629</v>
-      </c>
-      <c r="E42" t="n">
-        <v>8.0802</v>
+      <c r="D42" t="s">
+        <v>271</v>
+      </c>
+      <c r="E42" t="s">
+        <v>272</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N42" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="O42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" t="n">
-        <v>55.6843</v>
-      </c>
-      <c r="E43" t="n">
-        <v>8.1696</v>
+      <c r="D43" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" t="s">
+        <v>277</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="H43" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M43" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="N43" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="O43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" t="n">
-        <v>55.6726</v>
-      </c>
-      <c r="E44" t="n">
-        <v>8.2164</v>
+      <c r="D44" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" t="s">
+        <v>282</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="O44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" t="n">
-        <v>55.1432</v>
-      </c>
-      <c r="E45" t="n">
-        <v>8.8977</v>
+      <c r="D45" t="s">
+        <v>286</v>
+      </c>
+      <c r="E45" t="s">
+        <v>287</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="H45" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L45" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M45" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="N45" t="s">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="O45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" t="n">
-        <v>55.1731</v>
-      </c>
-      <c r="E46" t="n">
-        <v>8.9352</v>
+      <c r="D46" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46" t="s">
+        <v>294</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L46" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M46" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="N46" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="O46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" t="n">
-        <v>55.0113</v>
-      </c>
-      <c r="E47" t="n">
-        <v>8.959</v>
+      <c r="D47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" t="s">
+        <v>299</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="H47" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M47" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="N47" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="O47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" t="n">
-        <v>55.207</v>
-      </c>
-      <c r="E48" t="n">
-        <v>8.9509</v>
+      <c r="D48" t="s">
+        <v>303</v>
+      </c>
+      <c r="E48" t="s">
+        <v>304</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="H48" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M48" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="N48" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="O48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" t="n">
-        <v>55.293</v>
-      </c>
-      <c r="E49" t="n">
-        <v>9.0593</v>
+      <c r="D49" t="s">
+        <v>308</v>
+      </c>
+      <c r="E49" t="s">
+        <v>309</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="H49" t="s">
-        <v>215</v>
+        <v>311</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L49" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M49" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="N49" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="O49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" t="n">
-        <v>55.0152</v>
-      </c>
-      <c r="E50" t="n">
-        <v>8.974</v>
+      <c r="D50" t="s">
+        <v>315</v>
+      </c>
+      <c r="E50" t="s">
+        <v>316</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="H50" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M50" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="N50" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="O50" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" t="n">
-        <v>55.0177</v>
-      </c>
-      <c r="E51" t="n">
-        <v>8.9845</v>
+      <c r="D51" t="s">
+        <v>320</v>
+      </c>
+      <c r="E51" t="s">
+        <v>321</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="H51" t="s">
-        <v>222</v>
+        <v>322</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M51" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="N51" t="s">
-        <v>223</v>
+        <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" t="n">
-        <v>55.2925</v>
-      </c>
-      <c r="E52" t="n">
-        <v>9.0675</v>
+      <c r="D52" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52" t="s">
+        <v>326</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="H52" t="s">
-        <v>225</v>
+        <v>327</v>
       </c>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L52" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M52" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="N52" t="s">
-        <v>226</v>
+        <v>328</v>
       </c>
       <c r="O52" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" t="n">
-        <v>55.1847</v>
-      </c>
-      <c r="E53" t="n">
-        <v>8.9498</v>
+      <c r="D53" t="s">
+        <v>330</v>
+      </c>
+      <c r="E53" t="s">
+        <v>331</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" t="s">
-        <v>229</v>
+        <v>333</v>
       </c>
       <c r="O53" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>230</v>
+        <v>334</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" t="n">
-        <v>56.1964</v>
-      </c>
-      <c r="E54" t="n">
-        <v>10.5312</v>
+      <c r="D54" t="s">
+        <v>335</v>
+      </c>
+      <c r="E54" t="s">
+        <v>336</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="H54" t="s">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L54" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M54" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="N54" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="O54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>233</v>
+        <v>339</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" t="n">
-        <v>56.2915</v>
-      </c>
-      <c r="E55" t="n">
-        <v>10.4802</v>
+      <c r="D55" t="s">
+        <v>340</v>
+      </c>
+      <c r="E55" t="s">
+        <v>341</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="I55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" t="s">
-        <v>235</v>
+        <v>343</v>
       </c>
       <c r="O55" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>236</v>
+        <v>344</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" t="n">
-        <v>56.2985</v>
-      </c>
-      <c r="E56" t="n">
-        <v>10.8488</v>
+      <c r="D56" t="s">
+        <v>345</v>
+      </c>
+      <c r="E56" t="s">
+        <v>346</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H56" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="L56" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="M56" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="N56" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
       <c r="O56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" t="n">
-        <v>56.2873</v>
-      </c>
-      <c r="E57" t="n">
-        <v>10.4716</v>
+      <c r="D57" t="s">
+        <v>350</v>
+      </c>
+      <c r="E57" t="s">
+        <v>351</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="H57" t="s">
-        <v>240</v>
+        <v>352</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L57" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M57" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="N57" t="s">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="O57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>242</v>
+        <v>354</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" t="n">
-        <v>56.207</v>
-      </c>
-      <c r="E58" t="n">
-        <v>10.5233</v>
+      <c r="D58" t="s">
+        <v>355</v>
+      </c>
+      <c r="E58" t="s">
+        <v>356</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="H58" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L58" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M58" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="N58" t="s">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="O58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>245</v>
+        <v>359</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10.5294</v>
+      <c r="D59" t="s">
+        <v>360</v>
+      </c>
+      <c r="E59" t="s">
+        <v>361</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="H59" t="s">
-        <v>247</v>
+        <v>363</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L59" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
       <c r="M59" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="N59" t="s">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="O59" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" t="n">
-        <v>56.0971</v>
-      </c>
-      <c r="E60" t="n">
-        <v>10.514</v>
+      <c r="D60" t="s">
+        <v>368</v>
+      </c>
+      <c r="E60" t="s">
+        <v>369</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" t="s">
-        <v>253</v>
+        <v>371</v>
       </c>
       <c r="O60" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" t="n">
-        <v>56.2224</v>
-      </c>
-      <c r="E61" t="n">
-        <v>10.5872</v>
+      <c r="D61" t="s">
+        <v>373</v>
+      </c>
+      <c r="E61" t="s">
+        <v>374</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" t="s">
-        <v>256</v>
+        <v>376</v>
       </c>
       <c r="O61" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>257</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" t="n">
-        <v>56.2243</v>
-      </c>
-      <c r="E62" t="n">
-        <v>10.5626</v>
+      <c r="D62" t="s">
+        <v>378</v>
+      </c>
+      <c r="E62" t="s">
+        <v>379</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H62" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L62" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M62" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="N62" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="O62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" t="n">
-        <v>56.0856</v>
-      </c>
-      <c r="E63" t="n">
-        <v>9.4151</v>
+      <c r="D63" t="s">
+        <v>383</v>
+      </c>
+      <c r="E63" t="s">
+        <v>384</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="H63" t="s">
-        <v>261</v>
+        <v>385</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L63" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M63" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="N63" t="s">
-        <v>262</v>
+        <v>386</v>
       </c>
       <c r="O63" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" t="n">
-        <v>56.1033</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9.3588</v>
+      <c r="D64" t="s">
+        <v>388</v>
+      </c>
+      <c r="E64" t="s">
+        <v>389</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H64" t="s">
-        <v>264</v>
+        <v>390</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L64" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M64" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="N64" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="O64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>392</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" t="n">
-        <v>56.0532</v>
-      </c>
-      <c r="E65" t="n">
-        <v>9.7044</v>
+      <c r="D65" t="s">
+        <v>393</v>
+      </c>
+      <c r="E65" t="s">
+        <v>394</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="H65" t="s">
-        <v>267</v>
+        <v>395</v>
       </c>
       <c r="I65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K65" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L65" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M65" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="N65" t="s">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="O65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" t="n">
-        <v>56.0885</v>
-      </c>
-      <c r="E66" t="n">
-        <v>9.3983</v>
+      <c r="D66" t="s">
+        <v>398</v>
+      </c>
+      <c r="E66" t="s">
+        <v>399</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H66" t="s">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="I66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L66" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M66" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N66" t="s">
-        <v>271</v>
+        <v>401</v>
       </c>
       <c r="O66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>272</v>
+        <v>402</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" t="n">
-        <v>56.0637</v>
-      </c>
-      <c r="E67" t="n">
-        <v>9.7318</v>
+      <c r="D67" t="s">
+        <v>403</v>
+      </c>
+      <c r="E67" t="s">
+        <v>404</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L67" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N67" t="s">
-        <v>274</v>
+        <v>406</v>
       </c>
       <c r="O67" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>275</v>
+        <v>407</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" t="n">
-        <v>56.0751</v>
-      </c>
-      <c r="E68" t="n">
-        <v>9.6384</v>
+      <c r="D68" t="s">
+        <v>408</v>
+      </c>
+      <c r="E68" t="s">
+        <v>409</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H68" t="s">
-        <v>276</v>
+        <v>410</v>
       </c>
       <c r="I68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K68" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="L68" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="M68" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="N68" t="s">
-        <v>277</v>
+        <v>411</v>
       </c>
       <c r="O68" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>278</v>
+        <v>412</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" t="n">
-        <v>56.1672</v>
-      </c>
-      <c r="E69" t="n">
-        <v>9.6204</v>
+      <c r="D69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" t="s">
+        <v>413</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" t="s">
-        <v>279</v>
+        <v>414</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" t="s">
-        <v>280</v>
+        <v>415</v>
       </c>
       <c r="O69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" t="n">
-        <v>56.1341</v>
-      </c>
-      <c r="E70" t="n">
-        <v>9.5277</v>
+      <c r="D70" t="s">
+        <v>417</v>
+      </c>
+      <c r="E70" t="s">
+        <v>418</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="H70" t="s">
-        <v>282</v>
+        <v>419</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M70" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="N70" t="s">
-        <v>283</v>
+        <v>420</v>
       </c>
       <c r="O70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>421</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" t="n">
-        <v>56.1261</v>
-      </c>
-      <c r="E71" t="n">
-        <v>9.4962</v>
+      <c r="D71" t="s">
+        <v>422</v>
+      </c>
+      <c r="E71" t="s">
+        <v>423</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="H71" t="s">
-        <v>285</v>
+        <v>424</v>
       </c>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L71" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M71" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="N71" t="s">
-        <v>286</v>
+        <v>425</v>
       </c>
       <c r="O71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>287</v>
+        <v>426</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" t="n">
-        <v>55.6757</v>
-      </c>
-      <c r="E72" t="n">
-        <v>9.8508</v>
+      <c r="D72" t="s">
+        <v>427</v>
+      </c>
+      <c r="E72" t="s">
+        <v>428</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="H72" t="s">
-        <v>288</v>
+        <v>429</v>
       </c>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L72" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M72" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="N72" t="s">
-        <v>289</v>
+        <v>430</v>
       </c>
       <c r="O72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>290</v>
+        <v>431</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" t="n">
-        <v>55.6919</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9.7305</v>
+      <c r="D73" t="s">
+        <v>432</v>
+      </c>
+      <c r="E73" t="s">
+        <v>433</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="H73" t="s">
-        <v>291</v>
+        <v>434</v>
       </c>
       <c r="I73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L73" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M73" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="N73" t="s">
-        <v>292</v>
+        <v>435</v>
       </c>
       <c r="O73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" t="n">
-        <v>55.6104</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9.6892</v>
+      <c r="D74" t="s">
+        <v>437</v>
+      </c>
+      <c r="E74" t="s">
+        <v>438</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" t="s">
-        <v>294</v>
+        <v>439</v>
       </c>
       <c r="I74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" t="s">
-        <v>295</v>
+        <v>440</v>
       </c>
       <c r="O74" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>441</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" t="n">
-        <v>55.6066</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9.6931</v>
+      <c r="D75" t="s">
+        <v>442</v>
+      </c>
+      <c r="E75" t="s">
+        <v>443</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" t="s">
-        <v>297</v>
+        <v>444</v>
       </c>
       <c r="I75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" t="s">
-        <v>298</v>
+        <v>445</v>
       </c>
       <c r="O75" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>299</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" t="n">
-        <v>55.6671</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9.5454</v>
+      <c r="D76" t="s">
+        <v>447</v>
+      </c>
+      <c r="E76" t="s">
+        <v>448</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="I76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" t="s">
-        <v>301</v>
+        <v>450</v>
       </c>
       <c r="O76" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>451</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" t="n">
-        <v>55.6839</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9.8575</v>
+      <c r="D77" t="s">
+        <v>452</v>
+      </c>
+      <c r="E77" t="s">
+        <v>453</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" t="s">
-        <v>303</v>
+        <v>454</v>
       </c>
       <c r="I77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" t="s">
-        <v>304</v>
+        <v>455</v>
       </c>
       <c r="O77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>456</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" t="n">
-        <v>55.6889</v>
-      </c>
-      <c r="E78" t="n">
-        <v>9.8696</v>
+      <c r="D78" t="s">
+        <v>457</v>
+      </c>
+      <c r="E78" t="s">
+        <v>458</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" t="s">
-        <v>306</v>
+        <v>459</v>
       </c>
       <c r="I78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" t="s">
-        <v>307</v>
+        <v>460</v>
       </c>
       <c r="O78" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>461</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" t="n">
-        <v>55.6912</v>
-      </c>
-      <c r="E79" t="n">
-        <v>9.7524</v>
+      <c r="D79" t="s">
+        <v>462</v>
+      </c>
+      <c r="E79" t="s">
+        <v>463</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" t="s">
-        <v>309</v>
+        <v>464</v>
       </c>
       <c r="I79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" t="s">
-        <v>310</v>
+        <v>465</v>
       </c>
       <c r="O79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>311</v>
+        <v>466</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" t="n">
-        <v>56.0226</v>
-      </c>
-      <c r="E80" t="n">
-        <v>11.9931</v>
+      <c r="D80" t="s">
+        <v>467</v>
+      </c>
+      <c r="E80" t="s">
+        <v>468</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="H80" t="s">
-        <v>312</v>
+        <v>469</v>
       </c>
       <c r="I80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L80" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M80" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="N80" t="s">
-        <v>313</v>
+        <v>470</v>
       </c>
       <c r="O80" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>314</v>
+        <v>471</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" t="n">
-        <v>56.0185</v>
-      </c>
-      <c r="E81" t="n">
-        <v>11.9915</v>
+      <c r="D81" t="s">
+        <v>472</v>
+      </c>
+      <c r="E81" t="s">
+        <v>473</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="H81" t="s">
-        <v>315</v>
+        <v>474</v>
       </c>
       <c r="I81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L81" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M81" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="N81" t="s">
-        <v>316</v>
+        <v>475</v>
       </c>
       <c r="O81" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>317</v>
+        <v>476</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" t="n">
-        <v>55.9569</v>
-      </c>
-      <c r="E82" t="n">
-        <v>12.272</v>
+      <c r="D82" t="s">
+        <v>477</v>
+      </c>
+      <c r="E82" t="s">
+        <v>478</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="H82" t="s">
-        <v>318</v>
+        <v>479</v>
       </c>
       <c r="I82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K82" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L82" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M82" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="N82" t="s">
-        <v>319</v>
+        <v>480</v>
       </c>
       <c r="O82" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>320</v>
+        <v>481</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" t="n">
-        <v>55.9682</v>
-      </c>
-      <c r="E83" t="n">
-        <v>12.2716</v>
+      <c r="D83" t="s">
+        <v>482</v>
+      </c>
+      <c r="E83" t="s">
+        <v>483</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="H83" t="s">
-        <v>321</v>
+        <v>484</v>
       </c>
       <c r="I83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K83" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L83" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M83" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="N83" t="s">
-        <v>322</v>
+        <v>485</v>
       </c>
       <c r="O83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>323</v>
+        <v>486</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" t="n">
-        <v>55.9998</v>
-      </c>
-      <c r="E84" t="n">
-        <v>12.3161</v>
+      <c r="D84" t="s">
+        <v>487</v>
+      </c>
+      <c r="E84" t="s">
+        <v>488</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="H84" t="s">
-        <v>324</v>
+        <v>489</v>
       </c>
       <c r="I84" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L84" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M84" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="N84" t="s">
-        <v>325</v>
+        <v>490</v>
       </c>
       <c r="O84" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>326</v>
+        <v>491</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" t="n">
-        <v>55.9846</v>
-      </c>
-      <c r="E85" t="n">
-        <v>12.2927</v>
+      <c r="D85" t="s">
+        <v>492</v>
+      </c>
+      <c r="E85" t="s">
+        <v>493</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H85" t="s">
-        <v>327</v>
+        <v>494</v>
       </c>
       <c r="I85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L85" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M85" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="N85" t="s">
-        <v>328</v>
+        <v>495</v>
       </c>
       <c r="O85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>329</v>
+        <v>496</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" t="n">
-        <v>56.0225</v>
-      </c>
-      <c r="E86" t="n">
-        <v>12.1003</v>
+      <c r="D86" t="s">
+        <v>497</v>
+      </c>
+      <c r="E86" t="s">
+        <v>498</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" t="s">
-        <v>330</v>
+        <v>499</v>
       </c>
       <c r="I86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J86" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" t="s">
-        <v>331</v>
+        <v>500</v>
       </c>
       <c r="O86" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>332</v>
+        <v>501</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" t="n">
-        <v>56.0442</v>
-      </c>
-      <c r="E87" t="n">
-        <v>12.0734</v>
+      <c r="D87" t="s">
+        <v>502</v>
+      </c>
+      <c r="E87" t="s">
+        <v>503</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" t="s">
-        <v>333</v>
+        <v>504</v>
       </c>
       <c r="I87" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" t="s">
-        <v>334</v>
+        <v>505</v>
       </c>
       <c r="O87" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>335</v>
+        <v>506</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" t="n">
-        <v>55.9872</v>
-      </c>
-      <c r="E88" t="n">
-        <v>12.2508</v>
+      <c r="D88" t="s">
+        <v>507</v>
+      </c>
+      <c r="E88" t="s">
+        <v>508</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" t="s">
-        <v>336</v>
+        <v>509</v>
       </c>
       <c r="I88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" t="s">
-        <v>337</v>
+        <v>510</v>
       </c>
       <c r="O88" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>338</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" t="n">
-        <v>55.8265</v>
-      </c>
-      <c r="E89" t="n">
-        <v>11.4361</v>
+      <c r="D89" t="s">
+        <v>512</v>
+      </c>
+      <c r="E89" t="s">
+        <v>513</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="H89" t="s">
-        <v>339</v>
+        <v>514</v>
       </c>
       <c r="I89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K89" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L89" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
       <c r="M89" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="N89" t="s">
-        <v>340</v>
+        <v>515</v>
       </c>
       <c r="O89" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" t="n">
-        <v>55.736</v>
-      </c>
-      <c r="E90" t="n">
-        <v>11.283</v>
+      <c r="D90" t="s">
+        <v>517</v>
+      </c>
+      <c r="E90" t="s">
+        <v>518</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="H90" t="s">
-        <v>342</v>
+        <v>519</v>
       </c>
       <c r="I90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K90" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L90" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M90" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="N90" t="s">
-        <v>343</v>
+        <v>520</v>
       </c>
       <c r="O90" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>344</v>
+        <v>521</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" t="n">
-        <v>55.7274</v>
-      </c>
-      <c r="E91" t="n">
-        <v>11.2751</v>
+      <c r="D91" t="s">
+        <v>522</v>
+      </c>
+      <c r="E91" t="s">
+        <v>523</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H91" t="s">
-        <v>345</v>
+        <v>524</v>
       </c>
       <c r="I91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J91" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M91" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="N91" t="s">
-        <v>346</v>
+        <v>525</v>
       </c>
       <c r="O91" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>347</v>
+        <v>526</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" t="n">
-        <v>55.7052</v>
-      </c>
-      <c r="E92" t="n">
-        <v>11.2016</v>
+      <c r="D92" t="s">
+        <v>527</v>
+      </c>
+      <c r="E92" t="s">
+        <v>528</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="H92" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="I92" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J92" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K92" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L92" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M92" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="N92" t="s">
-        <v>349</v>
+        <v>530</v>
       </c>
       <c r="O92" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>350</v>
+        <v>531</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" t="n">
-        <v>55.7036</v>
-      </c>
-      <c r="E93" t="n">
-        <v>11.2358</v>
+      <c r="D93" t="s">
+        <v>532</v>
+      </c>
+      <c r="E93" t="s">
+        <v>533</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H93" t="s">
-        <v>351</v>
+        <v>534</v>
       </c>
       <c r="I93" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J93" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K93" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L93" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M93" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N93" t="s">
-        <v>352</v>
+        <v>535</v>
       </c>
       <c r="O93" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>353</v>
+        <v>536</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" t="n">
-        <v>55.8364</v>
-      </c>
-      <c r="E94" t="n">
-        <v>11.4232</v>
+      <c r="D94" t="s">
+        <v>537</v>
+      </c>
+      <c r="E94" t="s">
+        <v>538</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="H94" t="s">
-        <v>354</v>
+        <v>539</v>
       </c>
       <c r="I94" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K94" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L94" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M94" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="N94" t="s">
-        <v>355</v>
+        <v>540</v>
       </c>
       <c r="O94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>356</v>
+        <v>541</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" t="n">
-        <v>55.7347</v>
-      </c>
-      <c r="E95" t="n">
-        <v>10.8935</v>
+      <c r="D95" t="s">
+        <v>542</v>
+      </c>
+      <c r="E95" t="s">
+        <v>543</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H95" t="s">
-        <v>357</v>
+        <v>544</v>
       </c>
       <c r="I95" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K95" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="L95" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="M95" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="N95" t="s">
-        <v>358</v>
+        <v>545</v>
       </c>
       <c r="O95" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>359</v>
+        <v>546</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" t="n">
-        <v>55.7407</v>
-      </c>
-      <c r="E96" t="n">
-        <v>10.8972</v>
+      <c r="D96" t="s">
+        <v>547</v>
+      </c>
+      <c r="E96" t="s">
+        <v>548</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" t="s">
-        <v>360</v>
+        <v>549</v>
       </c>
       <c r="I96" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J96" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" t="s">
-        <v>361</v>
+        <v>550</v>
       </c>
       <c r="O96" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>362</v>
+        <v>551</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" t="n">
-        <v>55.5161</v>
-      </c>
-      <c r="E97" t="n">
-        <v>11.7759</v>
+      <c r="D97" t="s">
+        <v>552</v>
+      </c>
+      <c r="E97" t="s">
+        <v>553</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="H97" t="s">
-        <v>363</v>
+        <v>554</v>
       </c>
       <c r="I97" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J97" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K97" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L97" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M97" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="N97" t="s">
-        <v>364</v>
+        <v>555</v>
       </c>
       <c r="O97" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>365</v>
+        <v>556</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" t="n">
-        <v>55.3799</v>
-      </c>
-      <c r="E98" t="n">
-        <v>11.5568</v>
+      <c r="D98" t="s">
+        <v>557</v>
+      </c>
+      <c r="E98" t="s">
+        <v>558</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="H98" t="s">
-        <v>366</v>
+        <v>559</v>
       </c>
       <c r="I98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J98" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K98" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L98" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M98" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="N98" t="s">
-        <v>367</v>
+        <v>560</v>
       </c>
       <c r="O98" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>368</v>
+        <v>561</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" t="n">
-        <v>55.3836</v>
-      </c>
-      <c r="E99" t="n">
-        <v>11.5941</v>
+      <c r="D99" t="s">
+        <v>562</v>
+      </c>
+      <c r="E99" t="s">
+        <v>563</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" t="s">
-        <v>369</v>
+        <v>564</v>
       </c>
       <c r="I99" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J99" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" t="s">
-        <v>370</v>
+        <v>565</v>
       </c>
       <c r="O99" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>371</v>
+        <v>566</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" t="n">
-        <v>55.5657</v>
-      </c>
-      <c r="E100" t="n">
-        <v>11.8847</v>
+      <c r="D100" t="s">
+        <v>567</v>
+      </c>
+      <c r="E100" t="s">
+        <v>568</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="H100" t="s">
-        <v>372</v>
+        <v>569</v>
       </c>
       <c r="I100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K100" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L100" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M100" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="N100" t="s">
-        <v>373</v>
+        <v>570</v>
       </c>
       <c r="O100" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>374</v>
+        <v>571</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" t="n">
-        <v>55.5526</v>
-      </c>
-      <c r="E101" t="n">
-        <v>11.8838</v>
+      <c r="D101" t="s">
+        <v>572</v>
+      </c>
+      <c r="E101" t="s">
+        <v>573</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" t="s">
-        <v>375</v>
+        <v>574</v>
       </c>
       <c r="I101" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" t="s">
-        <v>376</v>
+        <v>575</v>
       </c>
       <c r="O101" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>377</v>
+        <v>576</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" t="n">
-        <v>55.3774</v>
-      </c>
-      <c r="E102" t="n">
-        <v>11.5467</v>
+      <c r="D102" t="s">
+        <v>577</v>
+      </c>
+      <c r="E102" t="s">
+        <v>578</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="H102" t="s">
-        <v>378</v>
+        <v>579</v>
       </c>
       <c r="I102" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K102" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L102" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M102" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="N102" t="s">
-        <v>379</v>
+        <v>580</v>
       </c>
       <c r="O102" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>380</v>
+        <v>581</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" t="n">
-        <v>55.3801</v>
-      </c>
-      <c r="E103" t="n">
-        <v>11.5362</v>
+      <c r="D103" t="s">
+        <v>582</v>
+      </c>
+      <c r="E103" t="s">
+        <v>583</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" t="s">
-        <v>381</v>
+        <v>584</v>
       </c>
       <c r="I103" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" t="s">
-        <v>382</v>
+        <v>585</v>
       </c>
       <c r="O103" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>383</v>
+        <v>586</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" t="n">
-        <v>55.3159</v>
-      </c>
-      <c r="E104" t="n">
-        <v>11.5345</v>
+      <c r="D104" t="s">
+        <v>587</v>
+      </c>
+      <c r="E104" t="s">
+        <v>588</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" t="s">
-        <v>384</v>
+        <v>589</v>
       </c>
       <c r="I104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" t="s">
-        <v>385</v>
+        <v>590</v>
       </c>
       <c r="O104" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>386</v>
+        <v>591</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" t="n">
-        <v>55.3991</v>
-      </c>
-      <c r="E105" t="n">
-        <v>11.5924</v>
+      <c r="D105" t="s">
+        <v>592</v>
+      </c>
+      <c r="E105" t="s">
+        <v>593</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="H105" t="s">
-        <v>387</v>
+        <v>594</v>
       </c>
       <c r="I105" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J105" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K105" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L105" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M105" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="N105" t="s">
-        <v>388</v>
+        <v>595</v>
       </c>
       <c r="O105" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>389</v>
+        <v>596</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" t="n">
-        <v>55.1229</v>
-      </c>
-      <c r="E106" t="n">
-        <v>10.2476</v>
+      <c r="D106" t="s">
+        <v>597</v>
+      </c>
+      <c r="E106" t="s">
+        <v>598</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" t="s">
-        <v>390</v>
+        <v>599</v>
       </c>
       <c r="I106" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J106" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" t="s">
-        <v>391</v>
+        <v>600</v>
       </c>
       <c r="O106" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>392</v>
+        <v>601</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" t="n">
-        <v>55.1299</v>
-      </c>
-      <c r="E107" t="n">
-        <v>10.2466</v>
+      <c r="D107" t="s">
+        <v>602</v>
+      </c>
+      <c r="E107" t="s">
+        <v>603</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G107" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H107" t="s">
-        <v>393</v>
+        <v>604</v>
       </c>
       <c r="I107" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K107" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L107" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M107" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N107" t="s">
-        <v>394</v>
+        <v>605</v>
       </c>
       <c r="O107" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>395</v>
+        <v>606</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" t="n">
-        <v>55.1333</v>
-      </c>
-      <c r="E108" t="n">
-        <v>10.2534</v>
+      <c r="D108" t="s">
+        <v>607</v>
+      </c>
+      <c r="E108" t="s">
+        <v>608</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" t="s">
-        <v>396</v>
+        <v>609</v>
       </c>
       <c r="I108" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J108" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
       <c r="N108" t="s">
-        <v>397</v>
+        <v>610</v>
       </c>
       <c r="O108" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>398</v>
+        <v>611</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" t="n">
-        <v>55.1208</v>
-      </c>
-      <c r="E109" t="n">
-        <v>10.3171</v>
+      <c r="D109" t="s">
+        <v>612</v>
+      </c>
+      <c r="E109" t="s">
+        <v>613</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H109" t="s">
-        <v>399</v>
+        <v>614</v>
       </c>
       <c r="I109" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J109" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K109" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L109" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M109" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="N109" t="s">
-        <v>400</v>
+        <v>615</v>
       </c>
       <c r="O109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>401</v>
+        <v>616</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="2"/>
-      <c r="D110" t="n">
-        <v>55.1011</v>
-      </c>
-      <c r="E110" t="n">
-        <v>10.4997</v>
+      <c r="D110" t="s">
+        <v>617</v>
+      </c>
+      <c r="E110" t="s">
+        <v>618</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="H110" t="s">
-        <v>402</v>
+        <v>619</v>
       </c>
       <c r="I110" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J110" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K110" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L110" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M110" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="N110" t="s">
-        <v>403</v>
+        <v>620</v>
       </c>
       <c r="O110" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>404</v>
+        <v>621</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" t="n">
-        <v>55.1291</v>
-      </c>
-      <c r="E111" t="n">
-        <v>10.3689</v>
+      <c r="D111" t="s">
+        <v>622</v>
+      </c>
+      <c r="E111" t="s">
+        <v>623</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="H111" t="s">
-        <v>405</v>
+        <v>624</v>
       </c>
       <c r="I111" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K111" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L111" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M111" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="N111" t="s">
-        <v>406</v>
+        <v>625</v>
       </c>
       <c r="O111" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>407</v>
+        <v>626</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" t="n">
-        <v>55.135</v>
-      </c>
-      <c r="E112" t="n">
-        <v>10.3688</v>
+      <c r="D112" t="s">
+        <v>627</v>
+      </c>
+      <c r="E112" t="s">
+        <v>628</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H112" t="s">
-        <v>408</v>
+        <v>629</v>
       </c>
       <c r="I112" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J112" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K112" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L112" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M112" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="N112" t="s">
-        <v>409</v>
+        <v>630</v>
       </c>
       <c r="O112" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>410</v>
+        <v>631</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" t="n">
-        <v>55.1515</v>
-      </c>
-      <c r="E113" t="n">
-        <v>10.4516</v>
+      <c r="D113" t="s">
+        <v>632</v>
+      </c>
+      <c r="E113" t="s">
+        <v>633</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H113" t="s">
-        <v>411</v>
+        <v>634</v>
       </c>
       <c r="I113" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J113" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K113" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L113" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M113" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="N113" t="s">
-        <v>412</v>
+        <v>635</v>
       </c>
       <c r="O113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>413</v>
+        <v>636</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" s="2"/>
-      <c r="D114" t="n">
-        <v>54.7804</v>
-      </c>
-      <c r="E114" t="n">
-        <v>11.805</v>
+      <c r="D114" t="s">
+        <v>637</v>
+      </c>
+      <c r="E114" t="s">
+        <v>638</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" t="s">
-        <v>414</v>
+        <v>639</v>
       </c>
       <c r="I114" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J114" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
       <c r="N114" t="s">
-        <v>415</v>
+        <v>640</v>
       </c>
       <c r="O114" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>416</v>
+        <v>641</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" t="n">
-        <v>54.7861</v>
-      </c>
-      <c r="E115" t="n">
-        <v>11.8113</v>
+      <c r="D115" t="s">
+        <v>642</v>
+      </c>
+      <c r="E115" t="s">
+        <v>643</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="H115" t="s">
-        <v>417</v>
+        <v>644</v>
       </c>
       <c r="I115" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J115" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K115" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L115" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M115" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="N115" t="s">
-        <v>418</v>
+        <v>645</v>
       </c>
       <c r="O115" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>419</v>
+        <v>646</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" t="n">
-        <v>54.7545</v>
-      </c>
-      <c r="E116" t="n">
-        <v>11.4872</v>
+      <c r="D116" t="s">
+        <v>647</v>
+      </c>
+      <c r="E116" t="s">
+        <v>648</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" t="s">
-        <v>420</v>
+        <v>649</v>
       </c>
       <c r="I116" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" t="s">
-        <v>421</v>
+        <v>650</v>
       </c>
       <c r="O116" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>422</v>
+        <v>651</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" t="n">
-        <v>54.7248</v>
-      </c>
-      <c r="E117" t="n">
-        <v>11.5371</v>
+      <c r="D117" t="s">
+        <v>652</v>
+      </c>
+      <c r="E117" t="s">
+        <v>653</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="H117" t="s">
-        <v>423</v>
+        <v>654</v>
       </c>
       <c r="I117" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J117" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K117" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L117" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M117" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="N117" t="s">
-        <v>424</v>
+        <v>655</v>
       </c>
       <c r="O117" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>425</v>
+        <v>656</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="2"/>
-      <c r="D118" t="n">
-        <v>54.7519</v>
-      </c>
-      <c r="E118" t="n">
-        <v>11.5545</v>
+      <c r="D118" t="s">
+        <v>657</v>
+      </c>
+      <c r="E118" t="s">
+        <v>658</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="H118" t="s">
-        <v>426</v>
+        <v>659</v>
       </c>
       <c r="I118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J118" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K118" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L118" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M118" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="N118" t="s">
-        <v>427</v>
+        <v>660</v>
       </c>
       <c r="O118" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>428</v>
+        <v>661</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" t="n">
-        <v>54.7457</v>
-      </c>
-      <c r="E119" t="n">
-        <v>11.5514</v>
+      <c r="D119" t="s">
+        <v>662</v>
+      </c>
+      <c r="E119" t="s">
+        <v>663</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" t="s">
-        <v>429</v>
+        <v>664</v>
       </c>
       <c r="I119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
       <c r="N119" t="s">
-        <v>430</v>
+        <v>665</v>
       </c>
       <c r="O119" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>431</v>
+        <v>666</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="2"/>
-      <c r="D120" t="n">
-        <v>54.7145</v>
-      </c>
-      <c r="E120" t="n">
-        <v>11.6456</v>
+      <c r="D120" t="s">
+        <v>667</v>
+      </c>
+      <c r="E120" t="s">
+        <v>668</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" t="s">
-        <v>432</v>
+        <v>669</v>
       </c>
       <c r="I120" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J120" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" t="s">
-        <v>433</v>
+        <v>670</v>
       </c>
       <c r="O120" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>434</v>
+        <v>671</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="2"/>
-      <c r="D121" t="n">
-        <v>54.7426</v>
-      </c>
-      <c r="E121" t="n">
-        <v>11.5991</v>
+      <c r="D121" t="s">
+        <v>672</v>
+      </c>
+      <c r="E121" t="s">
+        <v>673</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" t="s">
-        <v>435</v>
+        <v>674</v>
       </c>
       <c r="I121" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J121" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
       <c r="N121" t="s">
-        <v>436</v>
+        <v>675</v>
       </c>
       <c r="O121" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>437</v>
+        <v>676</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="2"/>
-      <c r="D122" t="n">
-        <v>54.9804</v>
-      </c>
-      <c r="E122" t="n">
-        <v>12.539</v>
+      <c r="D122" t="s">
+        <v>677</v>
+      </c>
+      <c r="E122" t="s">
+        <v>678</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="H122" t="s">
-        <v>438</v>
+        <v>679</v>
       </c>
       <c r="I122" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J122" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K122" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L122" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M122" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="N122" t="s">
-        <v>439</v>
+        <v>680</v>
       </c>
       <c r="O122" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>440</v>
+        <v>681</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="2"/>
-      <c r="D123" t="n">
-        <v>55.0546</v>
-      </c>
-      <c r="E123" t="n">
-        <v>12.27</v>
+      <c r="D123" t="s">
+        <v>682</v>
+      </c>
+      <c r="E123" t="s">
+        <v>683</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H123" t="s">
-        <v>441</v>
+        <v>684</v>
       </c>
       <c r="I123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J123" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K123" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L123" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M123" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N123" t="s">
-        <v>442</v>
+        <v>685</v>
       </c>
       <c r="O123" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>443</v>
+        <v>686</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124" s="2"/>
-      <c r="D124" t="n">
-        <v>55.0399</v>
-      </c>
-      <c r="E124" t="n">
-        <v>12.2701</v>
+      <c r="D124" t="s">
+        <v>687</v>
+      </c>
+      <c r="E124" t="s">
+        <v>688</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H124" t="s">
-        <v>444</v>
+        <v>689</v>
       </c>
       <c r="I124" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J124" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K124" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L124" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M124" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="N124" t="s">
-        <v>445</v>
+        <v>690</v>
       </c>
       <c r="O124" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>446</v>
+        <v>691</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" s="2"/>
-      <c r="D125" t="n">
-        <v>54.9675</v>
-      </c>
-      <c r="E125" t="n">
-        <v>12.4514</v>
+      <c r="D125" t="s">
+        <v>692</v>
+      </c>
+      <c r="E125" t="s">
+        <v>693</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" t="s">
-        <v>447</v>
+        <v>694</v>
       </c>
       <c r="I125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" t="s">
-        <v>448</v>
+        <v>695</v>
       </c>
       <c r="O125" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>449</v>
+        <v>696</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" s="2"/>
-      <c r="D126" t="n">
-        <v>54.9606</v>
-      </c>
-      <c r="E126" t="n">
-        <v>12.4552</v>
+      <c r="D126" t="s">
+        <v>697</v>
+      </c>
+      <c r="E126" t="s">
+        <v>698</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" t="s">
-        <v>450</v>
+        <v>699</v>
       </c>
       <c r="I126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J126" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" t="s">
-        <v>451</v>
+        <v>700</v>
       </c>
       <c r="O126" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>452</v>
+        <v>701</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" s="2"/>
-      <c r="D127" t="n">
-        <v>54.9646</v>
-      </c>
-      <c r="E127" t="n">
-        <v>12.5097</v>
+      <c r="D127" t="s">
+        <v>702</v>
+      </c>
+      <c r="E127" t="s">
+        <v>703</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H127" t="s">
-        <v>453</v>
+        <v>704</v>
       </c>
       <c r="I127" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J127" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K127" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L127" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M127" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N127" t="s">
-        <v>454</v>
+        <v>705</v>
       </c>
       <c r="O127" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>455</v>
+        <v>706</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="D128" t="n">
-        <v>54.9662</v>
-      </c>
-      <c r="E128" t="n">
-        <v>12.5389</v>
+      <c r="D128" t="s">
+        <v>707</v>
+      </c>
+      <c r="E128" t="s">
+        <v>708</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G128" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="H128" t="s">
-        <v>456</v>
+        <v>709</v>
       </c>
       <c r="I128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J128" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K128" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L128" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M128" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="N128" t="s">
-        <v>457</v>
+        <v>710</v>
       </c>
       <c r="O128" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>458</v>
+        <v>711</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
       <c r="C129" s="2"/>
-      <c r="D129" t="n">
-        <v>54.986</v>
-      </c>
-      <c r="E129" t="n">
-        <v>12.5265</v>
+      <c r="D129" t="s">
+        <v>712</v>
+      </c>
+      <c r="E129" t="s">
+        <v>713</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H129" t="s">
-        <v>459</v>
+        <v>714</v>
       </c>
       <c r="I129" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J129" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K129" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L129" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M129" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N129" t="s">
-        <v>460</v>
+        <v>715</v>
       </c>
       <c r="O129" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>461</v>
+        <v>716</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
       <c r="C130" s="2"/>
-      <c r="D130" t="n">
-        <v>55.0242</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.2995</v>
+      <c r="D130" t="s">
+        <v>717</v>
+      </c>
+      <c r="E130" t="s">
+        <v>718</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" t="s">
-        <v>462</v>
+        <v>719</v>
       </c>
       <c r="I130" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
       <c r="N130" t="s">
-        <v>463</v>
+        <v>720</v>
       </c>
       <c r="O130" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>464</v>
+        <v>721</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" s="2"/>
-      <c r="D131" t="n">
-        <v>54.9729</v>
-      </c>
-      <c r="E131" t="n">
-        <v>12.5389</v>
+      <c r="D131" t="s">
+        <v>722</v>
+      </c>
+      <c r="E131" t="s">
+        <v>708</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G131" t="s">
-        <v>465</v>
+        <v>723</v>
       </c>
       <c r="H131" t="s">
-        <v>466</v>
+        <v>724</v>
       </c>
       <c r="I131" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K131" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" t="s">
-        <v>467</v>
+        <v>725</v>
       </c>
       <c r="O131" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -7385,10 +8159,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>726</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>469</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2">
@@ -7396,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3">
@@ -7404,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>471</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4">
@@ -7412,7 +8186,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5">
@@ -7420,7 +8194,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>473</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6">
@@ -7428,7 +8202,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>474</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7">
@@ -7436,7 +8210,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>475</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8">
@@ -7444,7 +8218,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>476</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9">
@@ -7452,7 +8226,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>477</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10">
@@ -7460,7 +8234,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>478</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11">
@@ -7468,7 +8242,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>479</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12">
@@ -7476,7 +8250,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>480</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13">
@@ -7484,7 +8258,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>481</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14">
@@ -7492,7 +8266,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>482</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15">
@@ -7500,7 +8274,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>483</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P01_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P01_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="761">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -60,33 +60,762 @@
     <t xml:space="preserve">project_name</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kjærsgård</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biowide - Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uggerby skovvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural_soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tversted plantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.0374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raspkær</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.0507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tjenestejorden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.0449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tovsigvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sønderbyvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ejstrup krat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nissum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klitvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stråsø plantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lønne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VO40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filsøvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VO43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.1847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VD52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kalø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sletterhage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strandkær</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haarup sande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brøndsted fælled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rands fjord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svinholt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vesterskov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rand skov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grund skov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ellemose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tisvilde hegn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tibberup holme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">røsnæs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.3836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broby vesterskov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smuldmosen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.3801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kongskilde friluftsgård</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.3159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuglebjerg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.1229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svanninge bakker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.1333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dalkildegård</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.7804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuglsang storskov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.7545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bursø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.7457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">søholt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.7145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">musse mose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.7426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hejrede sø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busemarke mose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busemarke sø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hegnede bakke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lindebakker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM130</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00246</t>
   </si>
   <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.6282</t>
   </si>
   <si>
     <t xml:space="preserve">10.3637</t>
   </si>
   <si>
-    <t xml:space="preserve">natural_soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">2130</t>
   </si>
   <si>
     <t xml:space="preserve">råbjerg kirke</t>
   </si>
   <si>
-    <t xml:space="preserve">Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dunes</t>
   </si>
   <si>
@@ -99,9 +828,6 @@
     <t xml:space="preserve">NV1</t>
   </si>
   <si>
-    <t xml:space="preserve">Biowide - Original</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00247</t>
   </si>
   <si>
@@ -153,27 +879,6 @@
     <t xml:space="preserve">NV3</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agriculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kjærsgård</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV4</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00250</t>
   </si>
   <si>
@@ -189,21 +894,6 @@
     <t xml:space="preserve">NV5</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uggerby skovvej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV6</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00252</t>
   </si>
   <si>
@@ -240,21 +930,6 @@
     <t xml:space="preserve">NV8</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tversted plantage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV9</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00255</t>
   </si>
   <si>
@@ -309,21 +984,6 @@
     <t xml:space="preserve">NT11</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.0374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raspkær</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT12</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00258</t>
   </si>
   <si>
@@ -339,9 +999,6 @@
     <t xml:space="preserve">tømmerby fjord</t>
   </si>
   <si>
-    <t xml:space="preserve">Forrests</t>
-  </si>
-  <si>
     <t xml:space="preserve">Temperate forests</t>
   </si>
   <si>
@@ -387,36 +1044,6 @@
     <t xml:space="preserve">NT15</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.0507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tjenestejorden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.0449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tovsigvej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT17</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00263</t>
   </si>
   <si>
@@ -498,7 +1125,7 @@
     <t xml:space="preserve">skindbjerglund</t>
   </si>
   <si>
-    <t xml:space="preserve">Oak-hornbeam mixed forrest</t>
+    <t xml:space="preserve">Oak-hornbeam mixed forest</t>
   </si>
   <si>
     <t xml:space="preserve">NH21</t>
@@ -582,21 +1209,6 @@
     <t xml:space="preserve">NH25</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NH26</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00272</t>
   </si>
   <si>
@@ -633,21 +1245,6 @@
     <t xml:space="preserve">VU28</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sønderbyvej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU29</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00275</t>
   </si>
   <si>
@@ -672,9 +1269,6 @@
     <t xml:space="preserve">MFD00276</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1672</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.3888</t>
   </si>
   <si>
@@ -684,66 +1278,6 @@
     <t xml:space="preserve">VU31</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.1706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ejstrup krat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nissum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klitvej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stråsø plantage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU35</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00281</t>
   </si>
   <si>
@@ -804,27 +1338,12 @@
     <t xml:space="preserve">kjærgaard løvklitter</t>
   </si>
   <si>
-    <t xml:space="preserve">Oak forrest  Old acidophilous woods with Q. robur on sandy plains</t>
+    <t xml:space="preserve">Oak forest  Old acidophilous woods with Q. robur on sandy plains</t>
   </si>
   <si>
     <t xml:space="preserve">VO39</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lønne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VO40</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00286</t>
   </si>
   <si>
@@ -855,21 +1374,6 @@
     <t xml:space="preserve">VO42</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filsøvej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VO43</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00289</t>
   </si>
   <si>
@@ -1002,21 +1506,6 @@
     <t xml:space="preserve">VD51</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.1847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">damvej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VD52</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00298</t>
   </si>
   <si>
@@ -1032,21 +1521,6 @@
     <t xml:space="preserve">EM53</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kalø</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM54</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00300</t>
   </si>
   <si>
@@ -1116,36 +1590,6 @@
     <t xml:space="preserve">EM58</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sletterhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strandkær</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM60</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00306</t>
   </si>
   <si>
@@ -1194,6 +1638,9 @@
     <t xml:space="preserve">MFD00309</t>
   </si>
   <si>
+    <t xml:space="preserve">2014-10-16</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.0532</t>
   </si>
   <si>
@@ -1251,18 +1698,6 @@
     <t xml:space="preserve">ES67</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haarup sande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES68</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00314</t>
   </si>
   <si>
@@ -1323,96 +1758,6 @@
     <t xml:space="preserve">EV72</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brøndsted fælled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rands fjord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svinholt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vesterskov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rand skov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grund skov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV78</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00324</t>
   </si>
   <si>
@@ -1503,51 +1848,6 @@
     <t xml:space="preserve">SN84</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ellemose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tisvilde hegn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tibberup holme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN87</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00333</t>
   </si>
   <si>
@@ -1653,21 +1953,6 @@
     <t xml:space="preserve">SV94</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.7407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">røsnæs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV95</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00341</t>
   </si>
   <si>
@@ -1698,21 +1983,6 @@
     <t xml:space="preserve">SM97</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.3836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broby vesterskov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM98</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00344</t>
   </si>
   <si>
@@ -1728,21 +1998,6 @@
     <t xml:space="preserve">SM99</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smuldmosen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM100</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00346</t>
   </si>
   <si>
@@ -1758,36 +2013,6 @@
     <t xml:space="preserve">SM101</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.3801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kongskilde friluftsgård</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.3159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuglebjerg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM103</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00349</t>
   </si>
   <si>
@@ -1803,21 +2028,6 @@
     <t xml:space="preserve">SM104</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.1229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svanninge bakker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF105</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00351</t>
   </si>
   <si>
@@ -1833,21 +2043,6 @@
     <t xml:space="preserve">FF106</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.1333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dalkildegård</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF107</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00353</t>
   </si>
   <si>
@@ -1923,21 +2118,6 @@
     <t xml:space="preserve">FF112</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.7804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuglsang storskov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL113</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00359</t>
   </si>
   <si>
@@ -1953,21 +2133,6 @@
     <t xml:space="preserve">FL114</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.7545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bursø</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL115</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00361</t>
   </si>
   <si>
@@ -1998,51 +2163,6 @@
     <t xml:space="preserve">FL117</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.7457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">søholt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.7145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">musse mose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.7426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hejrede sø</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL120</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00366</t>
   </si>
   <si>
@@ -2088,36 +2208,6 @@
     <t xml:space="preserve">FM123</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">busemarke mose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">busemarke sø</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM125</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00371</t>
   </si>
   <si>
@@ -2139,9 +2229,6 @@
     <t xml:space="preserve">54.9662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5389</t>
-  </si>
-  <si>
     <t xml:space="preserve">timesø bjerg</t>
   </si>
   <si>
@@ -2161,36 +2248,6 @@
   </si>
   <si>
     <t xml:space="preserve">FM128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hegnede bakke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lindebakker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM130</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -2648,19 +2705,19 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
         <v>20</v>
       </c>
+      <c r="G2" s="2"/>
       <c r="H2" t="s">
         <v>21</v>
       </c>
@@ -2670,44 +2727,38 @@
       <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -2715,253 +2766,233 @@
       <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -2969,208 +3000,194 @@
       <c r="J9" t="s">
         <v>23</v>
       </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" t="s">
-        <v>73</v>
-      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" t="s">
-        <v>87</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G12" s="2"/>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" t="s">
-        <v>96</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>106</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
@@ -3178,132 +3195,116 @@
       <c r="J14" t="s">
         <v>23</v>
       </c>
-      <c r="K14" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" t="s">
-        <v>109</v>
-      </c>
-      <c r="M14" t="s">
-        <v>110</v>
-      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>115</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" t="s">
-        <v>117</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>115</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" t="s">
-        <v>117</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="O16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
@@ -3315,161 +3316,151 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="O17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>137</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G19" s="2"/>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" t="s">
-        <v>139</v>
-      </c>
-      <c r="M19" t="s">
-        <v>140</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>145</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G20" s="2"/>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" t="s">
-        <v>147</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="O20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>152</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G21" s="2"/>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
@@ -3477,521 +3468,467 @@
       <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" t="s">
-        <v>154</v>
-      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="O21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>159</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G22" s="2"/>
       <c r="H22" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" t="s">
-        <v>109</v>
-      </c>
-      <c r="M22" t="s">
-        <v>161</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="O22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>159</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G23" s="2"/>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23" t="s">
-        <v>109</v>
-      </c>
-      <c r="M23" t="s">
-        <v>161</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="O23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
       <c r="D24" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>171</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G24" s="2"/>
       <c r="H24" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" t="s">
-        <v>108</v>
-      </c>
-      <c r="L24" t="s">
-        <v>109</v>
-      </c>
-      <c r="M24" t="s">
-        <v>173</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="O24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>178</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G25" s="2"/>
       <c r="H25" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" t="s">
-        <v>181</v>
-      </c>
-      <c r="M25" t="s">
-        <v>182</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
       <c r="N25" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="O25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G26" s="2"/>
       <c r="H26" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="I26" t="s">
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26" t="s">
-        <v>36</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="O26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="O27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" t="s">
-        <v>26</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
       <c r="N28" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="O28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>202</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G29" s="2"/>
       <c r="H29" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" t="s">
-        <v>204</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
       <c r="N29" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="O29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" t="s">
+        <v>175</v>
+      </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="O30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>214</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G31" s="2"/>
       <c r="H31" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" t="s">
-        <v>95</v>
-      </c>
-      <c r="M31" t="s">
-        <v>216</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="O31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G32" s="2"/>
       <c r="H32" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32" t="s">
-        <v>36</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
       <c r="N32" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="O32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
@@ -4003,32 +3940,34 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="O33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="E34" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
@@ -4040,153 +3979,151 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="O34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" t="s">
+        <v>203</v>
+      </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="O35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" t="s">
+        <v>203</v>
+      </c>
       <c r="D36" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="O36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" t="s">
+        <v>214</v>
+      </c>
       <c r="D37" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>137</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G37" s="2"/>
       <c r="H37" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" t="s">
-        <v>85</v>
-      </c>
-      <c r="L37" t="s">
-        <v>139</v>
-      </c>
-      <c r="M37" t="s">
-        <v>140</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
       <c r="N37" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="O37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
       <c r="D38" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>202</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G38" s="2"/>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -4194,259 +4131,233 @@
       <c r="J38" t="s">
         <v>23</v>
       </c>
-      <c r="K38" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" t="s">
-        <v>204</v>
-      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
       <c r="N38" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="O38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
       <c r="D39" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="I39" t="s">
         <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" t="s">
-        <v>34</v>
-      </c>
-      <c r="L39" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" t="s">
-        <v>36</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
       <c r="N39" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="O39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
       <c r="D40" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>261</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G40" s="2"/>
       <c r="H40" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" t="s">
-        <v>108</v>
-      </c>
-      <c r="L40" t="s">
-        <v>109</v>
-      </c>
-      <c r="M40" t="s">
-        <v>263</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
       <c r="N40" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="O40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
       <c r="D41" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="E41" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="O41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" t="s">
+        <v>240</v>
+      </c>
       <c r="D42" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G42" s="2"/>
       <c r="H42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" t="s">
-        <v>26</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
       <c r="N42" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="O42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
       <c r="D43" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="E43" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>115</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G43" s="2"/>
       <c r="H43" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" t="s">
-        <v>117</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
       <c r="N43" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="O43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" t="s">
+        <v>240</v>
+      </c>
       <c r="D44" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="E44" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -4458,706 +4369,758 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="O44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" t="s">
+        <v>240</v>
+      </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="E45" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="H45" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K45" t="s">
-        <v>85</v>
-      </c>
-      <c r="L45" t="s">
-        <v>86</v>
-      </c>
-      <c r="M45" t="s">
-        <v>290</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
       <c r="N45" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="O45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
       <c r="D46" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>92</v>
+        <v>265</v>
       </c>
       <c r="H46" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="L46" t="s">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="M46" t="s">
-        <v>96</v>
+        <v>269</v>
       </c>
       <c r="N46" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="O46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
       <c r="D47" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="E47" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="H47" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K47" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="M47" t="s">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="N47" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="O47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
       <c r="D48" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E48" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="H48" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K48" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="L48" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="M48" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="N48" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="O48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
       <c r="D49" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E49" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="H49" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K49" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="L49" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="N49" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="O49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
       <c r="D50" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="E50" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="H50" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K50" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="L50" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="M50" t="s">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="N50" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="O50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
       <c r="D51" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E51" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="H51" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K51" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="M51" t="s">
-        <v>110</v>
+        <v>303</v>
       </c>
       <c r="N51" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="O51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
       <c r="D52" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="E52" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="H52" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K52" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="L52" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="M52" t="s">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="N52" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="O52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
       <c r="D53" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E53" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
+        <v>317</v>
+      </c>
       <c r="H53" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K53" t="s">
+        <v>319</v>
+      </c>
+      <c r="L53" t="s">
+        <v>320</v>
+      </c>
+      <c r="M53" t="s">
+        <v>321</v>
+      </c>
       <c r="N53" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="O53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
       <c r="D54" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E54" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="H54" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="I54" t="s">
         <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K54" t="s">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="L54" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="M54" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N54" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="O54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
       <c r="D55" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E55" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
+        <v>334</v>
+      </c>
       <c r="H55" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I55" t="s">
         <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
-      </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K55" t="s">
+        <v>267</v>
+      </c>
+      <c r="L55" t="s">
+        <v>268</v>
+      </c>
+      <c r="M55" t="s">
+        <v>336</v>
+      </c>
       <c r="N55" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="O55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
       <c r="D56" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E56" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="H56" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K56" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="L56" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="M56" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="N56" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="O56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>343</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>344</v>
+      </c>
+      <c r="E57" t="s">
+        <v>345</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" t="s">
+        <v>346</v>
+      </c>
+      <c r="H57" t="s">
+        <v>347</v>
+      </c>
+      <c r="I57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" t="s">
+        <v>310</v>
+      </c>
+      <c r="L57" t="s">
+        <v>348</v>
+      </c>
+      <c r="M57" t="s">
         <v>349</v>
       </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s">
+      <c r="N57" t="s">
         <v>350</v>
       </c>
-      <c r="E57" t="s">
-        <v>351</v>
-      </c>
-      <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>310</v>
-      </c>
-      <c r="H57" t="s">
-        <v>352</v>
-      </c>
-      <c r="I57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" t="s">
-        <v>108</v>
-      </c>
-      <c r="L57" t="s">
-        <v>109</v>
-      </c>
-      <c r="M57" t="s">
-        <v>312</v>
-      </c>
-      <c r="N57" t="s">
-        <v>353</v>
-      </c>
       <c r="O57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>352</v>
+      </c>
+      <c r="E58" t="s">
+        <v>353</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s">
         <v>354</v>
       </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s">
+      <c r="H58" t="s">
         <v>355</v>
       </c>
-      <c r="E58" t="s">
+      <c r="I58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58" t="s">
+        <v>260</v>
+      </c>
+      <c r="L58" t="s">
+        <v>328</v>
+      </c>
+      <c r="M58" t="s">
         <v>356</v>
       </c>
-      <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>288</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="N58" t="s">
         <v>357</v>
       </c>
-      <c r="I58" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" t="s">
-        <v>85</v>
-      </c>
-      <c r="L58" t="s">
-        <v>86</v>
-      </c>
-      <c r="M58" t="s">
-        <v>290</v>
-      </c>
-      <c r="N58" t="s">
-        <v>358</v>
-      </c>
       <c r="O58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>358</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
         <v>359</v>
       </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>360</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" t="s">
         <v>361</v>
       </c>
-      <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>362</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K59" t="s">
+        <v>260</v>
+      </c>
+      <c r="L59" t="s">
+        <v>328</v>
+      </c>
+      <c r="M59" t="s">
         <v>363</v>
       </c>
-      <c r="I59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J59" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="N59" t="s">
         <v>364</v>
       </c>
-      <c r="M59" t="s">
-        <v>365</v>
-      </c>
-      <c r="N59" t="s">
-        <v>366</v>
-      </c>
       <c r="O59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>365</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" t="s">
+        <v>366</v>
+      </c>
+      <c r="E60" t="s">
         <v>367</v>
       </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
         <v>368</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>369</v>
       </c>
-      <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>36</v>
+      </c>
+      <c r="K60" t="s">
+        <v>260</v>
+      </c>
+      <c r="L60" t="s">
+        <v>328</v>
+      </c>
+      <c r="M60" t="s">
         <v>370</v>
       </c>
-      <c r="I60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J60" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
       <c r="N60" t="s">
         <v>371</v>
       </c>
       <c r="O60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
@@ -5167,7 +5130,9 @@
       <c r="B61" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
       <c r="D61" t="s">
         <v>373</v>
       </c>
@@ -5175,9 +5140,11 @@
         <v>374</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G61" t="s">
+        <v>368</v>
+      </c>
       <c r="H61" t="s">
         <v>375</v>
       </c>
@@ -5185,16 +5152,22 @@
         <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K61" t="s">
+        <v>260</v>
+      </c>
+      <c r="L61" t="s">
+        <v>328</v>
+      </c>
+      <c r="M61" t="s">
+        <v>370</v>
+      </c>
       <c r="N61" t="s">
         <v>376</v>
       </c>
       <c r="O61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
@@ -5204,7 +5177,9 @@
       <c r="B62" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
       <c r="D62" t="s">
         <v>378</v>
       </c>
@@ -5212,2935 +5187,3277 @@
         <v>379</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>202</v>
+        <v>380</v>
       </c>
       <c r="H62" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K62" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="L62" t="s">
-        <v>43</v>
+        <v>328</v>
       </c>
       <c r="M62" t="s">
-        <v>204</v>
+        <v>382</v>
       </c>
       <c r="N62" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" t="s">
+        <v>56</v>
+      </c>
       <c r="D63" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E63" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>214</v>
+        <v>387</v>
       </c>
       <c r="H63" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K63" t="s">
-        <v>94</v>
+        <v>389</v>
       </c>
       <c r="L63" t="s">
-        <v>95</v>
+        <v>390</v>
       </c>
       <c r="M63" t="s">
-        <v>216</v>
+        <v>391</v>
       </c>
       <c r="N63" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="O63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
       <c r="D64" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E64" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="H64" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K64" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="L64" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="M64" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="N64" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="O64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
       <c r="D65" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E65" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="H65" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K65" t="s">
-        <v>85</v>
+        <v>267</v>
       </c>
       <c r="L65" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="M65" t="s">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="N65" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
       <c r="D66" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E66" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>406</v>
       </c>
       <c r="H66" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K66" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="M66" t="s">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="N66" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="O66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
       <c r="D67" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E67" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>413</v>
       </c>
       <c r="H67" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K67" t="s">
-        <v>34</v>
+        <v>319</v>
       </c>
       <c r="L67" t="s">
-        <v>35</v>
+        <v>320</v>
       </c>
       <c r="M67" t="s">
-        <v>36</v>
+        <v>415</v>
       </c>
       <c r="N67" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="O67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
       <c r="D68" t="s">
-        <v>408</v>
+        <v>123</v>
       </c>
       <c r="E68" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="H68" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="I68" t="s">
         <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K68" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="L68" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="M68" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="N68" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="O68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>422</v>
       </c>
       <c r="E69" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
+        <v>346</v>
+      </c>
       <c r="H69" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="I69" t="s">
         <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K69" t="s">
+        <v>310</v>
+      </c>
+      <c r="L69" t="s">
+        <v>348</v>
+      </c>
+      <c r="M69" t="s">
+        <v>349</v>
+      </c>
       <c r="N69" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="O69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
       <c r="D70" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="E70" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
+        <v>406</v>
       </c>
       <c r="H70" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="I70" t="s">
         <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K70" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="L70" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="M70" t="s">
-        <v>154</v>
+        <v>408</v>
       </c>
       <c r="N70" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="O70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
       <c r="D71" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E71" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
       <c r="H71" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="I71" t="s">
         <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K71" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="L71" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="M71" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="N71" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
       <c r="D72" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E72" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>145</v>
+        <v>439</v>
       </c>
       <c r="H72" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K72" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="L72" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="M72" t="s">
-        <v>147</v>
+        <v>441</v>
       </c>
       <c r="N72" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="O72" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
       <c r="D73" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="E73" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="H73" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K73" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="L73" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="M73" t="s">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="N73" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="O73" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
       <c r="D74" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="E74" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
-      </c>
-      <c r="G74" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
+        <v>334</v>
+      </c>
       <c r="H74" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
-      </c>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K74" t="s">
+        <v>267</v>
+      </c>
+      <c r="L74" t="s">
+        <v>268</v>
+      </c>
+      <c r="M74" t="s">
+        <v>336</v>
+      </c>
       <c r="N74" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="O74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
       <c r="D75" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="E75" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G75" t="s">
+        <v>456</v>
+      </c>
       <c r="H75" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
       </c>
       <c r="J75" t="s">
-        <v>23</v>
-      </c>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K75" t="s">
+        <v>310</v>
+      </c>
+      <c r="L75" t="s">
+        <v>311</v>
+      </c>
+      <c r="M75" t="s">
+        <v>458</v>
+      </c>
       <c r="N75" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="O75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
       <c r="D76" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="E76" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G76" t="s">
+        <v>317</v>
+      </c>
       <c r="H76" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>23</v>
-      </c>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K76" t="s">
+        <v>319</v>
+      </c>
+      <c r="L76" t="s">
+        <v>320</v>
+      </c>
+      <c r="M76" t="s">
+        <v>321</v>
+      </c>
       <c r="N76" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="O76" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
       <c r="D77" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="E77" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G77" t="s">
+        <v>368</v>
+      </c>
       <c r="H77" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>23</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K77" t="s">
+        <v>260</v>
+      </c>
+      <c r="L77" t="s">
+        <v>328</v>
+      </c>
+      <c r="M77" t="s">
+        <v>370</v>
+      </c>
       <c r="N77" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="O77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" t="s">
+        <v>100</v>
+      </c>
       <c r="D78" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="E78" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G78" t="s">
+        <v>439</v>
+      </c>
       <c r="H78" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
-      </c>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K78" t="s">
+        <v>260</v>
+      </c>
+      <c r="L78" t="s">
+        <v>328</v>
+      </c>
+      <c r="M78" t="s">
+        <v>441</v>
+      </c>
       <c r="N78" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="O78" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" t="s">
+        <v>100</v>
+      </c>
       <c r="D79" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E79" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G79" t="s">
+        <v>478</v>
+      </c>
       <c r="H79" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>23</v>
-      </c>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K79" t="s">
+        <v>260</v>
+      </c>
+      <c r="L79" t="s">
+        <v>328</v>
+      </c>
+      <c r="M79" t="s">
+        <v>480</v>
+      </c>
       <c r="N79" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="O79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
       <c r="D80" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="E80" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="H80" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K80" t="s">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="L80" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="M80" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="N80" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="O80" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
       <c r="D81" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="E81" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="H81" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K81" t="s">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="L81" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="M81" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N81" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="O81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="2"/>
+      <c r="C82" t="s">
+        <v>100</v>
+      </c>
       <c r="D82" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="E82" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="H82" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
       </c>
       <c r="J82" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K82" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="L82" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="M82" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="N82" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="O82" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
       <c r="D83" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="E83" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>171</v>
+        <v>456</v>
       </c>
       <c r="H83" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K83" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="L83" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="M83" t="s">
-        <v>173</v>
+        <v>458</v>
       </c>
       <c r="N83" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="O83" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" t="s">
+        <v>106</v>
+      </c>
       <c r="D84" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="E84" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>106</v>
+        <v>387</v>
       </c>
       <c r="H84" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
       </c>
       <c r="J84" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K84" t="s">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="L84" t="s">
-        <v>109</v>
+        <v>390</v>
       </c>
       <c r="M84" t="s">
-        <v>110</v>
+        <v>391</v>
       </c>
       <c r="N84" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="O84" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" t="s">
+        <v>106</v>
+      </c>
       <c r="D85" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="E85" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>202</v>
+        <v>478</v>
       </c>
       <c r="H85" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K85" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="L85" t="s">
-        <v>43</v>
+        <v>328</v>
       </c>
       <c r="M85" t="s">
-        <v>204</v>
+        <v>480</v>
       </c>
       <c r="N85" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="O85" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
       <c r="D86" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="E86" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
+        <v>456</v>
+      </c>
       <c r="H86" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K86" t="s">
+        <v>310</v>
+      </c>
+      <c r="L86" t="s">
+        <v>311</v>
+      </c>
+      <c r="M86" t="s">
+        <v>458</v>
+      </c>
       <c r="N86" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="O86" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" t="s">
+        <v>106</v>
+      </c>
       <c r="D87" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="E87" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G87" t="s">
+        <v>520</v>
+      </c>
       <c r="H87" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K87" t="s">
+        <v>310</v>
+      </c>
+      <c r="L87" t="s">
+        <v>522</v>
+      </c>
+      <c r="M87" t="s">
+        <v>523</v>
+      </c>
       <c r="N87" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="O87" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" t="s">
+        <v>106</v>
+      </c>
       <c r="D88" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="E88" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G88" t="s">
+        <v>406</v>
+      </c>
       <c r="H88" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K88" t="s">
+        <v>276</v>
+      </c>
+      <c r="L88" t="s">
+        <v>285</v>
+      </c>
+      <c r="M88" t="s">
+        <v>408</v>
+      </c>
       <c r="N88" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="O88" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" t="s">
+        <v>122</v>
+      </c>
       <c r="D89" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="E89" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="H89" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K89" t="s">
-        <v>85</v>
+        <v>319</v>
       </c>
       <c r="L89" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="M89" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="N89" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="O89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="2"/>
+      <c r="C90" t="s">
+        <v>122</v>
+      </c>
       <c r="D90" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="E90" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>137</v>
+        <v>406</v>
       </c>
       <c r="H90" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
       </c>
       <c r="J90" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K90" t="s">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="L90" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="M90" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
       <c r="N90" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="O90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" t="s">
+        <v>541</v>
+      </c>
       <c r="D91" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="E91" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="H91" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
       </c>
       <c r="J91" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K91" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="L91" t="s">
-        <v>25</v>
+        <v>348</v>
       </c>
       <c r="M91" t="s">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="N91" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="O91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" t="s">
+        <v>122</v>
+      </c>
       <c r="D92" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E92" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>137</v>
+        <v>283</v>
       </c>
       <c r="H92" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
       </c>
       <c r="J92" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K92" t="s">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="L92" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="M92" t="s">
-        <v>140</v>
+        <v>286</v>
       </c>
       <c r="N92" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="O92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93" t="s">
+        <v>541</v>
+      </c>
       <c r="D93" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="E93" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c r="H93" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
       </c>
       <c r="J93" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K93" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="L93" t="s">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="M93" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="N93" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="O93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
       <c r="D94" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="E94" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>214</v>
+        <v>387</v>
       </c>
       <c r="H94" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="I94" t="s">
         <v>22</v>
       </c>
       <c r="J94" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K94" t="s">
-        <v>94</v>
+        <v>389</v>
       </c>
       <c r="L94" t="s">
-        <v>95</v>
+        <v>390</v>
       </c>
       <c r="M94" t="s">
-        <v>216</v>
+        <v>391</v>
       </c>
       <c r="N94" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="O94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95" t="s">
+        <v>122</v>
+      </c>
       <c r="D95" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="E95" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>178</v>
+        <v>361</v>
       </c>
       <c r="H95" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="I95" t="s">
         <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K95" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="L95" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="M95" t="s">
-        <v>182</v>
+        <v>363</v>
       </c>
       <c r="N95" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="O95" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="2"/>
+      <c r="C96" t="s">
+        <v>122</v>
+      </c>
       <c r="D96" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="E96" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G96" t="s">
+        <v>326</v>
+      </c>
       <c r="H96" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="I96" t="s">
         <v>22</v>
       </c>
       <c r="J96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K96" t="s">
+        <v>260</v>
+      </c>
+      <c r="L96" t="s">
+        <v>328</v>
+      </c>
+      <c r="M96" t="s">
+        <v>329</v>
+      </c>
       <c r="N96" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="O96" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="2"/>
+      <c r="C97" t="s">
+        <v>128</v>
+      </c>
       <c r="D97" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="E97" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="H97" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="I97" t="s">
         <v>22</v>
       </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K97" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="L97" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="M97" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
       <c r="N97" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="O97" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="2"/>
+      <c r="C98" t="s">
+        <v>128</v>
+      </c>
       <c r="D98" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="E98" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="H98" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
       </c>
       <c r="J98" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K98" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="L98" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="M98" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="N98" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="O98" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="2"/>
+      <c r="C99" t="s">
+        <v>159</v>
+      </c>
       <c r="D99" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="E99" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G99" t="s">
+        <v>456</v>
+      </c>
       <c r="H99" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
       </c>
       <c r="J99" t="s">
-        <v>23</v>
-      </c>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K99" t="s">
+        <v>310</v>
+      </c>
+      <c r="L99" t="s">
+        <v>311</v>
+      </c>
+      <c r="M99" t="s">
+        <v>458</v>
+      </c>
       <c r="N99" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="O99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="2"/>
+      <c r="C100" t="s">
+        <v>159</v>
+      </c>
       <c r="D100" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="E100" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>106</v>
+        <v>456</v>
       </c>
       <c r="H100" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="I100" t="s">
         <v>22</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K100" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="L100" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="M100" t="s">
-        <v>110</v>
+        <v>458</v>
       </c>
       <c r="N100" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="O100" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="2"/>
+      <c r="C101" t="s">
+        <v>159</v>
+      </c>
       <c r="D101" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="E101" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G101" t="s">
+        <v>478</v>
+      </c>
       <c r="H101" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="I101" t="s">
         <v>22</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
-      </c>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K101" t="s">
+        <v>260</v>
+      </c>
+      <c r="L101" t="s">
+        <v>328</v>
+      </c>
+      <c r="M101" t="s">
+        <v>480</v>
+      </c>
       <c r="N101" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="O101" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="2"/>
+      <c r="C102" t="s">
+        <v>159</v>
+      </c>
       <c r="D102" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="E102" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="H102" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K102" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="L102" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="M102" t="s">
-        <v>173</v>
+        <v>382</v>
       </c>
       <c r="N102" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="O102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" t="s">
+        <v>159</v>
+      </c>
       <c r="D103" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="E103" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="F103" t="s">
-        <v>49</v>
-      </c>
-      <c r="G103" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G103" t="s">
+        <v>326</v>
+      </c>
       <c r="H103" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
-      </c>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K103" t="s">
+        <v>260</v>
+      </c>
+      <c r="L103" t="s">
+        <v>328</v>
+      </c>
+      <c r="M103" t="s">
+        <v>329</v>
+      </c>
       <c r="N103" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="O103" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
-      <c r="C104" s="2"/>
+      <c r="C104" t="s">
+        <v>159</v>
+      </c>
       <c r="D104" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="E104" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="F104" t="s">
-        <v>49</v>
-      </c>
-      <c r="G104" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G104" t="s">
+        <v>406</v>
+      </c>
       <c r="H104" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="I104" t="s">
         <v>22</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
-      </c>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K104" t="s">
+        <v>276</v>
+      </c>
+      <c r="L104" t="s">
+        <v>285</v>
+      </c>
+      <c r="M104" t="s">
+        <v>408</v>
+      </c>
       <c r="N104" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="O104" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="2"/>
+      <c r="C105" t="s">
+        <v>175</v>
+      </c>
       <c r="D105" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="E105" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>137</v>
+        <v>520</v>
       </c>
       <c r="H105" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="I105" t="s">
         <v>22</v>
       </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K105" t="s">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="L105" t="s">
-        <v>139</v>
+        <v>522</v>
       </c>
       <c r="M105" t="s">
-        <v>140</v>
+        <v>523</v>
       </c>
       <c r="N105" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="O105" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="2"/>
+      <c r="C106" t="s">
+        <v>175</v>
+      </c>
       <c r="D106" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="E106" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
+        <v>346</v>
+      </c>
       <c r="H106" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="I106" t="s">
         <v>22</v>
       </c>
       <c r="J106" t="s">
-        <v>23</v>
-      </c>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K106" t="s">
+        <v>310</v>
+      </c>
+      <c r="L106" t="s">
+        <v>348</v>
+      </c>
+      <c r="M106" t="s">
+        <v>349</v>
+      </c>
       <c r="N106" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="O106" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="2"/>
+      <c r="C107" t="s">
+        <v>175</v>
+      </c>
       <c r="D107" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="E107" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="H107" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="I107" t="s">
         <v>22</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K107" t="s">
-        <v>85</v>
+        <v>267</v>
       </c>
       <c r="L107" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="M107" t="s">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="N107" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="O107" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="2"/>
+      <c r="C108" t="s">
+        <v>175</v>
+      </c>
       <c r="D108" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="E108" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G108" t="s">
+        <v>346</v>
+      </c>
       <c r="H108" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="I108" t="s">
         <v>22</v>
       </c>
       <c r="J108" t="s">
-        <v>23</v>
-      </c>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K108" t="s">
+        <v>310</v>
+      </c>
+      <c r="L108" t="s">
+        <v>348</v>
+      </c>
+      <c r="M108" t="s">
+        <v>349</v>
+      </c>
       <c r="N108" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="O108" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="2"/>
+      <c r="C109" t="s">
+        <v>175</v>
+      </c>
       <c r="D109" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="E109" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="H109" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="I109" t="s">
         <v>22</v>
       </c>
       <c r="J109" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K109" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="L109" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="M109" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="N109" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="O109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
-      <c r="C110" s="2"/>
+      <c r="C110" t="s">
+        <v>175</v>
+      </c>
       <c r="D110" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="E110" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>288</v>
+        <v>413</v>
       </c>
       <c r="H110" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K110" t="s">
-        <v>85</v>
+        <v>319</v>
       </c>
       <c r="L110" t="s">
-        <v>86</v>
+        <v>320</v>
       </c>
       <c r="M110" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="N110" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="O110" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="2"/>
+      <c r="C111" t="s">
+        <v>175</v>
+      </c>
       <c r="D111" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="E111" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>106</v>
+        <v>387</v>
       </c>
       <c r="H111" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
       </c>
       <c r="J111" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K111" t="s">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="L111" t="s">
-        <v>109</v>
+        <v>390</v>
       </c>
       <c r="M111" t="s">
-        <v>110</v>
+        <v>391</v>
       </c>
       <c r="N111" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="O111" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="2"/>
+      <c r="C112" t="s">
+        <v>187</v>
+      </c>
       <c r="D112" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="E112" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>202</v>
+        <v>354</v>
       </c>
       <c r="H112" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="I112" t="s">
         <v>22</v>
       </c>
       <c r="J112" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K112" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="L112" t="s">
-        <v>43</v>
+        <v>328</v>
       </c>
       <c r="M112" t="s">
-        <v>204</v>
+        <v>356</v>
       </c>
       <c r="N112" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="O112" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="2"/>
+      <c r="C113" t="s">
+        <v>181</v>
+      </c>
       <c r="D113" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="E113" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>202</v>
+        <v>478</v>
       </c>
       <c r="H113" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="I113" t="s">
         <v>22</v>
       </c>
       <c r="J113" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K113" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="L113" t="s">
-        <v>43</v>
+        <v>328</v>
       </c>
       <c r="M113" t="s">
-        <v>204</v>
+        <v>480</v>
       </c>
       <c r="N113" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="O113" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="2"/>
+      <c r="C114" t="s">
+        <v>187</v>
+      </c>
       <c r="D114" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="E114" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G114" t="s">
+        <v>326</v>
+      </c>
       <c r="H114" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
       </c>
       <c r="J114" t="s">
-        <v>23</v>
-      </c>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K114" t="s">
+        <v>260</v>
+      </c>
+      <c r="L114" t="s">
+        <v>328</v>
+      </c>
+      <c r="M114" t="s">
+        <v>329</v>
+      </c>
       <c r="N114" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="O114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
-      <c r="C115" s="2"/>
+      <c r="C115" t="s">
+        <v>181</v>
+      </c>
       <c r="D115" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="E115" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="H115" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="I115" t="s">
         <v>22</v>
       </c>
       <c r="J115" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K115" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="L115" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="M115" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="N115" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="O115" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
-      <c r="C116" s="2"/>
+      <c r="C116" t="s">
+        <v>181</v>
+      </c>
       <c r="D116" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="E116" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="F116" t="s">
-        <v>49</v>
-      </c>
-      <c r="G116" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G116" t="s">
+        <v>346</v>
+      </c>
       <c r="H116" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="I116" t="s">
         <v>22</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
-      </c>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K116" t="s">
+        <v>310</v>
+      </c>
+      <c r="L116" t="s">
+        <v>348</v>
+      </c>
+      <c r="M116" t="s">
+        <v>349</v>
+      </c>
       <c r="N116" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="O116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="2"/>
+      <c r="C117" t="s">
+        <v>203</v>
+      </c>
       <c r="D117" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="E117" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>106</v>
+        <v>308</v>
       </c>
       <c r="H117" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="I117" t="s">
         <v>22</v>
       </c>
       <c r="J117" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K117" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="L117" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="M117" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="N117" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="O117" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="2"/>
+      <c r="C118" t="s">
+        <v>203</v>
+      </c>
       <c r="D118" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="E118" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>171</v>
+        <v>406</v>
       </c>
       <c r="H118" t="s">
-        <v>659</v>
+        <v>679</v>
       </c>
       <c r="I118" t="s">
         <v>22</v>
       </c>
       <c r="J118" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K118" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="L118" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="M118" t="s">
-        <v>173</v>
+        <v>408</v>
       </c>
       <c r="N118" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="O118" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
-      <c r="C119" s="2"/>
+      <c r="C119" t="s">
+        <v>203</v>
+      </c>
       <c r="D119" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="E119" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G119" t="s">
+        <v>456</v>
+      </c>
       <c r="H119" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="I119" t="s">
         <v>22</v>
       </c>
       <c r="J119" t="s">
-        <v>23</v>
-      </c>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K119" t="s">
+        <v>310</v>
+      </c>
+      <c r="L119" t="s">
+        <v>311</v>
+      </c>
+      <c r="M119" t="s">
+        <v>458</v>
+      </c>
       <c r="N119" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="O119" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
-      <c r="C120" s="2"/>
+      <c r="C120" t="s">
+        <v>203</v>
+      </c>
       <c r="D120" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="E120" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G120" t="s">
+        <v>326</v>
+      </c>
       <c r="H120" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
       <c r="I120" t="s">
         <v>22</v>
       </c>
       <c r="J120" t="s">
-        <v>23</v>
-      </c>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K120" t="s">
+        <v>260</v>
+      </c>
+      <c r="L120" t="s">
+        <v>328</v>
+      </c>
+      <c r="M120" t="s">
+        <v>329</v>
+      </c>
       <c r="N120" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="O120" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="2"/>
+      <c r="C121" t="s">
+        <v>203</v>
+      </c>
       <c r="D121" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
       <c r="E121" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>406</v>
+      </c>
       <c r="H121" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="I121" t="s">
         <v>22</v>
       </c>
       <c r="J121" t="s">
-        <v>23</v>
-      </c>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-      <c r="M121" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K121" t="s">
+        <v>276</v>
+      </c>
+      <c r="L121" t="s">
+        <v>285</v>
+      </c>
+      <c r="M121" t="s">
+        <v>408</v>
+      </c>
       <c r="N121" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="O121" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
-      <c r="C122" s="2"/>
+      <c r="C122" t="s">
+        <v>203</v>
+      </c>
       <c r="D122" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="E122" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>145</v>
+        <v>406</v>
       </c>
       <c r="H122" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="I122" t="s">
         <v>22</v>
       </c>
       <c r="J122" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K122" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="L122" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="M122" t="s">
-        <v>147</v>
+        <v>408</v>
       </c>
       <c r="N122" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="O122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="2"/>
+      <c r="C123" t="s">
+        <v>214</v>
+      </c>
       <c r="D123" t="s">
-        <v>682</v>
+        <v>702</v>
       </c>
       <c r="E123" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>20</v>
+        <v>478</v>
       </c>
       <c r="H123" t="s">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="I123" t="s">
         <v>22</v>
       </c>
       <c r="J123" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K123" t="s">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="L123" t="s">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="M123" t="s">
-        <v>26</v>
+        <v>480</v>
       </c>
       <c r="N123" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="O123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="2"/>
+      <c r="C124" t="s">
+        <v>214</v>
+      </c>
       <c r="D124" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="E124" t="s">
-        <v>688</v>
+        <v>708</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="H124" t="s">
-        <v>689</v>
+        <v>709</v>
       </c>
       <c r="I124" t="s">
         <v>22</v>
       </c>
       <c r="J124" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K124" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="L124" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="M124" t="s">
-        <v>96</v>
+        <v>329</v>
       </c>
       <c r="N124" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="O124" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="2"/>
+      <c r="C125" t="s">
+        <v>214</v>
+      </c>
       <c r="D125" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="E125" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
+        <v>380</v>
+      </c>
       <c r="H125" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="I125" t="s">
         <v>22</v>
       </c>
       <c r="J125" t="s">
-        <v>23</v>
-      </c>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K125" t="s">
+        <v>260</v>
+      </c>
+      <c r="L125" t="s">
+        <v>328</v>
+      </c>
+      <c r="M125" t="s">
+        <v>382</v>
+      </c>
       <c r="N125" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="O125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="2"/>
+      <c r="C126" t="s">
+        <v>240</v>
+      </c>
       <c r="D126" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="E126" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G126" t="s">
+        <v>354</v>
+      </c>
       <c r="H126" t="s">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="I126" t="s">
         <v>22</v>
       </c>
       <c r="J126" t="s">
-        <v>23</v>
-      </c>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K126" t="s">
+        <v>260</v>
+      </c>
+      <c r="L126" t="s">
+        <v>328</v>
+      </c>
+      <c r="M126" t="s">
+        <v>356</v>
+      </c>
       <c r="N126" t="s">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="O126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="2"/>
+      <c r="C127" t="s">
+        <v>240</v>
+      </c>
       <c r="D127" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="E127" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="H127" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
       </c>
       <c r="J127" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K127" t="s">
-        <v>85</v>
+        <v>267</v>
       </c>
       <c r="L127" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="M127" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="N127" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="O127" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="2"/>
+      <c r="C128" t="s">
+        <v>240</v>
+      </c>
       <c r="D128" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="E128" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="H128" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
       </c>
       <c r="J128" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K128" t="s">
-        <v>108</v>
+        <v>319</v>
       </c>
       <c r="L128" t="s">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="M128" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="N128" t="s">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="O128" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
-      <c r="C129" s="2"/>
+      <c r="C129" t="s">
+        <v>240</v>
+      </c>
       <c r="D129" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="E129" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="H129" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="I129" t="s">
         <v>22</v>
       </c>
       <c r="J129" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K129" t="s">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="L129" t="s">
-        <v>86</v>
+        <v>311</v>
       </c>
       <c r="M129" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="N129" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="O129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
-      <c r="C130" s="2"/>
+      <c r="C130" t="s">
+        <v>240</v>
+      </c>
       <c r="D130" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="E130" t="s">
-        <v>718</v>
+        <v>257</v>
       </c>
       <c r="F130" t="s">
-        <v>49</v>
-      </c>
-      <c r="G130" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G130" t="s">
+        <v>354</v>
+      </c>
       <c r="H130" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="I130" t="s">
         <v>22</v>
       </c>
       <c r="J130" t="s">
-        <v>51</v>
-      </c>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K130" t="s">
+        <v>260</v>
+      </c>
+      <c r="L130" t="s">
+        <v>328</v>
+      </c>
+      <c r="M130" t="s">
+        <v>356</v>
+      </c>
       <c r="N130" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="O130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
-      <c r="C131" s="2"/>
+      <c r="C131" t="s">
+        <v>240</v>
+      </c>
       <c r="D131" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="E131" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>723</v>
+        <v>308</v>
       </c>
       <c r="H131" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="I131" t="s">
         <v>22</v>
       </c>
       <c r="J131" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K131" t="s">
-        <v>108</v>
-      </c>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="L131" t="s">
+        <v>311</v>
+      </c>
+      <c r="M131" t="s">
+        <v>312</v>
+      </c>
       <c r="N131" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="O131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -8159,10 +8476,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2">
@@ -8170,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3">
@@ -8178,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4">
@@ -8186,7 +8503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5">
@@ -8194,7 +8511,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6">
@@ -8202,7 +8519,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7">
@@ -8210,7 +8527,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8">
@@ -8218,7 +8535,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9">
@@ -8226,7 +8543,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10">
@@ -8234,7 +8551,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
     </row>
     <row r="11">
@@ -8242,7 +8559,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12">
@@ -8250,7 +8567,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13">
@@ -8258,7 +8575,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14">
@@ -8266,7 +8583,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15">
@@ -8274,7 +8591,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P01_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P01_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="770">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -78,6 +78,9 @@
     <t xml:space="preserve">agriculture</t>
   </si>
   <si>
+    <t xml:space="preserve">6000</t>
+  </si>
+  <si>
     <t xml:space="preserve">kjærsgård</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
     <t xml:space="preserve">10.0803</t>
   </si>
   <si>
+    <t xml:space="preserve">6233</t>
+  </si>
+  <si>
     <t xml:space="preserve">uggerby skovvej</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t xml:space="preserve">natural_soil</t>
   </si>
   <si>
+    <t xml:space="preserve">9911</t>
+  </si>
+  <si>
     <t xml:space="preserve">tversted plantage</t>
   </si>
   <si>
@@ -141,6 +150,9 @@
     <t xml:space="preserve">8.5608</t>
   </si>
   <si>
+    <t xml:space="preserve">9915</t>
+  </si>
+  <si>
     <t xml:space="preserve">raspkær</t>
   </si>
   <si>
@@ -174,6 +186,9 @@
     <t xml:space="preserve">8.9118</t>
   </si>
   <si>
+    <t xml:space="preserve">9990</t>
+  </si>
+  <si>
     <t xml:space="preserve">tovsigvej</t>
   </si>
   <si>
@@ -192,6 +207,9 @@
     <t xml:space="preserve">9.8509</t>
   </si>
   <si>
+    <t xml:space="preserve">9940</t>
+  </si>
+  <si>
     <t xml:space="preserve">rold</t>
   </si>
   <si>
@@ -228,6 +246,9 @@
     <t xml:space="preserve">8.3723</t>
   </si>
   <si>
+    <t xml:space="preserve">9920</t>
+  </si>
+  <si>
     <t xml:space="preserve">ejstrup krat</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t xml:space="preserve">8.2128</t>
   </si>
   <si>
+    <t xml:space="preserve">6212</t>
+  </si>
+  <si>
     <t xml:space="preserve">lønne</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t xml:space="preserve">10.5872</t>
   </si>
   <si>
+    <t xml:space="preserve">6402</t>
+  </si>
+  <si>
     <t xml:space="preserve">strandkær</t>
   </si>
   <si>
@@ -423,6 +450,9 @@
     <t xml:space="preserve">9.6931</t>
   </si>
   <si>
+    <t xml:space="preserve">7007</t>
+  </si>
+  <si>
     <t xml:space="preserve">rands fjord</t>
   </si>
   <si>
@@ -787,9 +817,6 @@
   </si>
   <si>
     <t xml:space="preserve">12.5389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9000</t>
   </si>
   <si>
     <t xml:space="preserve">lindebakker</t>
@@ -2323,17 +2350,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2353,11 +2375,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2717,29 +2738,31 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2748,37 +2771,39 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -2787,1687 +2812,1769 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>127</v>
+      </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="O20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
       <c r="N22" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
       <c r="N23" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
       <c r="N24" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="O24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
       <c r="N26" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="O26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
       <c r="H27" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
       <c r="N27" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="O27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="O28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
         <v>169</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>159</v>
-      </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
       <c r="N29" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="O29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
       <c r="H30" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
       <c r="N30" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
       <c r="N31" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
       <c r="H32" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
       <c r="N32" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="O32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
       <c r="H33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
       <c r="N33" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="O33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
       <c r="H34" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
       <c r="N34" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="O34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
       <c r="N35" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="O35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
       <c r="H36" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
       <c r="N36" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="O36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
       <c r="H37" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
       <c r="N37" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
       <c r="N38" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="O38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
         <v>224</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>214</v>
-      </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E39" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
       <c r="H39" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>36</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
       <c r="N39" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="O39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>127</v>
+      </c>
       <c r="H40" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
       <c r="N40" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="O40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E41" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
       <c r="H41" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>36</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
       <c r="N41" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="O41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
       <c r="H42" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
       <c r="N42" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="O42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>127</v>
+      </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
       <c r="N43" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="O43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
         <v>250</v>
       </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>240</v>
-      </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
       <c r="N44" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E45" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K45" t="s">
-        <v>260</v>
-      </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+        <v>269</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
       <c r="N45" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E46" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H46" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K46" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L46" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M46" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N46" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="O46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -4476,92 +4583,92 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H47" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K47" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N47" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="O47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E48" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H48" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K48" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L48" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M48" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N48" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="O48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -4570,45 +4677,45 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E49" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H49" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K49" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L49" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M49" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N49" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="O49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -4617,3847 +4724,3847 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E50" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H50" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K50" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L50" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N50" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="O50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="E51" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H51" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K51" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L51" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M51" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="N51" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="O51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E52" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H52" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K52" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L52" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M52" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N52" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="O52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E53" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H53" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K53" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L53" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N53" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="O53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E54" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H54" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K54" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L54" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M54" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N54" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="O54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E55" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H55" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K55" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M55" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="N55" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="O55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="E56" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H56" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K56" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L56" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M56" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="N56" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="O56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="E57" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H57" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K57" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L57" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M57" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N57" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="O57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E58" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H58" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K58" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L58" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N58" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="O58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E59" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H59" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K59" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L59" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M59" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="N59" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="O59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="E60" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H60" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="I60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K60" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L60" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M60" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="N60" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="O60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="E61" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H61" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K61" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L61" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M61" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="N61" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="O61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E62" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H62" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J62" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K62" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L62" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M62" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N62" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="O62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E63" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H63" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K63" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L63" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M63" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="N63" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="O63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E64" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H64" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K64" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L64" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M64" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N64" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="O64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E65" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H65" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K65" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L65" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M65" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N65" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="O65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E66" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H66" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K66" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L66" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M66" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N66" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="O66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="E67" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H67" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K67" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L67" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M67" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="N67" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="O67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E68" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H68" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K68" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L68" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M68" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N68" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="O68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E69" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H69" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J69" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K69" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L69" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M69" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N69" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="O69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E70" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H70" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J70" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K70" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L70" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M70" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N70" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="O70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E71" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H71" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K71" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L71" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M71" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N71" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="O71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D72" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="E72" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H72" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J72" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K72" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L72" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M72" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="N72" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="O72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D73" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E73" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H73" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J73" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K73" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L73" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M73" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N73" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="O73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D74" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="E74" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H74" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K74" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L74" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M74" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="N74" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="O74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E75" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H75" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K75" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L75" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M75" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N75" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="O75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E76" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H76" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J76" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K76" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L76" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M76" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N76" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="O76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="E77" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H77" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J77" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K77" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L77" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M77" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="N77" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="O77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E78" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H78" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J78" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K78" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L78" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M78" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="N78" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="O78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="E79" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H79" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J79" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K79" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L79" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M79" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="N79" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="O79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D80" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E80" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H80" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J80" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K80" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L80" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M80" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="N80" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="O80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D81" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E81" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H81" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J81" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K81" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L81" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M81" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N81" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="O81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D82" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E82" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H82" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J82" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K82" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L82" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M82" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N82" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="O82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D83" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E83" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H83" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J83" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K83" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L83" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M83" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N83" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="O83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E84" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H84" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J84" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K84" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L84" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M84" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="N84" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="O84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="E85" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H85" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J85" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K85" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L85" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M85" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="N85" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="O85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D86" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E86" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H86" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K86" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L86" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M86" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N86" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="O86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D87" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="E87" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H87" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="I87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J87" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K87" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L87" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="M87" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="N87" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="O87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E88" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H88" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J88" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K88" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L88" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M88" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N88" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="O88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E89" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H89" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J89" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K89" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L89" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M89" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="N89" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="O89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E90" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H90" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="I90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J90" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K90" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L90" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M90" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N90" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D91" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E91" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H91" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="I91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J91" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K91" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L91" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M91" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N91" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="O91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E92" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H92" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="I92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J92" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K92" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L92" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M92" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N92" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="O92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D93" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E93" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H93" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J93" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K93" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L93" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M93" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N93" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="O93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="E94" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H94" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J94" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K94" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L94" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M94" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="N94" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="O94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D95" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="E95" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H95" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J95" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K95" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L95" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M95" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="N95" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="O95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="E96" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H96" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="I96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J96" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K96" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L96" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M96" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N96" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="O96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D97" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="E97" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H97" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="I97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J97" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K97" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L97" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M97" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N97" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="O97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D98" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E98" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H98" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J98" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K98" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L98" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M98" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N98" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="O98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D99" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E99" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H99" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="I99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J99" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K99" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L99" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M99" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N99" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="O99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D100" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="E100" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H100" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="I100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J100" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K100" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L100" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M100" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N100" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="O100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D101" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="E101" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H101" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="I101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J101" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K101" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L101" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M101" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="N101" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="O101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D102" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="E102" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H102" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J102" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K102" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L102" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M102" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N102" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="O102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D103" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="E103" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H103" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="I103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J103" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K103" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L103" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M103" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N103" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="O103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D104" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="E104" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H104" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="I104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J104" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K104" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L104" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M104" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N104" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="O104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="E105" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H105" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="I105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J105" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K105" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L105" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="M105" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="N105" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="O105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="E106" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H106" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J106" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K106" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L106" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M106" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N106" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="O106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D107" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="E107" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H107" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J107" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K107" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L107" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M107" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="N107" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="O107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D108" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E108" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H108" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="I108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J108" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K108" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L108" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M108" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N108" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="O108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D109" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="E109" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H109" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="I109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J109" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K109" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L109" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M109" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N109" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="O109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D110" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="E110" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H110" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J110" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K110" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L110" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M110" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="N110" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="O110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D111" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="E111" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H111" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="I111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J111" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K111" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L111" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M111" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="N111" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="O111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D112" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="E112" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H112" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="I112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J112" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K112" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L112" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M112" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N112" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="O112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D113" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="E113" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H113" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J113" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K113" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L113" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M113" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="N113" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="O113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D114" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="E114" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H114" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="I114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J114" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K114" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L114" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M114" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N114" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="O114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D115" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="E115" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H115" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="I115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J115" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K115" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L115" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M115" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N115" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="O115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D116" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="E116" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H116" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J116" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K116" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L116" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M116" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N116" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="O116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D117" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="E117" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H117" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="I117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J117" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K117" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L117" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M117" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N117" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="O117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D118" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="E118" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H118" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="I118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J118" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K118" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L118" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M118" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N118" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="O118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D119" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="E119" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H119" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="I119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J119" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K119" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L119" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M119" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N119" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="O119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D120" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="E120" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H120" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="I120" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J120" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K120" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L120" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M120" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N120" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="O120" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D121" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="E121" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H121" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="I121" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J121" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K121" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L121" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M121" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N121" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="O121" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D122" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="E122" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H122" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="I122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J122" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K122" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L122" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M122" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N122" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="O122" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D123" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="E123" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H123" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="I123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J123" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K123" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L123" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M123" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="N123" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="O123" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D124" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="E124" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H124" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="I124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J124" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K124" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L124" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M124" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N124" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="O124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D125" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="E125" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H125" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="I125" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J125" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K125" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L125" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M125" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N125" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="O125" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D126" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="E126" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H126" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="I126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J126" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K126" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L126" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M126" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N126" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="O126" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D127" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="E127" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H127" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="I127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J127" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K127" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L127" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M127" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N127" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="O127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D128" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="E128" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H128" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="I128" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J128" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K128" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L128" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M128" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N128" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="O128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D129" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="E129" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H129" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="I129" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J129" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K129" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L129" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M129" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N129" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="O129" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D130" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H130" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="I130" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K130" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L130" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M130" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N130" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="O130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D131" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="E131" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H131" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="I131" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J131" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K131" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L131" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M131" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N131" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="O131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -8476,10 +8583,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2">
@@ -8487,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3">
@@ -8495,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4">
@@ -8503,7 +8610,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5">
@@ -8511,7 +8618,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6">
@@ -8519,7 +8626,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7">
@@ -8527,7 +8634,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8">
@@ -8535,7 +8642,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9">
@@ -8543,7 +8650,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10">
@@ -8551,7 +8658,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11">
@@ -8559,7 +8666,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
     </row>
     <row r="12">
@@ -8567,7 +8674,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13">
@@ -8575,7 +8682,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14">
@@ -8583,7 +8690,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
     </row>
     <row r="15">
@@ -8591,7 +8698,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P01_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P01_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="758">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -129,12 +129,33 @@
     <t xml:space="preserve">NV9</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lild strand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate heath and scrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT11</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00257</t>
   </si>
   <si>
-    <t xml:space="preserve">2014-11-16</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.0374</t>
   </si>
   <si>
@@ -216,6 +237,24 @@
     <t xml:space="preserve">VU29</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lilleå</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU30</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00277</t>
   </si>
   <si>
@@ -312,12 +351,27 @@
     <t xml:space="preserve">VO43</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.1731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helm hede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VD45</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00297</t>
   </si>
   <si>
-    <t xml:space="preserve">2014-11-06</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.1847</t>
   </si>
   <si>
@@ -378,12 +432,27 @@
     <t xml:space="preserve">EM60</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urfuglebakken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES62</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00313</t>
   </si>
   <si>
-    <t xml:space="preserve">2014-10-18</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1672</t>
   </si>
   <si>
@@ -537,12 +606,27 @@
     <t xml:space="preserve">SN87</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skamlebæk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV93</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00340</t>
   </si>
   <si>
-    <t xml:space="preserve">2014-10-23</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.7407</t>
   </si>
   <si>
@@ -732,12 +816,27 @@
     <t xml:space="preserve">FL120</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ulvshale hede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM123</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00369</t>
   </si>
   <si>
-    <t xml:space="preserve">2014-10-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.9675</t>
   </si>
   <si>
@@ -957,33 +1056,6 @@
     <t xml:space="preserve">NT10</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.1445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lild strand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heath and scrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperate heath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wet heath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT11</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00258</t>
   </si>
   <si>
@@ -1245,27 +1317,6 @@
     <t xml:space="preserve">VU28</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lilleå</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry heath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU30</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00276</t>
   </si>
   <si>
@@ -1395,21 +1446,6 @@
     <t xml:space="preserve">VD44</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.1731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helm hede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VD45</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00291</t>
   </si>
   <si>
@@ -1605,21 +1641,6 @@
     <t xml:space="preserve">EM61</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urfuglebakken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES62</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00308</t>
   </si>
   <si>
@@ -1923,21 +1944,6 @@
     <t xml:space="preserve">SV92</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skamlebæk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV93</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00339</t>
   </si>
   <si>
@@ -2191,21 +2197,6 @@
   </si>
   <si>
     <t xml:space="preserve">FM122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ulvshale hede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM123</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00371</t>
@@ -2834,9 +2825,11 @@
       <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -2844,11 +2837,13 @@
       <c r="J5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
@@ -2856,26 +2851,26 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -2887,7 +2882,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
@@ -2895,26 +2890,26 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -2926,7 +2921,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
@@ -2934,26 +2929,26 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -2965,7 +2960,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
@@ -2973,38 +2968,38 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
@@ -3012,38 +3007,38 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
@@ -3051,26 +3046,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -3078,11 +3075,13 @@
       <c r="J11" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
         <v>25</v>
@@ -3090,26 +3089,26 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -3121,7 +3120,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -3129,26 +3128,26 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
@@ -3160,7 +3159,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O13" t="s">
         <v>25</v>
@@ -3168,38 +3167,38 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O14" t="s">
         <v>25</v>
@@ -3207,26 +3206,26 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
@@ -3238,7 +3237,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O15" t="s">
         <v>25</v>
@@ -3246,38 +3245,38 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
         <v>25</v>
@@ -3285,38 +3284,38 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
         <v>25</v>
@@ -3324,26 +3323,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -3351,11 +3352,13 @@
       <c r="J18" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O18" t="s">
         <v>25</v>
@@ -3363,26 +3366,26 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
@@ -3394,7 +3397,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O19" t="s">
         <v>25</v>
@@ -3402,38 +3405,38 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O20" t="s">
         <v>25</v>
@@ -3441,38 +3444,38 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O21" t="s">
         <v>25</v>
@@ -3480,26 +3483,26 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
@@ -3511,7 +3514,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O22" t="s">
         <v>25</v>
@@ -3519,26 +3522,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -3546,11 +3551,13 @@
       <c r="J23" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O23" t="s">
         <v>25</v>
@@ -3558,26 +3565,26 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -3589,7 +3596,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O24" t="s">
         <v>25</v>
@@ -3597,38 +3604,38 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O25" t="s">
         <v>25</v>
@@ -3636,26 +3643,26 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I26" t="s">
         <v>22</v>
@@ -3667,7 +3674,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O26" t="s">
         <v>25</v>
@@ -3675,26 +3682,26 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
@@ -3706,7 +3713,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O27" t="s">
         <v>25</v>
@@ -3714,26 +3721,26 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
@@ -3745,7 +3752,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O28" t="s">
         <v>25</v>
@@ -3753,26 +3760,26 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -3784,7 +3791,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O29" t="s">
         <v>25</v>
@@ -3792,26 +3799,26 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -3823,7 +3830,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O30" t="s">
         <v>25</v>
@@ -3831,26 +3838,26 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
@@ -3862,7 +3869,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O31" t="s">
         <v>25</v>
@@ -3870,13 +3877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
         <v>188</v>
@@ -3915,7 +3922,7 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
         <v>193</v>
@@ -3924,7 +3931,7 @@
         <v>194</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
@@ -3934,7 +3941,7 @@
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3954,32 +3961,36 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
       <c r="H34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O34" t="s">
         <v>25</v>
@@ -3987,13 +3998,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
         <v>204</v>
@@ -4032,20 +4043,20 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -4057,7 +4068,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O36" t="s">
         <v>25</v>
@@ -4065,26 +4076,26 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
@@ -4096,7 +4107,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O37" t="s">
         <v>25</v>
@@ -4104,26 +4115,26 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -4135,7 +4146,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O38" t="s">
         <v>25</v>
@@ -4143,38 +4154,38 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I39" t="s">
         <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O39" t="s">
         <v>25</v>
@@ -4182,26 +4193,26 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
@@ -4213,7 +4224,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O40" t="s">
         <v>25</v>
@@ -4221,26 +4232,26 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E41" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F41" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -4252,7 +4263,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O41" t="s">
         <v>25</v>
@@ -4260,26 +4271,26 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E42" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
@@ -4291,7 +4302,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O42" t="s">
         <v>25</v>
@@ -4299,38 +4310,38 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O43" t="s">
         <v>25</v>
@@ -4338,38 +4349,38 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O44" t="s">
         <v>25</v>
@@ -4377,28 +4388,26 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E45" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
       </c>
-      <c r="G45" t="s">
-        <v>258</v>
-      </c>
+      <c r="G45" s="2"/>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -4406,9 +4415,7 @@
       <c r="J45" t="s">
         <v>36</v>
       </c>
-      <c r="K45" t="s">
-        <v>260</v>
-      </c>
+      <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" t="s">
@@ -4426,7 +4433,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="D46" t="s">
         <v>263</v>
@@ -4437,29 +4444,21 @@
       <c r="F46" t="s">
         <v>34</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2"/>
+      <c r="H46" t="s">
         <v>265</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" t="s">
         <v>266</v>
-      </c>
-      <c r="I46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46" t="s">
-        <v>267</v>
-      </c>
-      <c r="L46" t="s">
-        <v>268</v>
-      </c>
-      <c r="M46" t="s">
-        <v>269</v>
-      </c>
-      <c r="N46" t="s">
-        <v>270</v>
       </c>
       <c r="O46" t="s">
         <v>25</v>
@@ -4467,46 +4466,42 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s">
         <v>271</v>
       </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" t="s">
         <v>272</v>
-      </c>
-      <c r="E47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" t="s">
-        <v>274</v>
-      </c>
-      <c r="H47" t="s">
-        <v>275</v>
-      </c>
-      <c r="I47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" t="s">
-        <v>36</v>
-      </c>
-      <c r="K47" t="s">
-        <v>276</v>
-      </c>
-      <c r="L47" t="s">
-        <v>277</v>
-      </c>
-      <c r="M47" t="s">
-        <v>278</v>
-      </c>
-      <c r="N47" t="s">
-        <v>279</v>
       </c>
       <c r="O47" t="s">
         <v>25</v>
@@ -4514,28 +4509,26 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="D48" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E48" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s">
         <v>34</v>
       </c>
-      <c r="G48" t="s">
-        <v>283</v>
-      </c>
+      <c r="G48" s="2"/>
       <c r="H48" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -4543,17 +4536,11 @@
       <c r="J48" t="s">
         <v>36</v>
       </c>
-      <c r="K48" t="s">
-        <v>276</v>
-      </c>
-      <c r="L48" t="s">
-        <v>285</v>
-      </c>
-      <c r="M48" t="s">
-        <v>286</v>
-      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
       <c r="N48" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="O48" t="s">
         <v>25</v>
@@ -4561,28 +4548,26 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="D49" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E49" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
       </c>
-      <c r="G49" t="s">
-        <v>274</v>
-      </c>
+      <c r="G49" s="2"/>
       <c r="H49" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
@@ -4590,17 +4575,11 @@
       <c r="J49" t="s">
         <v>36</v>
       </c>
-      <c r="K49" t="s">
-        <v>276</v>
-      </c>
-      <c r="L49" t="s">
-        <v>277</v>
-      </c>
-      <c r="M49" t="s">
-        <v>278</v>
-      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
       <c r="N49" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="O49" t="s">
         <v>25</v>
@@ -4608,46 +4587,38 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="D50" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E50" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" t="s">
-        <v>274</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" s="2"/>
       <c r="H50" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
-      </c>
-      <c r="K50" t="s">
-        <v>276</v>
-      </c>
-      <c r="L50" t="s">
-        <v>277</v>
-      </c>
-      <c r="M50" t="s">
-        <v>278</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
       <c r="N50" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="O50" t="s">
         <v>25</v>
@@ -4655,28 +4626,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="D51" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E51" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H51" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
@@ -4685,16 +4656,12 @@
         <v>36</v>
       </c>
       <c r="K51" t="s">
-        <v>267</v>
-      </c>
-      <c r="L51" t="s">
-        <v>268</v>
-      </c>
-      <c r="M51" t="s">
-        <v>303</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
       <c r="N51" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="O51" t="s">
         <v>25</v>
@@ -4702,28 +4669,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E52" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H52" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
@@ -4732,16 +4699,16 @@
         <v>36</v>
       </c>
       <c r="K52" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L52" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M52" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="N52" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="O52" t="s">
         <v>25</v>
@@ -4749,28 +4716,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E53" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H53" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
@@ -4779,16 +4746,16 @@
         <v>36</v>
       </c>
       <c r="K53" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="L53" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="M53" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="N53" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="O53" t="s">
         <v>25</v>
@@ -4796,28 +4763,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E54" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F54" t="s">
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="H54" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I54" t="s">
         <v>22</v>
@@ -4826,16 +4793,16 @@
         <v>36</v>
       </c>
       <c r="K54" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="L54" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M54" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="N54" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="O54" t="s">
         <v>25</v>
@@ -4843,28 +4810,28 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E55" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="H55" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I55" t="s">
         <v>22</v>
@@ -4873,16 +4840,16 @@
         <v>36</v>
       </c>
       <c r="K55" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="L55" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="M55" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="N55" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="O55" t="s">
         <v>25</v>
@@ -4890,28 +4857,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E56" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="H56" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -4920,16 +4887,16 @@
         <v>36</v>
       </c>
       <c r="K56" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="L56" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="M56" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="N56" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="O56" t="s">
         <v>25</v>
@@ -4937,28 +4904,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E57" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="H57" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="I57" t="s">
         <v>22</v>
@@ -4967,16 +4934,16 @@
         <v>36</v>
       </c>
       <c r="K57" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L57" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="M57" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="N57" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="O57" t="s">
         <v>25</v>
@@ -4984,28 +4951,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="E58" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="F58" t="s">
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="H58" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
@@ -5014,16 +4981,16 @@
         <v>36</v>
       </c>
       <c r="K58" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="L58" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="M58" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="N58" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="O58" t="s">
         <v>25</v>
@@ -5031,28 +4998,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E59" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H59" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -5061,16 +5028,16 @@
         <v>36</v>
       </c>
       <c r="K59" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="L59" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M59" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="N59" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="O59" t="s">
         <v>25</v>
@@ -5078,28 +5045,28 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E60" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H60" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -5108,16 +5075,16 @@
         <v>36</v>
       </c>
       <c r="K60" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="L60" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="M60" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="N60" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="O60" t="s">
         <v>25</v>
@@ -5125,28 +5092,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E61" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F61" t="s">
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H61" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -5155,16 +5122,16 @@
         <v>36</v>
       </c>
       <c r="K61" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="L61" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="M61" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="N61" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="O61" t="s">
         <v>25</v>
@@ -5172,28 +5139,28 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E62" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F62" t="s">
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H62" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
@@ -5202,16 +5169,16 @@
         <v>36</v>
       </c>
       <c r="K62" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="L62" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="M62" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="N62" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="O62" t="s">
         <v>25</v>
@@ -5219,28 +5186,28 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E63" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F63" t="s">
         <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H63" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
@@ -5249,16 +5216,16 @@
         <v>36</v>
       </c>
       <c r="K63" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="L63" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="M63" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="N63" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="O63" t="s">
         <v>25</v>
@@ -5266,28 +5233,28 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E64" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F64" t="s">
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c r="H64" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -5296,16 +5263,16 @@
         <v>36</v>
       </c>
       <c r="K64" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="L64" t="s">
-        <v>277</v>
+        <v>352</v>
       </c>
       <c r="M64" t="s">
-        <v>278</v>
+        <v>387</v>
       </c>
       <c r="N64" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="O64" t="s">
         <v>25</v>
@@ -5313,28 +5280,28 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E65" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F65" t="s">
         <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>265</v>
+        <v>392</v>
       </c>
       <c r="H65" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
@@ -5343,16 +5310,16 @@
         <v>36</v>
       </c>
       <c r="K65" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L65" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="M65" t="s">
-        <v>269</v>
+        <v>394</v>
       </c>
       <c r="N65" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="O65" t="s">
         <v>25</v>
@@ -5360,28 +5327,28 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E66" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F66" t="s">
         <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="H66" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
@@ -5390,16 +5357,16 @@
         <v>36</v>
       </c>
       <c r="K66" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="L66" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="M66" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="N66" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="O66" t="s">
         <v>25</v>
@@ -5407,28 +5374,28 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E67" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F67" t="s">
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="H67" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -5437,16 +5404,16 @@
         <v>36</v>
       </c>
       <c r="K67" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="L67" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="M67" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="N67" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="O67" t="s">
         <v>25</v>
@@ -5454,28 +5421,28 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>409</v>
       </c>
       <c r="E68" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F68" t="s">
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>274</v>
+        <v>411</v>
       </c>
       <c r="H68" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I68" t="s">
         <v>22</v>
@@ -5484,16 +5451,16 @@
         <v>36</v>
       </c>
       <c r="K68" t="s">
-        <v>276</v>
+        <v>413</v>
       </c>
       <c r="L68" t="s">
-        <v>277</v>
+        <v>414</v>
       </c>
       <c r="M68" t="s">
-        <v>278</v>
+        <v>415</v>
       </c>
       <c r="N68" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="O68" t="s">
         <v>25</v>
@@ -5501,46 +5468,46 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>417</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>418</v>
+      </c>
+      <c r="E69" t="s">
+        <v>419</v>
+      </c>
+      <c r="F69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
+        <v>307</v>
+      </c>
+      <c r="H69" t="s">
+        <v>420</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>36</v>
+      </c>
+      <c r="K69" t="s">
+        <v>309</v>
+      </c>
+      <c r="L69" t="s">
+        <v>310</v>
+      </c>
+      <c r="M69" t="s">
+        <v>311</v>
+      </c>
+      <c r="N69" t="s">
         <v>421</v>
-      </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" t="s">
-        <v>422</v>
-      </c>
-      <c r="E69" t="s">
-        <v>423</v>
-      </c>
-      <c r="F69" t="s">
-        <v>34</v>
-      </c>
-      <c r="G69" t="s">
-        <v>346</v>
-      </c>
-      <c r="H69" t="s">
-        <v>424</v>
-      </c>
-      <c r="I69" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69" t="s">
-        <v>36</v>
-      </c>
-      <c r="K69" t="s">
-        <v>310</v>
-      </c>
-      <c r="L69" t="s">
-        <v>348</v>
-      </c>
-      <c r="M69" t="s">
-        <v>349</v>
-      </c>
-      <c r="N69" t="s">
-        <v>425</v>
       </c>
       <c r="O69" t="s">
         <v>25</v>
@@ -5548,46 +5515,46 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>422</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
+        <v>423</v>
+      </c>
+      <c r="E70" t="s">
+        <v>424</v>
+      </c>
+      <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
+        <v>298</v>
+      </c>
+      <c r="H70" t="s">
+        <v>425</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" t="s">
+        <v>300</v>
+      </c>
+      <c r="L70" t="s">
+        <v>301</v>
+      </c>
+      <c r="M70" t="s">
+        <v>302</v>
+      </c>
+      <c r="N70" t="s">
         <v>426</v>
-      </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" t="s">
-        <v>427</v>
-      </c>
-      <c r="E70" t="s">
-        <v>428</v>
-      </c>
-      <c r="F70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>406</v>
-      </c>
-      <c r="H70" t="s">
-        <v>429</v>
-      </c>
-      <c r="I70" t="s">
-        <v>22</v>
-      </c>
-      <c r="J70" t="s">
-        <v>36</v>
-      </c>
-      <c r="K70" t="s">
-        <v>276</v>
-      </c>
-      <c r="L70" t="s">
-        <v>285</v>
-      </c>
-      <c r="M70" t="s">
-        <v>408</v>
-      </c>
-      <c r="N70" t="s">
-        <v>430</v>
       </c>
       <c r="O70" t="s">
         <v>25</v>
@@ -5595,46 +5562,46 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>427</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" t="s">
+        <v>428</v>
+      </c>
+      <c r="E71" t="s">
+        <v>429</v>
+      </c>
+      <c r="F71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" t="s">
+        <v>430</v>
+      </c>
+      <c r="H71" t="s">
         <v>431</v>
       </c>
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71" t="s">
+        <v>309</v>
+      </c>
+      <c r="L71" t="s">
+        <v>318</v>
+      </c>
+      <c r="M71" t="s">
         <v>432</v>
       </c>
-      <c r="E71" t="s">
+      <c r="N71" t="s">
         <v>433</v>
-      </c>
-      <c r="F71" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" t="s">
-        <v>274</v>
-      </c>
-      <c r="H71" t="s">
-        <v>434</v>
-      </c>
-      <c r="I71" t="s">
-        <v>22</v>
-      </c>
-      <c r="J71" t="s">
-        <v>36</v>
-      </c>
-      <c r="K71" t="s">
-        <v>276</v>
-      </c>
-      <c r="L71" t="s">
-        <v>277</v>
-      </c>
-      <c r="M71" t="s">
-        <v>278</v>
-      </c>
-      <c r="N71" t="s">
-        <v>435</v>
       </c>
       <c r="O71" t="s">
         <v>25</v>
@@ -5642,46 +5609,46 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>434</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" t="s">
+        <v>435</v>
+      </c>
+      <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
+        <v>307</v>
+      </c>
+      <c r="H72" t="s">
         <v>436</v>
       </c>
-      <c r="B72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>36</v>
+      </c>
+      <c r="K72" t="s">
+        <v>309</v>
+      </c>
+      <c r="L72" t="s">
+        <v>310</v>
+      </c>
+      <c r="M72" t="s">
+        <v>311</v>
+      </c>
+      <c r="N72" t="s">
         <v>437</v>
-      </c>
-      <c r="E72" t="s">
-        <v>438</v>
-      </c>
-      <c r="F72" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" t="s">
-        <v>439</v>
-      </c>
-      <c r="H72" t="s">
-        <v>440</v>
-      </c>
-      <c r="I72" t="s">
-        <v>22</v>
-      </c>
-      <c r="J72" t="s">
-        <v>36</v>
-      </c>
-      <c r="K72" t="s">
-        <v>260</v>
-      </c>
-      <c r="L72" t="s">
-        <v>328</v>
-      </c>
-      <c r="M72" t="s">
-        <v>441</v>
-      </c>
-      <c r="N72" t="s">
-        <v>442</v>
       </c>
       <c r="O72" t="s">
         <v>25</v>
@@ -5689,28 +5656,28 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D73" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E73" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F73" t="s">
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>265</v>
+        <v>370</v>
       </c>
       <c r="H73" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -5719,16 +5686,16 @@
         <v>36</v>
       </c>
       <c r="K73" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="L73" t="s">
-        <v>268</v>
+        <v>372</v>
       </c>
       <c r="M73" t="s">
-        <v>269</v>
+        <v>373</v>
       </c>
       <c r="N73" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="O73" t="s">
         <v>25</v>
@@ -5736,28 +5703,28 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E74" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F74" t="s">
         <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
       <c r="H74" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
@@ -5766,16 +5733,16 @@
         <v>36</v>
       </c>
       <c r="K74" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="L74" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="M74" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="N74" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O74" t="s">
         <v>25</v>
@@ -5783,28 +5750,28 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E75" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F75" t="s">
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>456</v>
+        <v>307</v>
       </c>
       <c r="H75" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -5813,16 +5780,16 @@
         <v>36</v>
       </c>
       <c r="K75" t="s">
+        <v>309</v>
+      </c>
+      <c r="L75" t="s">
         <v>310</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>311</v>
       </c>
-      <c r="M75" t="s">
-        <v>458</v>
-      </c>
       <c r="N75" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="O75" t="s">
         <v>25</v>
@@ -5830,28 +5797,28 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E76" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F76" t="s">
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>317</v>
+        <v>456</v>
       </c>
       <c r="H76" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -5860,16 +5827,16 @@
         <v>36</v>
       </c>
       <c r="K76" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="L76" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="M76" t="s">
-        <v>321</v>
+        <v>458</v>
       </c>
       <c r="N76" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="O76" t="s">
         <v>25</v>
@@ -5877,28 +5844,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E77" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F77" t="s">
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="H77" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
@@ -5907,16 +5874,16 @@
         <v>36</v>
       </c>
       <c r="K77" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="L77" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="M77" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="N77" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="O77" t="s">
         <v>25</v>
@@ -5924,28 +5891,28 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E78" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F78" t="s">
         <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>439</v>
+        <v>358</v>
       </c>
       <c r="H78" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -5954,16 +5921,16 @@
         <v>36</v>
       </c>
       <c r="K78" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="L78" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="M78" t="s">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="N78" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="O78" t="s">
         <v>25</v>
@@ -5971,46 +5938,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>470</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" t="s">
+        <v>472</v>
+      </c>
+      <c r="F79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" t="s">
+        <v>473</v>
+      </c>
+      <c r="H79" t="s">
+        <v>474</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" t="s">
+        <v>343</v>
+      </c>
+      <c r="L79" t="s">
+        <v>344</v>
+      </c>
+      <c r="M79" t="s">
         <v>475</v>
       </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="N79" t="s">
         <v>476</v>
-      </c>
-      <c r="E79" t="s">
-        <v>477</v>
-      </c>
-      <c r="F79" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" t="s">
-        <v>478</v>
-      </c>
-      <c r="H79" t="s">
-        <v>479</v>
-      </c>
-      <c r="I79" t="s">
-        <v>22</v>
-      </c>
-      <c r="J79" t="s">
-        <v>36</v>
-      </c>
-      <c r="K79" t="s">
-        <v>260</v>
-      </c>
-      <c r="L79" t="s">
-        <v>328</v>
-      </c>
-      <c r="M79" t="s">
-        <v>480</v>
-      </c>
-      <c r="N79" t="s">
-        <v>481</v>
       </c>
       <c r="O79" t="s">
         <v>25</v>
@@ -6018,28 +5985,28 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E80" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F80" t="s">
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="H80" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
@@ -6048,16 +6015,16 @@
         <v>36</v>
       </c>
       <c r="K80" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="L80" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M80" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="N80" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="O80" t="s">
         <v>25</v>
@@ -6065,28 +6032,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E81" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F81" t="s">
         <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>326</v>
+        <v>456</v>
       </c>
       <c r="H81" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
@@ -6095,16 +6062,16 @@
         <v>36</v>
       </c>
       <c r="K81" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="L81" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M81" t="s">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="N81" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="O81" t="s">
         <v>25</v>
@@ -6112,46 +6079,46 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>487</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" t="s">
+        <v>488</v>
+      </c>
+      <c r="E82" t="s">
+        <v>489</v>
+      </c>
+      <c r="F82" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" t="s">
+        <v>490</v>
+      </c>
+      <c r="H82" t="s">
+        <v>491</v>
+      </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" t="s">
+        <v>293</v>
+      </c>
+      <c r="L82" t="s">
+        <v>352</v>
+      </c>
+      <c r="M82" t="s">
         <v>492</v>
       </c>
-      <c r="B82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" t="s">
-        <v>100</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="N82" t="s">
         <v>493</v>
-      </c>
-      <c r="E82" t="s">
-        <v>494</v>
-      </c>
-      <c r="F82" t="s">
-        <v>34</v>
-      </c>
-      <c r="G82" t="s">
-        <v>380</v>
-      </c>
-      <c r="H82" t="s">
-        <v>495</v>
-      </c>
-      <c r="I82" t="s">
-        <v>22</v>
-      </c>
-      <c r="J82" t="s">
-        <v>36</v>
-      </c>
-      <c r="K82" t="s">
-        <v>260</v>
-      </c>
-      <c r="L82" t="s">
-        <v>328</v>
-      </c>
-      <c r="M82" t="s">
-        <v>382</v>
-      </c>
-      <c r="N82" t="s">
-        <v>496</v>
       </c>
       <c r="O82" t="s">
         <v>25</v>
@@ -6159,46 +6126,46 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>494</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" t="s">
+        <v>495</v>
+      </c>
+      <c r="E83" t="s">
+        <v>496</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
+        <v>392</v>
+      </c>
+      <c r="H83" t="s">
         <v>497</v>
       </c>
-      <c r="B83" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" t="s">
-        <v>106</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="I83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>36</v>
+      </c>
+      <c r="K83" t="s">
+        <v>293</v>
+      </c>
+      <c r="L83" t="s">
+        <v>352</v>
+      </c>
+      <c r="M83" t="s">
+        <v>394</v>
+      </c>
+      <c r="N83" t="s">
         <v>498</v>
-      </c>
-      <c r="E83" t="s">
-        <v>499</v>
-      </c>
-      <c r="F83" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" t="s">
-        <v>456</v>
-      </c>
-      <c r="H83" t="s">
-        <v>500</v>
-      </c>
-      <c r="I83" t="s">
-        <v>22</v>
-      </c>
-      <c r="J83" t="s">
-        <v>36</v>
-      </c>
-      <c r="K83" t="s">
-        <v>310</v>
-      </c>
-      <c r="L83" t="s">
-        <v>311</v>
-      </c>
-      <c r="M83" t="s">
-        <v>458</v>
-      </c>
-      <c r="N83" t="s">
-        <v>501</v>
       </c>
       <c r="O83" t="s">
         <v>25</v>
@@ -6206,46 +6173,46 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>499</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" t="s">
+        <v>500</v>
+      </c>
+      <c r="E84" t="s">
+        <v>501</v>
+      </c>
+      <c r="F84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
+        <v>350</v>
+      </c>
+      <c r="H84" t="s">
         <v>502</v>
       </c>
-      <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" t="s">
-        <v>106</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="I84" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>36</v>
+      </c>
+      <c r="K84" t="s">
+        <v>293</v>
+      </c>
+      <c r="L84" t="s">
+        <v>352</v>
+      </c>
+      <c r="M84" t="s">
+        <v>353</v>
+      </c>
+      <c r="N84" t="s">
         <v>503</v>
-      </c>
-      <c r="E84" t="s">
-        <v>504</v>
-      </c>
-      <c r="F84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G84" t="s">
-        <v>387</v>
-      </c>
-      <c r="H84" t="s">
-        <v>505</v>
-      </c>
-      <c r="I84" t="s">
-        <v>22</v>
-      </c>
-      <c r="J84" t="s">
-        <v>36</v>
-      </c>
-      <c r="K84" t="s">
-        <v>389</v>
-      </c>
-      <c r="L84" t="s">
-        <v>390</v>
-      </c>
-      <c r="M84" t="s">
-        <v>391</v>
-      </c>
-      <c r="N84" t="s">
-        <v>506</v>
       </c>
       <c r="O84" t="s">
         <v>25</v>
@@ -6253,46 +6220,46 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>504</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" t="s">
+        <v>505</v>
+      </c>
+      <c r="E85" t="s">
+        <v>506</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" t="s">
+        <v>404</v>
+      </c>
+      <c r="H85" t="s">
         <v>507</v>
       </c>
-      <c r="B85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="I85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>36</v>
+      </c>
+      <c r="K85" t="s">
+        <v>293</v>
+      </c>
+      <c r="L85" t="s">
+        <v>352</v>
+      </c>
+      <c r="M85" t="s">
+        <v>406</v>
+      </c>
+      <c r="N85" t="s">
         <v>508</v>
-      </c>
-      <c r="E85" t="s">
-        <v>509</v>
-      </c>
-      <c r="F85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" t="s">
-        <v>478</v>
-      </c>
-      <c r="H85" t="s">
-        <v>510</v>
-      </c>
-      <c r="I85" t="s">
-        <v>22</v>
-      </c>
-      <c r="J85" t="s">
-        <v>36</v>
-      </c>
-      <c r="K85" t="s">
-        <v>260</v>
-      </c>
-      <c r="L85" t="s">
-        <v>328</v>
-      </c>
-      <c r="M85" t="s">
-        <v>480</v>
-      </c>
-      <c r="N85" t="s">
-        <v>511</v>
       </c>
       <c r="O85" t="s">
         <v>25</v>
@@ -6300,46 +6267,46 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>509</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" t="s">
+        <v>510</v>
+      </c>
+      <c r="E86" t="s">
+        <v>511</v>
+      </c>
+      <c r="F86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
+        <v>473</v>
+      </c>
+      <c r="H86" t="s">
         <v>512</v>
       </c>
-      <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="I86" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" t="s">
+        <v>36</v>
+      </c>
+      <c r="K86" t="s">
+        <v>343</v>
+      </c>
+      <c r="L86" t="s">
+        <v>344</v>
+      </c>
+      <c r="M86" t="s">
+        <v>475</v>
+      </c>
+      <c r="N86" t="s">
         <v>513</v>
-      </c>
-      <c r="E86" t="s">
-        <v>514</v>
-      </c>
-      <c r="F86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" t="s">
-        <v>456</v>
-      </c>
-      <c r="H86" t="s">
-        <v>515</v>
-      </c>
-      <c r="I86" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" t="s">
-        <v>36</v>
-      </c>
-      <c r="K86" t="s">
-        <v>310</v>
-      </c>
-      <c r="L86" t="s">
-        <v>311</v>
-      </c>
-      <c r="M86" t="s">
-        <v>458</v>
-      </c>
-      <c r="N86" t="s">
-        <v>516</v>
       </c>
       <c r="O86" t="s">
         <v>25</v>
@@ -6347,46 +6314,46 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>514</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" t="s">
+        <v>515</v>
+      </c>
+      <c r="E87" t="s">
+        <v>516</v>
+      </c>
+      <c r="F87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" t="s">
+        <v>411</v>
+      </c>
+      <c r="H87" t="s">
         <v>517</v>
       </c>
-      <c r="B87" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" t="s">
-        <v>106</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="I87" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" t="s">
+        <v>413</v>
+      </c>
+      <c r="L87" t="s">
+        <v>414</v>
+      </c>
+      <c r="M87" t="s">
+        <v>415</v>
+      </c>
+      <c r="N87" t="s">
         <v>518</v>
-      </c>
-      <c r="E87" t="s">
-        <v>519</v>
-      </c>
-      <c r="F87" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" t="s">
-        <v>520</v>
-      </c>
-      <c r="H87" t="s">
-        <v>521</v>
-      </c>
-      <c r="I87" t="s">
-        <v>22</v>
-      </c>
-      <c r="J87" t="s">
-        <v>36</v>
-      </c>
-      <c r="K87" t="s">
-        <v>310</v>
-      </c>
-      <c r="L87" t="s">
-        <v>522</v>
-      </c>
-      <c r="M87" t="s">
-        <v>523</v>
-      </c>
-      <c r="N87" t="s">
-        <v>524</v>
       </c>
       <c r="O87" t="s">
         <v>25</v>
@@ -6394,28 +6361,28 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E88" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F88" t="s">
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>406</v>
+        <v>490</v>
       </c>
       <c r="H88" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -6424,16 +6391,16 @@
         <v>36</v>
       </c>
       <c r="K88" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="L88" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="M88" t="s">
-        <v>408</v>
+        <v>492</v>
       </c>
       <c r="N88" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="O88" t="s">
         <v>25</v>
@@ -6441,28 +6408,28 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E89" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F89" t="s">
         <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="H89" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -6471,16 +6438,16 @@
         <v>36</v>
       </c>
       <c r="K89" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="L89" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="M89" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="N89" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="O89" t="s">
         <v>25</v>
@@ -6488,46 +6455,46 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>529</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" t="s">
+        <v>530</v>
+      </c>
+      <c r="E90" t="s">
+        <v>531</v>
+      </c>
+      <c r="F90" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" t="s">
+        <v>532</v>
+      </c>
+      <c r="H90" t="s">
+        <v>533</v>
+      </c>
+      <c r="I90" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" t="s">
+        <v>36</v>
+      </c>
+      <c r="K90" t="s">
+        <v>343</v>
+      </c>
+      <c r="L90" t="s">
+        <v>534</v>
+      </c>
+      <c r="M90" t="s">
         <v>535</v>
       </c>
-      <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" t="s">
-        <v>122</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="N90" t="s">
         <v>536</v>
-      </c>
-      <c r="E90" t="s">
-        <v>537</v>
-      </c>
-      <c r="F90" t="s">
-        <v>34</v>
-      </c>
-      <c r="G90" t="s">
-        <v>406</v>
-      </c>
-      <c r="H90" t="s">
-        <v>538</v>
-      </c>
-      <c r="I90" t="s">
-        <v>22</v>
-      </c>
-      <c r="J90" t="s">
-        <v>36</v>
-      </c>
-      <c r="K90" t="s">
-        <v>276</v>
-      </c>
-      <c r="L90" t="s">
-        <v>285</v>
-      </c>
-      <c r="M90" t="s">
-        <v>408</v>
-      </c>
-      <c r="N90" t="s">
-        <v>539</v>
       </c>
       <c r="O90" t="s">
         <v>25</v>
@@ -6535,46 +6502,46 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>537</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" t="s">
+        <v>538</v>
+      </c>
+      <c r="E91" t="s">
+        <v>539</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" t="s">
+        <v>430</v>
+      </c>
+      <c r="H91" t="s">
         <v>540</v>
       </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" t="s">
+        <v>36</v>
+      </c>
+      <c r="K91" t="s">
+        <v>309</v>
+      </c>
+      <c r="L91" t="s">
+        <v>318</v>
+      </c>
+      <c r="M91" t="s">
+        <v>432</v>
+      </c>
+      <c r="N91" t="s">
         <v>541</v>
-      </c>
-      <c r="D91" t="s">
-        <v>542</v>
-      </c>
-      <c r="E91" t="s">
-        <v>543</v>
-      </c>
-      <c r="F91" t="s">
-        <v>34</v>
-      </c>
-      <c r="G91" t="s">
-        <v>346</v>
-      </c>
-      <c r="H91" t="s">
-        <v>544</v>
-      </c>
-      <c r="I91" t="s">
-        <v>22</v>
-      </c>
-      <c r="J91" t="s">
-        <v>36</v>
-      </c>
-      <c r="K91" t="s">
-        <v>310</v>
-      </c>
-      <c r="L91" t="s">
-        <v>348</v>
-      </c>
-      <c r="M91" t="s">
-        <v>349</v>
-      </c>
-      <c r="N91" t="s">
-        <v>545</v>
       </c>
       <c r="O91" t="s">
         <v>25</v>
@@ -6582,46 +6549,46 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>542</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" t="s">
+        <v>543</v>
+      </c>
+      <c r="E92" t="s">
+        <v>544</v>
+      </c>
+      <c r="F92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" t="s">
+        <v>430</v>
+      </c>
+      <c r="H92" t="s">
+        <v>545</v>
+      </c>
+      <c r="I92" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" t="s">
+        <v>36</v>
+      </c>
+      <c r="K92" t="s">
+        <v>309</v>
+      </c>
+      <c r="L92" t="s">
+        <v>318</v>
+      </c>
+      <c r="M92" t="s">
+        <v>432</v>
+      </c>
+      <c r="N92" t="s">
         <v>546</v>
-      </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" t="s">
-        <v>547</v>
-      </c>
-      <c r="E92" t="s">
-        <v>548</v>
-      </c>
-      <c r="F92" t="s">
-        <v>34</v>
-      </c>
-      <c r="G92" t="s">
-        <v>283</v>
-      </c>
-      <c r="H92" t="s">
-        <v>549</v>
-      </c>
-      <c r="I92" t="s">
-        <v>22</v>
-      </c>
-      <c r="J92" t="s">
-        <v>36</v>
-      </c>
-      <c r="K92" t="s">
-        <v>276</v>
-      </c>
-      <c r="L92" t="s">
-        <v>285</v>
-      </c>
-      <c r="M92" t="s">
-        <v>286</v>
-      </c>
-      <c r="N92" t="s">
-        <v>550</v>
       </c>
       <c r="O92" t="s">
         <v>25</v>
@@ -6629,46 +6596,46 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>547</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>548</v>
+      </c>
+      <c r="D93" t="s">
+        <v>549</v>
+      </c>
+      <c r="E93" t="s">
+        <v>550</v>
+      </c>
+      <c r="F93" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" t="s">
+        <v>370</v>
+      </c>
+      <c r="H93" t="s">
         <v>551</v>
       </c>
-      <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" t="s">
-        <v>541</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="I93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" t="s">
+        <v>36</v>
+      </c>
+      <c r="K93" t="s">
+        <v>343</v>
+      </c>
+      <c r="L93" t="s">
+        <v>372</v>
+      </c>
+      <c r="M93" t="s">
+        <v>373</v>
+      </c>
+      <c r="N93" t="s">
         <v>552</v>
-      </c>
-      <c r="E93" t="s">
-        <v>553</v>
-      </c>
-      <c r="F93" t="s">
-        <v>34</v>
-      </c>
-      <c r="G93" t="s">
-        <v>274</v>
-      </c>
-      <c r="H93" t="s">
-        <v>554</v>
-      </c>
-      <c r="I93" t="s">
-        <v>22</v>
-      </c>
-      <c r="J93" t="s">
-        <v>36</v>
-      </c>
-      <c r="K93" t="s">
-        <v>276</v>
-      </c>
-      <c r="L93" t="s">
-        <v>277</v>
-      </c>
-      <c r="M93" t="s">
-        <v>278</v>
-      </c>
-      <c r="N93" t="s">
-        <v>555</v>
       </c>
       <c r="O93" t="s">
         <v>25</v>
@@ -6676,46 +6643,46 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>553</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" t="s">
+        <v>554</v>
+      </c>
+      <c r="E94" t="s">
+        <v>555</v>
+      </c>
+      <c r="F94" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" t="s">
+        <v>316</v>
+      </c>
+      <c r="H94" t="s">
         <v>556</v>
       </c>
-      <c r="B94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="I94" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" t="s">
+        <v>36</v>
+      </c>
+      <c r="K94" t="s">
+        <v>309</v>
+      </c>
+      <c r="L94" t="s">
+        <v>318</v>
+      </c>
+      <c r="M94" t="s">
+        <v>319</v>
+      </c>
+      <c r="N94" t="s">
         <v>557</v>
-      </c>
-      <c r="E94" t="s">
-        <v>558</v>
-      </c>
-      <c r="F94" t="s">
-        <v>34</v>
-      </c>
-      <c r="G94" t="s">
-        <v>387</v>
-      </c>
-      <c r="H94" t="s">
-        <v>559</v>
-      </c>
-      <c r="I94" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" t="s">
-        <v>36</v>
-      </c>
-      <c r="K94" t="s">
-        <v>389</v>
-      </c>
-      <c r="L94" t="s">
-        <v>390</v>
-      </c>
-      <c r="M94" t="s">
-        <v>391</v>
-      </c>
-      <c r="N94" t="s">
-        <v>560</v>
       </c>
       <c r="O94" t="s">
         <v>25</v>
@@ -6723,46 +6690,46 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>558</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>548</v>
+      </c>
+      <c r="D95" t="s">
+        <v>559</v>
+      </c>
+      <c r="E95" t="s">
+        <v>560</v>
+      </c>
+      <c r="F95" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" t="s">
+        <v>307</v>
+      </c>
+      <c r="H95" t="s">
         <v>561</v>
       </c>
-      <c r="B95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="I95" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" t="s">
+        <v>36</v>
+      </c>
+      <c r="K95" t="s">
+        <v>309</v>
+      </c>
+      <c r="L95" t="s">
+        <v>310</v>
+      </c>
+      <c r="M95" t="s">
+        <v>311</v>
+      </c>
+      <c r="N95" t="s">
         <v>562</v>
-      </c>
-      <c r="E95" t="s">
-        <v>563</v>
-      </c>
-      <c r="F95" t="s">
-        <v>34</v>
-      </c>
-      <c r="G95" t="s">
-        <v>361</v>
-      </c>
-      <c r="H95" t="s">
-        <v>564</v>
-      </c>
-      <c r="I95" t="s">
-        <v>22</v>
-      </c>
-      <c r="J95" t="s">
-        <v>36</v>
-      </c>
-      <c r="K95" t="s">
-        <v>260</v>
-      </c>
-      <c r="L95" t="s">
-        <v>328</v>
-      </c>
-      <c r="M95" t="s">
-        <v>363</v>
-      </c>
-      <c r="N95" t="s">
-        <v>565</v>
       </c>
       <c r="O95" t="s">
         <v>25</v>
@@ -6770,46 +6737,46 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>563</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" t="s">
+        <v>564</v>
+      </c>
+      <c r="E96" t="s">
+        <v>565</v>
+      </c>
+      <c r="F96" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" t="s">
+        <v>411</v>
+      </c>
+      <c r="H96" t="s">
         <v>566</v>
       </c>
-      <c r="B96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="I96" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" t="s">
+        <v>36</v>
+      </c>
+      <c r="K96" t="s">
+        <v>413</v>
+      </c>
+      <c r="L96" t="s">
+        <v>414</v>
+      </c>
+      <c r="M96" t="s">
+        <v>415</v>
+      </c>
+      <c r="N96" t="s">
         <v>567</v>
-      </c>
-      <c r="E96" t="s">
-        <v>568</v>
-      </c>
-      <c r="F96" t="s">
-        <v>34</v>
-      </c>
-      <c r="G96" t="s">
-        <v>326</v>
-      </c>
-      <c r="H96" t="s">
-        <v>569</v>
-      </c>
-      <c r="I96" t="s">
-        <v>22</v>
-      </c>
-      <c r="J96" t="s">
-        <v>36</v>
-      </c>
-      <c r="K96" t="s">
-        <v>260</v>
-      </c>
-      <c r="L96" t="s">
-        <v>328</v>
-      </c>
-      <c r="M96" t="s">
-        <v>329</v>
-      </c>
-      <c r="N96" t="s">
-        <v>570</v>
       </c>
       <c r="O96" t="s">
         <v>25</v>
@@ -6817,46 +6784,46 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>568</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" t="s">
+        <v>569</v>
+      </c>
+      <c r="E97" t="s">
+        <v>570</v>
+      </c>
+      <c r="F97" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" t="s">
+        <v>385</v>
+      </c>
+      <c r="H97" t="s">
         <v>571</v>
       </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" t="s">
+        <v>36</v>
+      </c>
+      <c r="K97" t="s">
+        <v>293</v>
+      </c>
+      <c r="L97" t="s">
+        <v>352</v>
+      </c>
+      <c r="M97" t="s">
+        <v>387</v>
+      </c>
+      <c r="N97" t="s">
         <v>572</v>
-      </c>
-      <c r="E97" t="s">
-        <v>573</v>
-      </c>
-      <c r="F97" t="s">
-        <v>34</v>
-      </c>
-      <c r="G97" t="s">
-        <v>354</v>
-      </c>
-      <c r="H97" t="s">
-        <v>574</v>
-      </c>
-      <c r="I97" t="s">
-        <v>22</v>
-      </c>
-      <c r="J97" t="s">
-        <v>36</v>
-      </c>
-      <c r="K97" t="s">
-        <v>260</v>
-      </c>
-      <c r="L97" t="s">
-        <v>328</v>
-      </c>
-      <c r="M97" t="s">
-        <v>356</v>
-      </c>
-      <c r="N97" t="s">
-        <v>575</v>
       </c>
       <c r="O97" t="s">
         <v>25</v>
@@ -6864,46 +6831,46 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>573</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" t="s">
+        <v>574</v>
+      </c>
+      <c r="E98" t="s">
+        <v>575</v>
+      </c>
+      <c r="F98" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" t="s">
+        <v>350</v>
+      </c>
+      <c r="H98" t="s">
         <v>576</v>
       </c>
-      <c r="B98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="I98" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" t="s">
+        <v>36</v>
+      </c>
+      <c r="K98" t="s">
+        <v>293</v>
+      </c>
+      <c r="L98" t="s">
+        <v>352</v>
+      </c>
+      <c r="M98" t="s">
+        <v>353</v>
+      </c>
+      <c r="N98" t="s">
         <v>577</v>
-      </c>
-      <c r="E98" t="s">
-        <v>578</v>
-      </c>
-      <c r="F98" t="s">
-        <v>34</v>
-      </c>
-      <c r="G98" t="s">
-        <v>380</v>
-      </c>
-      <c r="H98" t="s">
-        <v>579</v>
-      </c>
-      <c r="I98" t="s">
-        <v>22</v>
-      </c>
-      <c r="J98" t="s">
-        <v>36</v>
-      </c>
-      <c r="K98" t="s">
-        <v>260</v>
-      </c>
-      <c r="L98" t="s">
-        <v>328</v>
-      </c>
-      <c r="M98" t="s">
-        <v>382</v>
-      </c>
-      <c r="N98" t="s">
-        <v>580</v>
       </c>
       <c r="O98" t="s">
         <v>25</v>
@@ -6911,46 +6878,46 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>578</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" t="s">
+        <v>579</v>
+      </c>
+      <c r="E99" t="s">
+        <v>580</v>
+      </c>
+      <c r="F99" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" t="s">
+        <v>378</v>
+      </c>
+      <c r="H99" t="s">
         <v>581</v>
       </c>
-      <c r="B99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" t="s">
-        <v>159</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="I99" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" t="s">
+        <v>36</v>
+      </c>
+      <c r="K99" t="s">
+        <v>293</v>
+      </c>
+      <c r="L99" t="s">
+        <v>352</v>
+      </c>
+      <c r="M99" t="s">
+        <v>380</v>
+      </c>
+      <c r="N99" t="s">
         <v>582</v>
-      </c>
-      <c r="E99" t="s">
-        <v>583</v>
-      </c>
-      <c r="F99" t="s">
-        <v>34</v>
-      </c>
-      <c r="G99" t="s">
-        <v>456</v>
-      </c>
-      <c r="H99" t="s">
-        <v>584</v>
-      </c>
-      <c r="I99" t="s">
-        <v>22</v>
-      </c>
-      <c r="J99" t="s">
-        <v>36</v>
-      </c>
-      <c r="K99" t="s">
-        <v>310</v>
-      </c>
-      <c r="L99" t="s">
-        <v>311</v>
-      </c>
-      <c r="M99" t="s">
-        <v>458</v>
-      </c>
-      <c r="N99" t="s">
-        <v>585</v>
       </c>
       <c r="O99" t="s">
         <v>25</v>
@@ -6958,46 +6925,46 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>583</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>151</v>
+      </c>
+      <c r="D100" t="s">
+        <v>584</v>
+      </c>
+      <c r="E100" t="s">
+        <v>585</v>
+      </c>
+      <c r="F100" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" t="s">
+        <v>404</v>
+      </c>
+      <c r="H100" t="s">
         <v>586</v>
       </c>
-      <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" t="s">
-        <v>159</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="I100" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" t="s">
+        <v>36</v>
+      </c>
+      <c r="K100" t="s">
+        <v>293</v>
+      </c>
+      <c r="L100" t="s">
+        <v>352</v>
+      </c>
+      <c r="M100" t="s">
+        <v>406</v>
+      </c>
+      <c r="N100" t="s">
         <v>587</v>
-      </c>
-      <c r="E100" t="s">
-        <v>588</v>
-      </c>
-      <c r="F100" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" t="s">
-        <v>456</v>
-      </c>
-      <c r="H100" t="s">
-        <v>589</v>
-      </c>
-      <c r="I100" t="s">
-        <v>22</v>
-      </c>
-      <c r="J100" t="s">
-        <v>36</v>
-      </c>
-      <c r="K100" t="s">
-        <v>310</v>
-      </c>
-      <c r="L100" t="s">
-        <v>311</v>
-      </c>
-      <c r="M100" t="s">
-        <v>458</v>
-      </c>
-      <c r="N100" t="s">
-        <v>590</v>
       </c>
       <c r="O100" t="s">
         <v>25</v>
@@ -7005,46 +6972,46 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>588</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" t="s">
+        <v>589</v>
+      </c>
+      <c r="E101" t="s">
+        <v>590</v>
+      </c>
+      <c r="F101" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" t="s">
+        <v>473</v>
+      </c>
+      <c r="H101" t="s">
         <v>591</v>
       </c>
-      <c r="B101" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" t="s">
-        <v>159</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="I101" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" t="s">
+        <v>36</v>
+      </c>
+      <c r="K101" t="s">
+        <v>343</v>
+      </c>
+      <c r="L101" t="s">
+        <v>344</v>
+      </c>
+      <c r="M101" t="s">
+        <v>475</v>
+      </c>
+      <c r="N101" t="s">
         <v>592</v>
-      </c>
-      <c r="E101" t="s">
-        <v>593</v>
-      </c>
-      <c r="F101" t="s">
-        <v>34</v>
-      </c>
-      <c r="G101" t="s">
-        <v>478</v>
-      </c>
-      <c r="H101" t="s">
-        <v>594</v>
-      </c>
-      <c r="I101" t="s">
-        <v>22</v>
-      </c>
-      <c r="J101" t="s">
-        <v>36</v>
-      </c>
-      <c r="K101" t="s">
-        <v>260</v>
-      </c>
-      <c r="L101" t="s">
-        <v>328</v>
-      </c>
-      <c r="M101" t="s">
-        <v>480</v>
-      </c>
-      <c r="N101" t="s">
-        <v>595</v>
       </c>
       <c r="O101" t="s">
         <v>25</v>
@@ -7052,46 +7019,46 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>593</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>182</v>
+      </c>
+      <c r="D102" t="s">
+        <v>594</v>
+      </c>
+      <c r="E102" t="s">
+        <v>595</v>
+      </c>
+      <c r="F102" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" t="s">
+        <v>473</v>
+      </c>
+      <c r="H102" t="s">
         <v>596</v>
       </c>
-      <c r="B102" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" t="s">
-        <v>159</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="I102" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102" t="s">
+        <v>343</v>
+      </c>
+      <c r="L102" t="s">
+        <v>344</v>
+      </c>
+      <c r="M102" t="s">
+        <v>475</v>
+      </c>
+      <c r="N102" t="s">
         <v>597</v>
-      </c>
-      <c r="E102" t="s">
-        <v>598</v>
-      </c>
-      <c r="F102" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" t="s">
-        <v>380</v>
-      </c>
-      <c r="H102" t="s">
-        <v>599</v>
-      </c>
-      <c r="I102" t="s">
-        <v>22</v>
-      </c>
-      <c r="J102" t="s">
-        <v>36</v>
-      </c>
-      <c r="K102" t="s">
-        <v>260</v>
-      </c>
-      <c r="L102" t="s">
-        <v>328</v>
-      </c>
-      <c r="M102" t="s">
-        <v>382</v>
-      </c>
-      <c r="N102" t="s">
-        <v>600</v>
       </c>
       <c r="O102" t="s">
         <v>25</v>
@@ -7099,46 +7066,46 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>598</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>182</v>
+      </c>
+      <c r="D103" t="s">
+        <v>599</v>
+      </c>
+      <c r="E103" t="s">
+        <v>600</v>
+      </c>
+      <c r="F103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" t="s">
+        <v>490</v>
+      </c>
+      <c r="H103" t="s">
         <v>601</v>
       </c>
-      <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="s">
-        <v>159</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="I103" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K103" t="s">
+        <v>293</v>
+      </c>
+      <c r="L103" t="s">
+        <v>352</v>
+      </c>
+      <c r="M103" t="s">
+        <v>492</v>
+      </c>
+      <c r="N103" t="s">
         <v>602</v>
-      </c>
-      <c r="E103" t="s">
-        <v>603</v>
-      </c>
-      <c r="F103" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103" t="s">
-        <v>326</v>
-      </c>
-      <c r="H103" t="s">
-        <v>604</v>
-      </c>
-      <c r="I103" t="s">
-        <v>22</v>
-      </c>
-      <c r="J103" t="s">
-        <v>36</v>
-      </c>
-      <c r="K103" t="s">
-        <v>260</v>
-      </c>
-      <c r="L103" t="s">
-        <v>328</v>
-      </c>
-      <c r="M103" t="s">
-        <v>329</v>
-      </c>
-      <c r="N103" t="s">
-        <v>605</v>
       </c>
       <c r="O103" t="s">
         <v>25</v>
@@ -7146,46 +7113,46 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>603</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>182</v>
+      </c>
+      <c r="D104" t="s">
+        <v>604</v>
+      </c>
+      <c r="E104" t="s">
+        <v>605</v>
+      </c>
+      <c r="F104" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" t="s">
+        <v>404</v>
+      </c>
+      <c r="H104" t="s">
         <v>606</v>
       </c>
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" t="s">
-        <v>159</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="I104" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" t="s">
+        <v>36</v>
+      </c>
+      <c r="K104" t="s">
+        <v>293</v>
+      </c>
+      <c r="L104" t="s">
+        <v>352</v>
+      </c>
+      <c r="M104" t="s">
+        <v>406</v>
+      </c>
+      <c r="N104" t="s">
         <v>607</v>
-      </c>
-      <c r="E104" t="s">
-        <v>608</v>
-      </c>
-      <c r="F104" t="s">
-        <v>34</v>
-      </c>
-      <c r="G104" t="s">
-        <v>406</v>
-      </c>
-      <c r="H104" t="s">
-        <v>609</v>
-      </c>
-      <c r="I104" t="s">
-        <v>22</v>
-      </c>
-      <c r="J104" t="s">
-        <v>36</v>
-      </c>
-      <c r="K104" t="s">
-        <v>276</v>
-      </c>
-      <c r="L104" t="s">
-        <v>285</v>
-      </c>
-      <c r="M104" t="s">
-        <v>408</v>
-      </c>
-      <c r="N104" t="s">
-        <v>610</v>
       </c>
       <c r="O104" t="s">
         <v>25</v>
@@ -7193,46 +7160,46 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>608</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>182</v>
+      </c>
+      <c r="D105" t="s">
+        <v>609</v>
+      </c>
+      <c r="E105" t="s">
+        <v>610</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
+        <v>350</v>
+      </c>
+      <c r="H105" t="s">
         <v>611</v>
       </c>
-      <c r="B105" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" t="s">
-        <v>175</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="I105" t="s">
+        <v>22</v>
+      </c>
+      <c r="J105" t="s">
+        <v>36</v>
+      </c>
+      <c r="K105" t="s">
+        <v>293</v>
+      </c>
+      <c r="L105" t="s">
+        <v>352</v>
+      </c>
+      <c r="M105" t="s">
+        <v>353</v>
+      </c>
+      <c r="N105" t="s">
         <v>612</v>
-      </c>
-      <c r="E105" t="s">
-        <v>613</v>
-      </c>
-      <c r="F105" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" t="s">
-        <v>520</v>
-      </c>
-      <c r="H105" t="s">
-        <v>614</v>
-      </c>
-      <c r="I105" t="s">
-        <v>22</v>
-      </c>
-      <c r="J105" t="s">
-        <v>36</v>
-      </c>
-      <c r="K105" t="s">
-        <v>310</v>
-      </c>
-      <c r="L105" t="s">
-        <v>522</v>
-      </c>
-      <c r="M105" t="s">
-        <v>523</v>
-      </c>
-      <c r="N105" t="s">
-        <v>615</v>
       </c>
       <c r="O105" t="s">
         <v>25</v>
@@ -7240,46 +7207,46 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>613</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" t="s">
+        <v>614</v>
+      </c>
+      <c r="E106" t="s">
+        <v>615</v>
+      </c>
+      <c r="F106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
+        <v>430</v>
+      </c>
+      <c r="H106" t="s">
         <v>616</v>
       </c>
-      <c r="B106" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" t="s">
-        <v>175</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="I106" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" t="s">
+        <v>36</v>
+      </c>
+      <c r="K106" t="s">
+        <v>309</v>
+      </c>
+      <c r="L106" t="s">
+        <v>318</v>
+      </c>
+      <c r="M106" t="s">
+        <v>432</v>
+      </c>
+      <c r="N106" t="s">
         <v>617</v>
-      </c>
-      <c r="E106" t="s">
-        <v>618</v>
-      </c>
-      <c r="F106" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106" t="s">
-        <v>346</v>
-      </c>
-      <c r="H106" t="s">
-        <v>619</v>
-      </c>
-      <c r="I106" t="s">
-        <v>22</v>
-      </c>
-      <c r="J106" t="s">
-        <v>36</v>
-      </c>
-      <c r="K106" t="s">
-        <v>310</v>
-      </c>
-      <c r="L106" t="s">
-        <v>348</v>
-      </c>
-      <c r="M106" t="s">
-        <v>349</v>
-      </c>
-      <c r="N106" t="s">
-        <v>620</v>
       </c>
       <c r="O106" t="s">
         <v>25</v>
@@ -7287,46 +7254,46 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>618</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>198</v>
+      </c>
+      <c r="D107" t="s">
+        <v>619</v>
+      </c>
+      <c r="E107" t="s">
+        <v>620</v>
+      </c>
+      <c r="F107" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" t="s">
+        <v>532</v>
+      </c>
+      <c r="H107" t="s">
         <v>621</v>
       </c>
-      <c r="B107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" t="s">
-        <v>175</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="I107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" t="s">
+        <v>36</v>
+      </c>
+      <c r="K107" t="s">
+        <v>343</v>
+      </c>
+      <c r="L107" t="s">
+        <v>534</v>
+      </c>
+      <c r="M107" t="s">
+        <v>535</v>
+      </c>
+      <c r="N107" t="s">
         <v>622</v>
-      </c>
-      <c r="E107" t="s">
-        <v>623</v>
-      </c>
-      <c r="F107" t="s">
-        <v>34</v>
-      </c>
-      <c r="G107" t="s">
-        <v>301</v>
-      </c>
-      <c r="H107" t="s">
-        <v>624</v>
-      </c>
-      <c r="I107" t="s">
-        <v>22</v>
-      </c>
-      <c r="J107" t="s">
-        <v>36</v>
-      </c>
-      <c r="K107" t="s">
-        <v>267</v>
-      </c>
-      <c r="L107" t="s">
-        <v>268</v>
-      </c>
-      <c r="M107" t="s">
-        <v>303</v>
-      </c>
-      <c r="N107" t="s">
-        <v>625</v>
       </c>
       <c r="O107" t="s">
         <v>25</v>
@@ -7334,46 +7301,46 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>623</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>198</v>
+      </c>
+      <c r="D108" t="s">
+        <v>624</v>
+      </c>
+      <c r="E108" t="s">
+        <v>625</v>
+      </c>
+      <c r="F108" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" t="s">
+        <v>370</v>
+      </c>
+      <c r="H108" t="s">
         <v>626</v>
       </c>
-      <c r="B108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" t="s">
-        <v>175</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="I108" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" t="s">
+        <v>36</v>
+      </c>
+      <c r="K108" t="s">
+        <v>343</v>
+      </c>
+      <c r="L108" t="s">
+        <v>372</v>
+      </c>
+      <c r="M108" t="s">
+        <v>373</v>
+      </c>
+      <c r="N108" t="s">
         <v>627</v>
-      </c>
-      <c r="E108" t="s">
-        <v>628</v>
-      </c>
-      <c r="F108" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108" t="s">
-        <v>346</v>
-      </c>
-      <c r="H108" t="s">
-        <v>629</v>
-      </c>
-      <c r="I108" t="s">
-        <v>22</v>
-      </c>
-      <c r="J108" t="s">
-        <v>36</v>
-      </c>
-      <c r="K108" t="s">
-        <v>310</v>
-      </c>
-      <c r="L108" t="s">
-        <v>348</v>
-      </c>
-      <c r="M108" t="s">
-        <v>349</v>
-      </c>
-      <c r="N108" t="s">
-        <v>630</v>
       </c>
       <c r="O108" t="s">
         <v>25</v>
@@ -7381,46 +7348,46 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>628</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" t="s">
+        <v>629</v>
+      </c>
+      <c r="E109" t="s">
+        <v>630</v>
+      </c>
+      <c r="F109" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" t="s">
+        <v>334</v>
+      </c>
+      <c r="H109" t="s">
         <v>631</v>
       </c>
-      <c r="B109" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" t="s">
-        <v>175</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="I109" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" t="s">
+        <v>36</v>
+      </c>
+      <c r="K109" t="s">
+        <v>300</v>
+      </c>
+      <c r="L109" t="s">
+        <v>301</v>
+      </c>
+      <c r="M109" t="s">
+        <v>336</v>
+      </c>
+      <c r="N109" t="s">
         <v>632</v>
-      </c>
-      <c r="E109" t="s">
-        <v>633</v>
-      </c>
-      <c r="F109" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" t="s">
-        <v>274</v>
-      </c>
-      <c r="H109" t="s">
-        <v>634</v>
-      </c>
-      <c r="I109" t="s">
-        <v>22</v>
-      </c>
-      <c r="J109" t="s">
-        <v>36</v>
-      </c>
-      <c r="K109" t="s">
-        <v>276</v>
-      </c>
-      <c r="L109" t="s">
-        <v>277</v>
-      </c>
-      <c r="M109" t="s">
-        <v>278</v>
-      </c>
-      <c r="N109" t="s">
-        <v>635</v>
       </c>
       <c r="O109" t="s">
         <v>25</v>
@@ -7428,46 +7395,46 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>633</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" t="s">
+        <v>634</v>
+      </c>
+      <c r="E110" t="s">
+        <v>635</v>
+      </c>
+      <c r="F110" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" t="s">
+        <v>370</v>
+      </c>
+      <c r="H110" t="s">
         <v>636</v>
       </c>
-      <c r="B110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" t="s">
-        <v>175</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="I110" t="s">
+        <v>22</v>
+      </c>
+      <c r="J110" t="s">
+        <v>36</v>
+      </c>
+      <c r="K110" t="s">
+        <v>343</v>
+      </c>
+      <c r="L110" t="s">
+        <v>372</v>
+      </c>
+      <c r="M110" t="s">
+        <v>373</v>
+      </c>
+      <c r="N110" t="s">
         <v>637</v>
-      </c>
-      <c r="E110" t="s">
-        <v>638</v>
-      </c>
-      <c r="F110" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" t="s">
-        <v>413</v>
-      </c>
-      <c r="H110" t="s">
-        <v>639</v>
-      </c>
-      <c r="I110" t="s">
-        <v>22</v>
-      </c>
-      <c r="J110" t="s">
-        <v>36</v>
-      </c>
-      <c r="K110" t="s">
-        <v>319</v>
-      </c>
-      <c r="L110" t="s">
-        <v>320</v>
-      </c>
-      <c r="M110" t="s">
-        <v>415</v>
-      </c>
-      <c r="N110" t="s">
-        <v>640</v>
       </c>
       <c r="O110" t="s">
         <v>25</v>
@@ -7475,46 +7442,46 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>638</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" t="s">
+        <v>639</v>
+      </c>
+      <c r="E111" t="s">
+        <v>640</v>
+      </c>
+      <c r="F111" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" t="s">
+        <v>307</v>
+      </c>
+      <c r="H111" t="s">
         <v>641</v>
       </c>
-      <c r="B111" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" t="s">
-        <v>175</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="I111" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" t="s">
+        <v>36</v>
+      </c>
+      <c r="K111" t="s">
+        <v>309</v>
+      </c>
+      <c r="L111" t="s">
+        <v>310</v>
+      </c>
+      <c r="M111" t="s">
+        <v>311</v>
+      </c>
+      <c r="N111" t="s">
         <v>642</v>
-      </c>
-      <c r="E111" t="s">
-        <v>643</v>
-      </c>
-      <c r="F111" t="s">
-        <v>34</v>
-      </c>
-      <c r="G111" t="s">
-        <v>387</v>
-      </c>
-      <c r="H111" t="s">
-        <v>644</v>
-      </c>
-      <c r="I111" t="s">
-        <v>22</v>
-      </c>
-      <c r="J111" t="s">
-        <v>36</v>
-      </c>
-      <c r="K111" t="s">
-        <v>389</v>
-      </c>
-      <c r="L111" t="s">
-        <v>390</v>
-      </c>
-      <c r="M111" t="s">
-        <v>391</v>
-      </c>
-      <c r="N111" t="s">
-        <v>645</v>
       </c>
       <c r="O111" t="s">
         <v>25</v>
@@ -7522,46 +7489,46 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>643</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" t="s">
+        <v>644</v>
+      </c>
+      <c r="E112" t="s">
+        <v>645</v>
+      </c>
+      <c r="F112" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" t="s">
+        <v>411</v>
+      </c>
+      <c r="H112" t="s">
         <v>646</v>
       </c>
-      <c r="B112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" t="s">
-        <v>187</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="I112" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" t="s">
+        <v>36</v>
+      </c>
+      <c r="K112" t="s">
+        <v>413</v>
+      </c>
+      <c r="L112" t="s">
+        <v>414</v>
+      </c>
+      <c r="M112" t="s">
+        <v>415</v>
+      </c>
+      <c r="N112" t="s">
         <v>647</v>
-      </c>
-      <c r="E112" t="s">
-        <v>648</v>
-      </c>
-      <c r="F112" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" t="s">
-        <v>354</v>
-      </c>
-      <c r="H112" t="s">
-        <v>649</v>
-      </c>
-      <c r="I112" t="s">
-        <v>22</v>
-      </c>
-      <c r="J112" t="s">
-        <v>36</v>
-      </c>
-      <c r="K112" t="s">
-        <v>260</v>
-      </c>
-      <c r="L112" t="s">
-        <v>328</v>
-      </c>
-      <c r="M112" t="s">
-        <v>356</v>
-      </c>
-      <c r="N112" t="s">
-        <v>650</v>
       </c>
       <c r="O112" t="s">
         <v>25</v>
@@ -7569,46 +7536,46 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>648</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>215</v>
+      </c>
+      <c r="D113" t="s">
+        <v>649</v>
+      </c>
+      <c r="E113" t="s">
+        <v>650</v>
+      </c>
+      <c r="F113" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" t="s">
+        <v>378</v>
+      </c>
+      <c r="H113" t="s">
         <v>651</v>
       </c>
-      <c r="B113" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" t="s">
-        <v>181</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="I113" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" t="s">
+        <v>36</v>
+      </c>
+      <c r="K113" t="s">
+        <v>293</v>
+      </c>
+      <c r="L113" t="s">
+        <v>352</v>
+      </c>
+      <c r="M113" t="s">
+        <v>380</v>
+      </c>
+      <c r="N113" t="s">
         <v>652</v>
-      </c>
-      <c r="E113" t="s">
-        <v>653</v>
-      </c>
-      <c r="F113" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113" t="s">
-        <v>478</v>
-      </c>
-      <c r="H113" t="s">
-        <v>654</v>
-      </c>
-      <c r="I113" t="s">
-        <v>22</v>
-      </c>
-      <c r="J113" t="s">
-        <v>36</v>
-      </c>
-      <c r="K113" t="s">
-        <v>260</v>
-      </c>
-      <c r="L113" t="s">
-        <v>328</v>
-      </c>
-      <c r="M113" t="s">
-        <v>480</v>
-      </c>
-      <c r="N113" t="s">
-        <v>655</v>
       </c>
       <c r="O113" t="s">
         <v>25</v>
@@ -7616,46 +7583,46 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>653</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>209</v>
+      </c>
+      <c r="D114" t="s">
+        <v>654</v>
+      </c>
+      <c r="E114" t="s">
+        <v>655</v>
+      </c>
+      <c r="F114" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" t="s">
+        <v>490</v>
+      </c>
+      <c r="H114" t="s">
         <v>656</v>
       </c>
-      <c r="B114" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" t="s">
-        <v>187</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="I114" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114" t="s">
+        <v>293</v>
+      </c>
+      <c r="L114" t="s">
+        <v>352</v>
+      </c>
+      <c r="M114" t="s">
+        <v>492</v>
+      </c>
+      <c r="N114" t="s">
         <v>657</v>
-      </c>
-      <c r="E114" t="s">
-        <v>658</v>
-      </c>
-      <c r="F114" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" t="s">
-        <v>326</v>
-      </c>
-      <c r="H114" t="s">
-        <v>659</v>
-      </c>
-      <c r="I114" t="s">
-        <v>22</v>
-      </c>
-      <c r="J114" t="s">
-        <v>36</v>
-      </c>
-      <c r="K114" t="s">
-        <v>260</v>
-      </c>
-      <c r="L114" t="s">
-        <v>328</v>
-      </c>
-      <c r="M114" t="s">
-        <v>329</v>
-      </c>
-      <c r="N114" t="s">
-        <v>660</v>
       </c>
       <c r="O114" t="s">
         <v>25</v>
@@ -7663,46 +7630,46 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>658</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>215</v>
+      </c>
+      <c r="D115" t="s">
+        <v>659</v>
+      </c>
+      <c r="E115" t="s">
+        <v>660</v>
+      </c>
+      <c r="F115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" t="s">
+        <v>350</v>
+      </c>
+      <c r="H115" t="s">
         <v>661</v>
       </c>
-      <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" t="s">
-        <v>181</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="I115" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" t="s">
+        <v>36</v>
+      </c>
+      <c r="K115" t="s">
+        <v>293</v>
+      </c>
+      <c r="L115" t="s">
+        <v>352</v>
+      </c>
+      <c r="M115" t="s">
+        <v>353</v>
+      </c>
+      <c r="N115" t="s">
         <v>662</v>
-      </c>
-      <c r="E115" t="s">
-        <v>663</v>
-      </c>
-      <c r="F115" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" t="s">
-        <v>380</v>
-      </c>
-      <c r="H115" t="s">
-        <v>664</v>
-      </c>
-      <c r="I115" t="s">
-        <v>22</v>
-      </c>
-      <c r="J115" t="s">
-        <v>36</v>
-      </c>
-      <c r="K115" t="s">
-        <v>260</v>
-      </c>
-      <c r="L115" t="s">
-        <v>328</v>
-      </c>
-      <c r="M115" t="s">
-        <v>382</v>
-      </c>
-      <c r="N115" t="s">
-        <v>665</v>
       </c>
       <c r="O115" t="s">
         <v>25</v>
@@ -7710,46 +7677,46 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>663</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>209</v>
+      </c>
+      <c r="D116" t="s">
+        <v>664</v>
+      </c>
+      <c r="E116" t="s">
+        <v>665</v>
+      </c>
+      <c r="F116" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" t="s">
+        <v>404</v>
+      </c>
+      <c r="H116" t="s">
         <v>666</v>
       </c>
-      <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" t="s">
-        <v>181</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="I116" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" t="s">
+        <v>36</v>
+      </c>
+      <c r="K116" t="s">
+        <v>293</v>
+      </c>
+      <c r="L116" t="s">
+        <v>352</v>
+      </c>
+      <c r="M116" t="s">
+        <v>406</v>
+      </c>
+      <c r="N116" t="s">
         <v>667</v>
-      </c>
-      <c r="E116" t="s">
-        <v>668</v>
-      </c>
-      <c r="F116" t="s">
-        <v>34</v>
-      </c>
-      <c r="G116" t="s">
-        <v>346</v>
-      </c>
-      <c r="H116" t="s">
-        <v>669</v>
-      </c>
-      <c r="I116" t="s">
-        <v>22</v>
-      </c>
-      <c r="J116" t="s">
-        <v>36</v>
-      </c>
-      <c r="K116" t="s">
-        <v>310</v>
-      </c>
-      <c r="L116" t="s">
-        <v>348</v>
-      </c>
-      <c r="M116" t="s">
-        <v>349</v>
-      </c>
-      <c r="N116" t="s">
-        <v>670</v>
       </c>
       <c r="O116" t="s">
         <v>25</v>
@@ -7757,46 +7724,46 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>668</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>209</v>
+      </c>
+      <c r="D117" t="s">
+        <v>669</v>
+      </c>
+      <c r="E117" t="s">
+        <v>670</v>
+      </c>
+      <c r="F117" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" t="s">
+        <v>370</v>
+      </c>
+      <c r="H117" t="s">
         <v>671</v>
       </c>
-      <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" t="s">
-        <v>203</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="I117" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" t="s">
+        <v>36</v>
+      </c>
+      <c r="K117" t="s">
+        <v>343</v>
+      </c>
+      <c r="L117" t="s">
+        <v>372</v>
+      </c>
+      <c r="M117" t="s">
+        <v>373</v>
+      </c>
+      <c r="N117" t="s">
         <v>672</v>
-      </c>
-      <c r="E117" t="s">
-        <v>673</v>
-      </c>
-      <c r="F117" t="s">
-        <v>34</v>
-      </c>
-      <c r="G117" t="s">
-        <v>308</v>
-      </c>
-      <c r="H117" t="s">
-        <v>674</v>
-      </c>
-      <c r="I117" t="s">
-        <v>22</v>
-      </c>
-      <c r="J117" t="s">
-        <v>36</v>
-      </c>
-      <c r="K117" t="s">
-        <v>310</v>
-      </c>
-      <c r="L117" t="s">
-        <v>311</v>
-      </c>
-      <c r="M117" t="s">
-        <v>312</v>
-      </c>
-      <c r="N117" t="s">
-        <v>675</v>
       </c>
       <c r="O117" t="s">
         <v>25</v>
@@ -7804,46 +7771,46 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>673</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>231</v>
+      </c>
+      <c r="D118" t="s">
+        <v>674</v>
+      </c>
+      <c r="E118" t="s">
+        <v>675</v>
+      </c>
+      <c r="F118" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" t="s">
+        <v>341</v>
+      </c>
+      <c r="H118" t="s">
         <v>676</v>
       </c>
-      <c r="B118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" t="s">
-        <v>203</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="I118" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" t="s">
+        <v>36</v>
+      </c>
+      <c r="K118" t="s">
+        <v>343</v>
+      </c>
+      <c r="L118" t="s">
+        <v>344</v>
+      </c>
+      <c r="M118" t="s">
+        <v>345</v>
+      </c>
+      <c r="N118" t="s">
         <v>677</v>
-      </c>
-      <c r="E118" t="s">
-        <v>678</v>
-      </c>
-      <c r="F118" t="s">
-        <v>34</v>
-      </c>
-      <c r="G118" t="s">
-        <v>406</v>
-      </c>
-      <c r="H118" t="s">
-        <v>679</v>
-      </c>
-      <c r="I118" t="s">
-        <v>22</v>
-      </c>
-      <c r="J118" t="s">
-        <v>36</v>
-      </c>
-      <c r="K118" t="s">
-        <v>276</v>
-      </c>
-      <c r="L118" t="s">
-        <v>285</v>
-      </c>
-      <c r="M118" t="s">
-        <v>408</v>
-      </c>
-      <c r="N118" t="s">
-        <v>680</v>
       </c>
       <c r="O118" t="s">
         <v>25</v>
@@ -7851,46 +7818,46 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>678</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>231</v>
+      </c>
+      <c r="D119" t="s">
+        <v>679</v>
+      </c>
+      <c r="E119" t="s">
+        <v>680</v>
+      </c>
+      <c r="F119" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" t="s">
+        <v>430</v>
+      </c>
+      <c r="H119" t="s">
         <v>681</v>
       </c>
-      <c r="B119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" t="s">
-        <v>203</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="I119" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" t="s">
+        <v>36</v>
+      </c>
+      <c r="K119" t="s">
+        <v>309</v>
+      </c>
+      <c r="L119" t="s">
+        <v>318</v>
+      </c>
+      <c r="M119" t="s">
+        <v>432</v>
+      </c>
+      <c r="N119" t="s">
         <v>682</v>
-      </c>
-      <c r="E119" t="s">
-        <v>683</v>
-      </c>
-      <c r="F119" t="s">
-        <v>34</v>
-      </c>
-      <c r="G119" t="s">
-        <v>456</v>
-      </c>
-      <c r="H119" t="s">
-        <v>684</v>
-      </c>
-      <c r="I119" t="s">
-        <v>22</v>
-      </c>
-      <c r="J119" t="s">
-        <v>36</v>
-      </c>
-      <c r="K119" t="s">
-        <v>310</v>
-      </c>
-      <c r="L119" t="s">
-        <v>311</v>
-      </c>
-      <c r="M119" t="s">
-        <v>458</v>
-      </c>
-      <c r="N119" t="s">
-        <v>685</v>
       </c>
       <c r="O119" t="s">
         <v>25</v>
@@ -7898,46 +7865,46 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>683</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
+        <v>231</v>
+      </c>
+      <c r="D120" t="s">
+        <v>684</v>
+      </c>
+      <c r="E120" t="s">
+        <v>685</v>
+      </c>
+      <c r="F120" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" t="s">
+        <v>473</v>
+      </c>
+      <c r="H120" t="s">
         <v>686</v>
       </c>
-      <c r="B120" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" t="s">
-        <v>203</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="I120" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" t="s">
+        <v>36</v>
+      </c>
+      <c r="K120" t="s">
+        <v>343</v>
+      </c>
+      <c r="L120" t="s">
+        <v>344</v>
+      </c>
+      <c r="M120" t="s">
+        <v>475</v>
+      </c>
+      <c r="N120" t="s">
         <v>687</v>
-      </c>
-      <c r="E120" t="s">
-        <v>688</v>
-      </c>
-      <c r="F120" t="s">
-        <v>34</v>
-      </c>
-      <c r="G120" t="s">
-        <v>326</v>
-      </c>
-      <c r="H120" t="s">
-        <v>689</v>
-      </c>
-      <c r="I120" t="s">
-        <v>22</v>
-      </c>
-      <c r="J120" t="s">
-        <v>36</v>
-      </c>
-      <c r="K120" t="s">
-        <v>260</v>
-      </c>
-      <c r="L120" t="s">
-        <v>328</v>
-      </c>
-      <c r="M120" t="s">
-        <v>329</v>
-      </c>
-      <c r="N120" t="s">
-        <v>690</v>
       </c>
       <c r="O120" t="s">
         <v>25</v>
@@ -7945,46 +7912,46 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>688</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" t="s">
+        <v>231</v>
+      </c>
+      <c r="D121" t="s">
+        <v>689</v>
+      </c>
+      <c r="E121" t="s">
+        <v>690</v>
+      </c>
+      <c r="F121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>350</v>
+      </c>
+      <c r="H121" t="s">
         <v>691</v>
       </c>
-      <c r="B121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" t="s">
-        <v>203</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="I121" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" t="s">
+        <v>36</v>
+      </c>
+      <c r="K121" t="s">
+        <v>293</v>
+      </c>
+      <c r="L121" t="s">
+        <v>352</v>
+      </c>
+      <c r="M121" t="s">
+        <v>353</v>
+      </c>
+      <c r="N121" t="s">
         <v>692</v>
-      </c>
-      <c r="E121" t="s">
-        <v>693</v>
-      </c>
-      <c r="F121" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" t="s">
-        <v>406</v>
-      </c>
-      <c r="H121" t="s">
-        <v>694</v>
-      </c>
-      <c r="I121" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" t="s">
-        <v>36</v>
-      </c>
-      <c r="K121" t="s">
-        <v>276</v>
-      </c>
-      <c r="L121" t="s">
-        <v>285</v>
-      </c>
-      <c r="M121" t="s">
-        <v>408</v>
-      </c>
-      <c r="N121" t="s">
-        <v>695</v>
       </c>
       <c r="O121" t="s">
         <v>25</v>
@@ -7992,46 +7959,46 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>693</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>231</v>
+      </c>
+      <c r="D122" t="s">
+        <v>694</v>
+      </c>
+      <c r="E122" t="s">
+        <v>695</v>
+      </c>
+      <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
+        <v>430</v>
+      </c>
+      <c r="H122" t="s">
         <v>696</v>
       </c>
-      <c r="B122" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" t="s">
-        <v>203</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="I122" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" t="s">
+        <v>36</v>
+      </c>
+      <c r="K122" t="s">
+        <v>309</v>
+      </c>
+      <c r="L122" t="s">
+        <v>318</v>
+      </c>
+      <c r="M122" t="s">
+        <v>432</v>
+      </c>
+      <c r="N122" t="s">
         <v>697</v>
-      </c>
-      <c r="E122" t="s">
-        <v>698</v>
-      </c>
-      <c r="F122" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" t="s">
-        <v>406</v>
-      </c>
-      <c r="H122" t="s">
-        <v>699</v>
-      </c>
-      <c r="I122" t="s">
-        <v>22</v>
-      </c>
-      <c r="J122" t="s">
-        <v>36</v>
-      </c>
-      <c r="K122" t="s">
-        <v>276</v>
-      </c>
-      <c r="L122" t="s">
-        <v>285</v>
-      </c>
-      <c r="M122" t="s">
-        <v>408</v>
-      </c>
-      <c r="N122" t="s">
-        <v>700</v>
       </c>
       <c r="O122" t="s">
         <v>25</v>
@@ -8039,46 +8006,46 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>698</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>231</v>
+      </c>
+      <c r="D123" t="s">
+        <v>699</v>
+      </c>
+      <c r="E123" t="s">
+        <v>700</v>
+      </c>
+      <c r="F123" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" t="s">
+        <v>430</v>
+      </c>
+      <c r="H123" t="s">
         <v>701</v>
       </c>
-      <c r="B123" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" t="s">
-        <v>214</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="I123" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" t="s">
+        <v>36</v>
+      </c>
+      <c r="K123" t="s">
+        <v>309</v>
+      </c>
+      <c r="L123" t="s">
+        <v>318</v>
+      </c>
+      <c r="M123" t="s">
+        <v>432</v>
+      </c>
+      <c r="N123" t="s">
         <v>702</v>
-      </c>
-      <c r="E123" t="s">
-        <v>703</v>
-      </c>
-      <c r="F123" t="s">
-        <v>34</v>
-      </c>
-      <c r="G123" t="s">
-        <v>478</v>
-      </c>
-      <c r="H123" t="s">
-        <v>704</v>
-      </c>
-      <c r="I123" t="s">
-        <v>22</v>
-      </c>
-      <c r="J123" t="s">
-        <v>36</v>
-      </c>
-      <c r="K123" t="s">
-        <v>260</v>
-      </c>
-      <c r="L123" t="s">
-        <v>328</v>
-      </c>
-      <c r="M123" t="s">
-        <v>480</v>
-      </c>
-      <c r="N123" t="s">
-        <v>705</v>
       </c>
       <c r="O123" t="s">
         <v>25</v>
@@ -8086,46 +8053,46 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>703</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" t="s">
+        <v>704</v>
+      </c>
+      <c r="E124" t="s">
+        <v>705</v>
+      </c>
+      <c r="F124" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" t="s">
+        <v>490</v>
+      </c>
+      <c r="H124" t="s">
         <v>706</v>
       </c>
-      <c r="B124" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" t="s">
-        <v>214</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="I124" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" t="s">
+        <v>36</v>
+      </c>
+      <c r="K124" t="s">
+        <v>293</v>
+      </c>
+      <c r="L124" t="s">
+        <v>352</v>
+      </c>
+      <c r="M124" t="s">
+        <v>492</v>
+      </c>
+      <c r="N124" t="s">
         <v>707</v>
-      </c>
-      <c r="E124" t="s">
-        <v>708</v>
-      </c>
-      <c r="F124" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" t="s">
-        <v>326</v>
-      </c>
-      <c r="H124" t="s">
-        <v>709</v>
-      </c>
-      <c r="I124" t="s">
-        <v>22</v>
-      </c>
-      <c r="J124" t="s">
-        <v>36</v>
-      </c>
-      <c r="K124" t="s">
-        <v>260</v>
-      </c>
-      <c r="L124" t="s">
-        <v>328</v>
-      </c>
-      <c r="M124" t="s">
-        <v>329</v>
-      </c>
-      <c r="N124" t="s">
-        <v>710</v>
       </c>
       <c r="O124" t="s">
         <v>25</v>
@@ -8133,46 +8100,46 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>708</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>242</v>
+      </c>
+      <c r="D125" t="s">
+        <v>709</v>
+      </c>
+      <c r="E125" t="s">
+        <v>710</v>
+      </c>
+      <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
+        <v>350</v>
+      </c>
+      <c r="H125" t="s">
         <v>711</v>
       </c>
-      <c r="B125" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" t="s">
-        <v>214</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="I125" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" t="s">
+        <v>36</v>
+      </c>
+      <c r="K125" t="s">
+        <v>293</v>
+      </c>
+      <c r="L125" t="s">
+        <v>352</v>
+      </c>
+      <c r="M125" t="s">
+        <v>353</v>
+      </c>
+      <c r="N125" t="s">
         <v>712</v>
-      </c>
-      <c r="E125" t="s">
-        <v>713</v>
-      </c>
-      <c r="F125" t="s">
-        <v>34</v>
-      </c>
-      <c r="G125" t="s">
-        <v>380</v>
-      </c>
-      <c r="H125" t="s">
-        <v>714</v>
-      </c>
-      <c r="I125" t="s">
-        <v>22</v>
-      </c>
-      <c r="J125" t="s">
-        <v>36</v>
-      </c>
-      <c r="K125" t="s">
-        <v>260</v>
-      </c>
-      <c r="L125" t="s">
-        <v>328</v>
-      </c>
-      <c r="M125" t="s">
-        <v>382</v>
-      </c>
-      <c r="N125" t="s">
-        <v>715</v>
       </c>
       <c r="O125" t="s">
         <v>25</v>
@@ -8180,46 +8147,46 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>713</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>242</v>
+      </c>
+      <c r="D126" t="s">
+        <v>714</v>
+      </c>
+      <c r="E126" t="s">
+        <v>715</v>
+      </c>
+      <c r="F126" t="s">
+        <v>34</v>
+      </c>
+      <c r="G126" t="s">
+        <v>404</v>
+      </c>
+      <c r="H126" t="s">
         <v>716</v>
       </c>
-      <c r="B126" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" t="s">
-        <v>240</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="I126" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" t="s">
+        <v>36</v>
+      </c>
+      <c r="K126" t="s">
+        <v>293</v>
+      </c>
+      <c r="L126" t="s">
+        <v>352</v>
+      </c>
+      <c r="M126" t="s">
+        <v>406</v>
+      </c>
+      <c r="N126" t="s">
         <v>717</v>
-      </c>
-      <c r="E126" t="s">
-        <v>718</v>
-      </c>
-      <c r="F126" t="s">
-        <v>34</v>
-      </c>
-      <c r="G126" t="s">
-        <v>354</v>
-      </c>
-      <c r="H126" t="s">
-        <v>719</v>
-      </c>
-      <c r="I126" t="s">
-        <v>22</v>
-      </c>
-      <c r="J126" t="s">
-        <v>36</v>
-      </c>
-      <c r="K126" t="s">
-        <v>260</v>
-      </c>
-      <c r="L126" t="s">
-        <v>328</v>
-      </c>
-      <c r="M126" t="s">
-        <v>356</v>
-      </c>
-      <c r="N126" t="s">
-        <v>720</v>
       </c>
       <c r="O126" t="s">
         <v>25</v>
@@ -8227,46 +8194,46 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>718</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127" t="s">
+        <v>719</v>
+      </c>
+      <c r="E127" t="s">
+        <v>720</v>
+      </c>
+      <c r="F127" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" t="s">
+        <v>378</v>
+      </c>
+      <c r="H127" t="s">
         <v>721</v>
       </c>
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" t="s">
-        <v>240</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="I127" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" t="s">
+        <v>36</v>
+      </c>
+      <c r="K127" t="s">
+        <v>293</v>
+      </c>
+      <c r="L127" t="s">
+        <v>352</v>
+      </c>
+      <c r="M127" t="s">
+        <v>380</v>
+      </c>
+      <c r="N127" t="s">
         <v>722</v>
-      </c>
-      <c r="E127" t="s">
-        <v>723</v>
-      </c>
-      <c r="F127" t="s">
-        <v>34</v>
-      </c>
-      <c r="G127" t="s">
-        <v>265</v>
-      </c>
-      <c r="H127" t="s">
-        <v>724</v>
-      </c>
-      <c r="I127" t="s">
-        <v>22</v>
-      </c>
-      <c r="J127" t="s">
-        <v>36</v>
-      </c>
-      <c r="K127" t="s">
-        <v>267</v>
-      </c>
-      <c r="L127" t="s">
-        <v>268</v>
-      </c>
-      <c r="M127" t="s">
-        <v>269</v>
-      </c>
-      <c r="N127" t="s">
-        <v>725</v>
       </c>
       <c r="O127" t="s">
         <v>25</v>
@@ -8274,46 +8241,46 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>723</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>268</v>
+      </c>
+      <c r="D128" t="s">
+        <v>724</v>
+      </c>
+      <c r="E128" t="s">
+        <v>725</v>
+      </c>
+      <c r="F128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" t="s">
+        <v>298</v>
+      </c>
+      <c r="H128" t="s">
         <v>726</v>
       </c>
-      <c r="B128" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" t="s">
-        <v>240</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="I128" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" t="s">
+        <v>36</v>
+      </c>
+      <c r="K128" t="s">
+        <v>300</v>
+      </c>
+      <c r="L128" t="s">
+        <v>301</v>
+      </c>
+      <c r="M128" t="s">
+        <v>302</v>
+      </c>
+      <c r="N128" t="s">
         <v>727</v>
-      </c>
-      <c r="E128" t="s">
-        <v>728</v>
-      </c>
-      <c r="F128" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128" t="s">
-        <v>317</v>
-      </c>
-      <c r="H128" t="s">
-        <v>729</v>
-      </c>
-      <c r="I128" t="s">
-        <v>22</v>
-      </c>
-      <c r="J128" t="s">
-        <v>36</v>
-      </c>
-      <c r="K128" t="s">
-        <v>319</v>
-      </c>
-      <c r="L128" t="s">
-        <v>320</v>
-      </c>
-      <c r="M128" t="s">
-        <v>321</v>
-      </c>
-      <c r="N128" t="s">
-        <v>730</v>
       </c>
       <c r="O128" t="s">
         <v>25</v>
@@ -8321,46 +8288,46 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>728</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" t="s">
+        <v>729</v>
+      </c>
+      <c r="E129" t="s">
+        <v>730</v>
+      </c>
+      <c r="F129" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" t="s">
+        <v>341</v>
+      </c>
+      <c r="H129" t="s">
         <v>731</v>
       </c>
-      <c r="B129" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" t="s">
-        <v>240</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="I129" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" t="s">
+        <v>36</v>
+      </c>
+      <c r="K129" t="s">
+        <v>343</v>
+      </c>
+      <c r="L129" t="s">
+        <v>344</v>
+      </c>
+      <c r="M129" t="s">
+        <v>345</v>
+      </c>
+      <c r="N129" t="s">
         <v>732</v>
-      </c>
-      <c r="E129" t="s">
-        <v>733</v>
-      </c>
-      <c r="F129" t="s">
-        <v>34</v>
-      </c>
-      <c r="G129" t="s">
-        <v>308</v>
-      </c>
-      <c r="H129" t="s">
-        <v>734</v>
-      </c>
-      <c r="I129" t="s">
-        <v>22</v>
-      </c>
-      <c r="J129" t="s">
-        <v>36</v>
-      </c>
-      <c r="K129" t="s">
-        <v>310</v>
-      </c>
-      <c r="L129" t="s">
-        <v>311</v>
-      </c>
-      <c r="M129" t="s">
-        <v>312</v>
-      </c>
-      <c r="N129" t="s">
-        <v>735</v>
       </c>
       <c r="O129" t="s">
         <v>25</v>
@@ -8368,46 +8335,46 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>733</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>268</v>
+      </c>
+      <c r="D130" t="s">
+        <v>734</v>
+      </c>
+      <c r="E130" t="s">
+        <v>290</v>
+      </c>
+      <c r="F130" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" t="s">
+        <v>378</v>
+      </c>
+      <c r="H130" t="s">
+        <v>735</v>
+      </c>
+      <c r="I130" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" t="s">
+        <v>36</v>
+      </c>
+      <c r="K130" t="s">
+        <v>293</v>
+      </c>
+      <c r="L130" t="s">
+        <v>352</v>
+      </c>
+      <c r="M130" t="s">
+        <v>380</v>
+      </c>
+      <c r="N130" t="s">
         <v>736</v>
-      </c>
-      <c r="B130" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" t="s">
-        <v>240</v>
-      </c>
-      <c r="D130" t="s">
-        <v>737</v>
-      </c>
-      <c r="E130" t="s">
-        <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>34</v>
-      </c>
-      <c r="G130" t="s">
-        <v>354</v>
-      </c>
-      <c r="H130" t="s">
-        <v>738</v>
-      </c>
-      <c r="I130" t="s">
-        <v>22</v>
-      </c>
-      <c r="J130" t="s">
-        <v>36</v>
-      </c>
-      <c r="K130" t="s">
-        <v>260</v>
-      </c>
-      <c r="L130" t="s">
-        <v>328</v>
-      </c>
-      <c r="M130" t="s">
-        <v>356</v>
-      </c>
-      <c r="N130" t="s">
-        <v>739</v>
       </c>
       <c r="O130" t="s">
         <v>25</v>
@@ -8415,46 +8382,46 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>737</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>268</v>
+      </c>
+      <c r="D131" t="s">
+        <v>738</v>
+      </c>
+      <c r="E131" t="s">
+        <v>739</v>
+      </c>
+      <c r="F131" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" t="s">
+        <v>341</v>
+      </c>
+      <c r="H131" t="s">
         <v>740</v>
       </c>
-      <c r="B131" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" t="s">
-        <v>240</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="I131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" t="s">
+        <v>36</v>
+      </c>
+      <c r="K131" t="s">
+        <v>343</v>
+      </c>
+      <c r="L131" t="s">
+        <v>344</v>
+      </c>
+      <c r="M131" t="s">
+        <v>345</v>
+      </c>
+      <c r="N131" t="s">
         <v>741</v>
-      </c>
-      <c r="E131" t="s">
-        <v>742</v>
-      </c>
-      <c r="F131" t="s">
-        <v>34</v>
-      </c>
-      <c r="G131" t="s">
-        <v>308</v>
-      </c>
-      <c r="H131" t="s">
-        <v>743</v>
-      </c>
-      <c r="I131" t="s">
-        <v>22</v>
-      </c>
-      <c r="J131" t="s">
-        <v>36</v>
-      </c>
-      <c r="K131" t="s">
-        <v>310</v>
-      </c>
-      <c r="L131" t="s">
-        <v>311</v>
-      </c>
-      <c r="M131" t="s">
-        <v>312</v>
-      </c>
-      <c r="N131" t="s">
-        <v>744</v>
       </c>
       <c r="O131" t="s">
         <v>25</v>
@@ -8476,10 +8443,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2">
@@ -8487,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3">
@@ -8495,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4">
@@ -8503,7 +8470,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5">
@@ -8511,7 +8478,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6">
@@ -8519,7 +8486,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="7">
@@ -8527,7 +8494,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8">
@@ -8535,7 +8502,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9">
@@ -8543,7 +8510,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10">
@@ -8551,7 +8518,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11">
@@ -8559,7 +8526,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12">
@@ -8567,7 +8534,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13">
@@ -8575,7 +8542,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14">
@@ -8583,7 +8550,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15">
@@ -8591,7 +8558,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P01_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P01_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="770">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -78,6 +78,9 @@
     <t xml:space="preserve">agriculture</t>
   </si>
   <si>
+    <t xml:space="preserve">6000</t>
+  </si>
+  <si>
     <t xml:space="preserve">kjærsgård</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
     <t xml:space="preserve">10.0803</t>
   </si>
   <si>
+    <t xml:space="preserve">6233</t>
+  </si>
+  <si>
     <t xml:space="preserve">uggerby skovvej</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t xml:space="preserve">natural_soil</t>
   </si>
   <si>
+    <t xml:space="preserve">9911</t>
+  </si>
+  <si>
     <t xml:space="preserve">tversted plantage</t>
   </si>
   <si>
@@ -141,6 +150,9 @@
     <t xml:space="preserve">8.5608</t>
   </si>
   <si>
+    <t xml:space="preserve">9915</t>
+  </si>
+  <si>
     <t xml:space="preserve">raspkær</t>
   </si>
   <si>
@@ -174,6 +186,9 @@
     <t xml:space="preserve">8.9118</t>
   </si>
   <si>
+    <t xml:space="preserve">9990</t>
+  </si>
+  <si>
     <t xml:space="preserve">tovsigvej</t>
   </si>
   <si>
@@ -192,6 +207,9 @@
     <t xml:space="preserve">9.8509</t>
   </si>
   <si>
+    <t xml:space="preserve">9940</t>
+  </si>
+  <si>
     <t xml:space="preserve">rold</t>
   </si>
   <si>
@@ -228,6 +246,9 @@
     <t xml:space="preserve">8.3723</t>
   </si>
   <si>
+    <t xml:space="preserve">9920</t>
+  </si>
+  <si>
     <t xml:space="preserve">ejstrup krat</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t xml:space="preserve">8.2128</t>
   </si>
   <si>
+    <t xml:space="preserve">6212</t>
+  </si>
+  <si>
     <t xml:space="preserve">lønne</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t xml:space="preserve">10.5872</t>
   </si>
   <si>
+    <t xml:space="preserve">6402</t>
+  </si>
+  <si>
     <t xml:space="preserve">strandkær</t>
   </si>
   <si>
@@ -423,6 +450,9 @@
     <t xml:space="preserve">9.6931</t>
   </si>
   <si>
+    <t xml:space="preserve">7007</t>
+  </si>
+  <si>
     <t xml:space="preserve">rands fjord</t>
   </si>
   <si>
@@ -789,9 +819,6 @@
     <t xml:space="preserve">12.5389</t>
   </si>
   <si>
-    <t xml:space="preserve">9000</t>
-  </si>
-  <si>
     <t xml:space="preserve">lindebakker</t>
   </si>
   <si>
@@ -966,7 +993,7 @@
     <t xml:space="preserve">8.9511</t>
   </si>
   <si>
-    <t xml:space="preserve">4110</t>
+    <t xml:space="preserve">4010</t>
   </si>
   <si>
     <t xml:space="preserve">lild strand</t>
@@ -1254,7 +1281,7 @@
     <t xml:space="preserve">8.5079</t>
   </si>
   <si>
-    <t xml:space="preserve">4130</t>
+    <t xml:space="preserve">4030</t>
   </si>
   <si>
     <t xml:space="preserve">lilleå</t>
@@ -2323,17 +2350,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2353,11 +2375,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2717,29 +2738,31 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2748,37 +2771,39 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -2787,1687 +2812,1769 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>127</v>
+      </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="O20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
       <c r="N22" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
       <c r="N23" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
       <c r="N24" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="O24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
       <c r="N26" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="O26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
       <c r="H27" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
       <c r="N27" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="O27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="O28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
         <v>169</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>159</v>
-      </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
       <c r="N29" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="O29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
       <c r="H30" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
       <c r="N30" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
       <c r="N31" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
       <c r="H32" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
       <c r="N32" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="O32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
       <c r="H33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
       <c r="N33" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="O33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
       <c r="H34" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
       <c r="N34" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="O34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
       <c r="N35" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="O35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
       <c r="H36" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
       <c r="N36" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="O36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
       <c r="H37" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
       <c r="N37" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
       <c r="N38" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="O38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
         <v>224</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>214</v>
-      </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E39" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
       <c r="H39" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>36</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
       <c r="N39" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="O39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>127</v>
+      </c>
       <c r="H40" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
       <c r="N40" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="O40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E41" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
       <c r="H41" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>36</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
       <c r="N41" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="O41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
       <c r="H42" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
       <c r="N42" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="O42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>127</v>
+      </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
       <c r="N43" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="O43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
         <v>250</v>
       </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>240</v>
-      </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
       <c r="N44" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E45" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K45" t="s">
-        <v>260</v>
-      </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+        <v>269</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
       <c r="N45" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E46" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H46" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K46" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L46" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M46" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N46" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="O46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -4476,92 +4583,92 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H47" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K47" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N47" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="O47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E48" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H48" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K48" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L48" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M48" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N48" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="O48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -4570,45 +4677,45 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E49" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H49" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K49" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L49" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M49" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N49" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="O49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -4617,3847 +4724,3847 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E50" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H50" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K50" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L50" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N50" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="O50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="E51" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H51" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K51" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L51" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M51" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="N51" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="O51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E52" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H52" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K52" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L52" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M52" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N52" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="O52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E53" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H53" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K53" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L53" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N53" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="O53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E54" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H54" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K54" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L54" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M54" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N54" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="O54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E55" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H55" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K55" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M55" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="N55" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="O55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="E56" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H56" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K56" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L56" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M56" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="N56" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="O56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="E57" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H57" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K57" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L57" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M57" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N57" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="O57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E58" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H58" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K58" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L58" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N58" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="O58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E59" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H59" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K59" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L59" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M59" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="N59" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="O59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="E60" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H60" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="I60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K60" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L60" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M60" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="N60" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="O60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="E61" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H61" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K61" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L61" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M61" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="N61" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="O61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E62" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H62" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J62" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K62" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L62" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M62" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N62" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="O62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E63" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H63" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K63" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L63" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M63" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="N63" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="O63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E64" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H64" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K64" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L64" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M64" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N64" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="O64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E65" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H65" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K65" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L65" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M65" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N65" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="O65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E66" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H66" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K66" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L66" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M66" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N66" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="O66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="E67" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H67" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K67" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L67" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M67" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="N67" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="O67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E68" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H68" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K68" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L68" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M68" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N68" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="O68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E69" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H69" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J69" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K69" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L69" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M69" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N69" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="O69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E70" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H70" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J70" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K70" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L70" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M70" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N70" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="O70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E71" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H71" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K71" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L71" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M71" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N71" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="O71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D72" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="E72" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H72" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J72" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K72" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L72" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M72" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="N72" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="O72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D73" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E73" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H73" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J73" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K73" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L73" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M73" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N73" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="O73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D74" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="E74" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H74" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K74" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L74" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M74" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="N74" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="O74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E75" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H75" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K75" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L75" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M75" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N75" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="O75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E76" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H76" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J76" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K76" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L76" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M76" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N76" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="O76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="E77" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H77" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J77" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K77" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L77" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M77" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="N77" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="O77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E78" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H78" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J78" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K78" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L78" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M78" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="N78" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="O78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="E79" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H79" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J79" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K79" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L79" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M79" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="N79" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="O79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D80" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E80" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H80" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J80" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K80" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L80" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M80" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="N80" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="O80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D81" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E81" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H81" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J81" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K81" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L81" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M81" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N81" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="O81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D82" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E82" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H82" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J82" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K82" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L82" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M82" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N82" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="O82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D83" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E83" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H83" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J83" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K83" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L83" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M83" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N83" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="O83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E84" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H84" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J84" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K84" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L84" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M84" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="N84" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="O84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="E85" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H85" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J85" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K85" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L85" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M85" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="N85" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="O85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D86" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E86" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H86" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K86" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L86" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M86" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N86" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="O86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D87" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="E87" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H87" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="I87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J87" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K87" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L87" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="M87" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="N87" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="O87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E88" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H88" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J88" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K88" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L88" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M88" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N88" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="O88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E89" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H89" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J89" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K89" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L89" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M89" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="N89" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="O89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E90" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H90" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="I90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J90" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K90" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L90" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M90" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N90" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D91" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E91" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H91" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="I91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J91" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K91" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L91" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M91" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N91" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="O91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E92" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H92" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="I92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J92" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K92" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L92" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M92" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N92" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="O92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D93" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E93" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H93" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J93" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K93" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L93" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M93" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N93" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="O93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="E94" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H94" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J94" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K94" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L94" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M94" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="N94" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="O94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D95" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="E95" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H95" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J95" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K95" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L95" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M95" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="N95" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="O95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="E96" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H96" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="I96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J96" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K96" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L96" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M96" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N96" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="O96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D97" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="E97" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H97" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="I97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J97" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K97" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L97" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M97" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N97" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="O97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D98" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E98" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H98" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J98" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K98" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L98" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M98" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N98" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="O98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D99" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E99" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H99" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="I99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J99" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K99" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L99" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M99" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N99" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="O99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D100" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="E100" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H100" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="I100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J100" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K100" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L100" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M100" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N100" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="O100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D101" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="E101" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H101" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="I101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J101" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K101" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L101" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M101" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="N101" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="O101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D102" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="E102" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H102" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J102" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K102" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L102" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M102" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N102" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="O102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D103" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="E103" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H103" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="I103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J103" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K103" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L103" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M103" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N103" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="O103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D104" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="E104" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H104" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="I104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J104" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K104" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L104" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M104" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N104" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="O104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="E105" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H105" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="I105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J105" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K105" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L105" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="M105" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="N105" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="O105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="E106" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H106" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J106" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K106" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L106" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M106" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N106" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="O106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D107" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="E107" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H107" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J107" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K107" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L107" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M107" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="N107" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="O107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D108" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E108" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H108" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="I108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J108" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K108" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L108" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M108" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N108" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="O108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D109" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="E109" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H109" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="I109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J109" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K109" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L109" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M109" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N109" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="O109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D110" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="E110" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H110" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J110" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K110" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L110" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M110" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="N110" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="O110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D111" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="E111" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H111" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="I111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J111" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K111" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L111" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M111" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="N111" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="O111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D112" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="E112" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H112" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="I112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J112" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K112" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L112" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M112" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N112" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="O112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D113" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="E113" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H113" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J113" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K113" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L113" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M113" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="N113" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="O113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D114" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="E114" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H114" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="I114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J114" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K114" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L114" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M114" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N114" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="O114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D115" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="E115" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H115" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="I115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J115" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K115" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L115" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M115" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N115" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="O115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D116" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="E116" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H116" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J116" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K116" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L116" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M116" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N116" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="O116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D117" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="E117" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H117" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="I117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J117" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K117" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L117" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M117" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N117" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="O117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D118" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="E118" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H118" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="I118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J118" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K118" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L118" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M118" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N118" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="O118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D119" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="E119" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H119" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="I119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J119" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K119" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L119" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M119" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="N119" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="O119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D120" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="E120" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H120" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="I120" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J120" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K120" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L120" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M120" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N120" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="O120" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D121" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="E121" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H121" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="I121" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J121" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K121" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L121" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M121" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N121" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="O121" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D122" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="E122" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H122" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="I122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J122" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K122" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L122" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M122" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N122" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="O122" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D123" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="E123" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H123" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="I123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J123" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K123" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L123" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M123" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="N123" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="O123" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D124" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="E124" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H124" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="I124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J124" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K124" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L124" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M124" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N124" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="O124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D125" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="E125" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H125" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="I125" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J125" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K125" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L125" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M125" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N125" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="O125" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D126" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="E126" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H126" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="I126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J126" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K126" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L126" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M126" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N126" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="O126" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D127" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="E127" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H127" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="I127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J127" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K127" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L127" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M127" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N127" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="O127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D128" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="E128" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H128" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="I128" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J128" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K128" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L128" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M128" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N128" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="O128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D129" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="E129" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H129" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="I129" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J129" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K129" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L129" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M129" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N129" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="O129" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D130" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H130" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="I130" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K130" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L130" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M130" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N130" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="O130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D131" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="E131" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H131" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="I131" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J131" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K131" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L131" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M131" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N131" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="O131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -8476,10 +8583,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2">
@@ -8487,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3">
@@ -8495,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4">
@@ -8503,7 +8610,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5">
@@ -8511,7 +8618,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6">
@@ -8519,7 +8626,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7">
@@ -8527,7 +8634,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8">
@@ -8535,7 +8642,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9">
@@ -8543,7 +8650,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10">
@@ -8551,7 +8658,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11">
@@ -8559,7 +8666,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
     </row>
     <row r="12">
@@ -8567,7 +8674,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13">
@@ -8575,7 +8682,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14">
@@ -8583,7 +8690,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
     </row>
     <row r="15">
@@ -8591,7 +8698,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
